--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>上海市闵行区金平路777弄174号401室李培松13761255788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市朝阳区左安路368总站，李小萍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -965,25 +971,37 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A14" s="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10">
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7">
+        <v>42085</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>168</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="G14" s="8">
+        <v>30</v>
+      </c>
+      <c r="H14" s="8">
         <f>D14*G14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,14 @@
   </si>
   <si>
     <t>北京市朝阳区左安路368总站，李小萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融科林语王诗文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融科林语小隋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +179,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -205,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -228,11 +244,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -274,6 +301,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,9 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -595,28 +633,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" t="s">
+      <c r="C1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="20">
+        <v>158</v>
+      </c>
+      <c r="E1" s="21">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D2" s="18">
         <v>168</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E2" s="19">
         <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="20">
-        <v>158</v>
-      </c>
-      <c r="E2" s="21">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1">
@@ -907,140 +945,165 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A12" s="1">
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A12" s="22">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="23">
         <v>42083</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="24">
         <v>168</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="24">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="24">
         <v>30</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="24">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="5">
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A13" s="22">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="23">
         <v>42084</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="22">
         <v>2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="24">
         <v>188</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="24">
         <f t="shared" si="0"/>
         <v>376</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="24">
         <v>20</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="24">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A14" s="5">
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A14" s="22">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="23">
         <v>42085</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="22">
         <v>1</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="24">
         <v>168</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="24">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="24">
         <v>30</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="24">
         <f>D14*G14</f>
         <v>30</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A15" s="1">
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A15" s="22">
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="10">
+      <c r="B15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="23">
+        <v>42085</v>
+      </c>
+      <c r="D15" s="22">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24">
+        <v>158</v>
+      </c>
+      <c r="F15" s="24">
         <f t="shared" ref="F15:F24" si="2">D15*E15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10">
+        <v>158</v>
+      </c>
+      <c r="G15" s="24">
+        <v>20</v>
+      </c>
+      <c r="H15" s="24">
         <f t="shared" ref="H15:H24" si="3">D15*G15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A16" s="1">
+        <v>20</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A16" s="22">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="10">
+      <c r="B16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="23">
+        <v>42085</v>
+      </c>
+      <c r="D16" s="26">
+        <v>1</v>
+      </c>
+      <c r="E16" s="24">
+        <v>150</v>
+      </c>
+      <c r="F16" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10">
+        <v>150</v>
+      </c>
+      <c r="G16" s="24">
+        <v>12</v>
+      </c>
+      <c r="H16" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
@@ -1497,7 +1560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1511,20 +1576,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="20">
+        <v>279</v>
+      </c>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D2" s="18">
         <v>299</v>
-      </c>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="20">
-        <v>279</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -1990,9 +2055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2020,25 +2083,31 @@
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="20">
+        <v>45</v>
+      </c>
+      <c r="E2" s="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D3" s="28">
+        <v>55</v>
+      </c>
+      <c r="E3" s="19">
+        <v>85</v>
+      </c>
+      <c r="F3" s="27">
         <v>50</v>
       </c>
-      <c r="E2" s="19">
+      <c r="G3" s="27">
         <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="20">
-        <v>45</v>
-      </c>
-      <c r="E3" s="21">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1">
@@ -2508,6 +2577,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2515,9 +2585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2545,25 +2613,31 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="20">
+        <v>130</v>
+      </c>
+      <c r="E2" s="21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D3" s="18">
+        <v>146</v>
+      </c>
+      <c r="E3" s="19">
+        <v>105</v>
+      </c>
+      <c r="F3" s="27">
         <v>136</v>
       </c>
-      <c r="E2" s="19">
+      <c r="G3" s="27">
         <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="20">
-        <v>130</v>
-      </c>
-      <c r="E3" s="21">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1055,18 +1055,18 @@
         <v>1</v>
       </c>
       <c r="E15" s="24">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F15" s="24">
         <f t="shared" ref="F15:F24" si="2">D15*E15</f>
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G15" s="24">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H15" s="24">
-        <f t="shared" ref="H15:H24" si="3">D15*G15</f>
-        <v>20</v>
+        <f>D15*G15</f>
+        <v>12</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>19</v>
@@ -1087,18 +1087,18 @@
         <v>1</v>
       </c>
       <c r="E16" s="24">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F16" s="24">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G16" s="24">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H16" s="24">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" ref="H15:H24" si="3">D16*G16</f>
+        <v>30</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>29</v>
@@ -2585,7 +2585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,14 @@
   </si>
   <si>
     <t>融科林语小隋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江省嘉兴市桐乡市濮院镇上马墩146号2楼陈静收电话18616654114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市嘉定区嘉怡路296号雯捷商务楼5楼炫彩公寓办公室郑梅电话15921966290</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1097,7 +1105,7 @@
         <v>30</v>
       </c>
       <c r="H16" s="24">
-        <f t="shared" ref="H15:H24" si="3">D16*G16</f>
+        <f t="shared" ref="H16:H24" si="3">D16*G16</f>
         <v>30</v>
       </c>
       <c r="I16" s="24" t="s">
@@ -2055,7 +2063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2178,40 +2186,64 @@
       <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="14">
+        <v>42085</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>45</v>
+      </c>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="G6" s="10">
+        <v>10</v>
+      </c>
       <c r="H6" s="10">
         <f>D6*G6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="14">
+        <v>42085</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>45</v>
+      </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="G7" s="10">
+        <v>10</v>
+      </c>
       <c r="H7" s="10">
         <f t="shared" ref="H7:H25" si="1">D7*G7</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
@@ -2586,7 +2618,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,26 @@
   </si>
   <si>
     <t>上海市嘉定区嘉怡路296号雯捷商务楼5楼炫彩公寓办公室郑梅电话15921966290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省石家庄市平安大街中基礼域南区17号楼一单元1804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南qq聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城小区董</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未确认下单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,25 +1133,37 @@
       </c>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A17" s="1">
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A17" s="22">
         <v>14</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="10">
+      <c r="B17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="23">
+        <v>42085</v>
+      </c>
+      <c r="D17" s="22">
+        <v>2</v>
+      </c>
+      <c r="E17" s="24">
+        <v>158</v>
+      </c>
+      <c r="F17" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10">
+        <v>316</v>
+      </c>
+      <c r="G17" s="24">
+        <v>20</v>
+      </c>
+      <c r="H17" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
@@ -2250,8 +2282,12 @@
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="14">
+        <v>42085</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10">
@@ -2264,14 +2300,20 @@
         <v>0</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="14">
+        <v>42085</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
@@ -2284,7 +2326,9 @@
         <v>0</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
@@ -2618,7 +2662,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>未确认下单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -973,37 +979,37 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A12" s="22">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="7">
         <v>42083</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="8">
         <v>168</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="8">
         <v>30</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="8">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="22"/>
+      <c r="I12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="22">
@@ -2095,7 +2101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2314,21 +2322,27 @@
       <c r="C9" s="14">
         <v>42085</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>55</v>
+      </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="G9" s="10">
+        <v>20</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,6 +183,14 @@
   </si>
   <si>
     <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市松江区珠江新城51号903室，徐正才，13817940788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市闵行区瑞丽路386弄5号901电话13818320617朱沙沙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -740,7 +744,7 @@
         <v>178</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F14" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F15" si="0">D4*E4</f>
         <v>356</v>
       </c>
       <c r="G4" s="8">
@@ -1016,30 +1020,30 @@
         <v>10</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C13" s="23">
         <v>42084</v>
       </c>
       <c r="D13" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="24">
         <v>188</v>
       </c>
       <c r="F13" s="24">
         <f t="shared" si="0"/>
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="G13" s="24">
         <v>20</v>
       </c>
       <c r="H13" s="24">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="22"/>
     </row>
@@ -1048,30 +1052,30 @@
         <v>11</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C14" s="23">
-        <v>42085</v>
+        <v>42084</v>
       </c>
       <c r="D14" s="22">
         <v>1</v>
       </c>
       <c r="E14" s="24">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="F14" s="24">
-        <f t="shared" si="0"/>
-        <v>168</v>
+        <f t="shared" ref="F14" si="2">D14*E14</f>
+        <v>188</v>
       </c>
       <c r="G14" s="24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H14" s="24">
-        <f>D14*G14</f>
-        <v>30</v>
+        <f t="shared" ref="H14" si="3">D14*G14</f>
+        <v>20</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="22"/>
     </row>
@@ -1080,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="23">
         <v>42085</v>
@@ -1089,21 +1093,21 @@
         <v>1</v>
       </c>
       <c r="E15" s="24">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F15" s="24">
-        <f t="shared" ref="F15:F24" si="2">D15*E15</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
       <c r="G15" s="24">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H15" s="24">
         <f>D15*G15</f>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J15" s="22"/>
     </row>
@@ -1112,30 +1116,30 @@
         <v>13</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="23">
         <v>42085</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="22">
         <v>1</v>
       </c>
       <c r="E16" s="24">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F16" s="24">
-        <f t="shared" si="2"/>
-        <v>168</v>
+        <f t="shared" ref="F16:F25" si="4">D16*E16</f>
+        <v>150</v>
       </c>
       <c r="G16" s="24">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H16" s="24">
-        <f t="shared" ref="H16:H24" si="3">D16*G16</f>
-        <v>30</v>
+        <f>D16*G16</f>
+        <v>12</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J16" s="22"/>
     </row>
@@ -1144,52 +1148,64 @@
         <v>14</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" s="23">
         <v>42085</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="26">
+        <v>1</v>
+      </c>
+      <c r="E17" s="24">
+        <v>168</v>
+      </c>
+      <c r="F17" s="24">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="G17" s="24">
+        <v>30</v>
+      </c>
+      <c r="H17" s="24">
+        <f t="shared" ref="H17:H25" si="5">D17*G17</f>
+        <v>30</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A18" s="22">
+        <v>15</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="23">
+        <v>42085</v>
+      </c>
+      <c r="D18" s="22">
         <v>2</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E18" s="24">
         <v>158</v>
       </c>
-      <c r="F17" s="24">
-        <f t="shared" si="2"/>
+      <c r="F18" s="24">
+        <f t="shared" si="4"/>
         <v>316</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G18" s="24">
         <v>20</v>
       </c>
-      <c r="H17" s="24">
-        <f t="shared" si="3"/>
+      <c r="H18" s="24">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="I17" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
@@ -1200,12 +1216,12 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
@@ -1220,12 +1236,12 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -1240,12 +1256,12 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -1260,12 +1276,12 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -1280,12 +1296,12 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -1300,12 +1316,12 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -1320,12 +1336,12 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="10">
-        <f t="shared" ref="F25:F38" si="4">D25*E25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10">
-        <f t="shared" ref="H25:H38" si="5">D25*G25</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
@@ -1340,12 +1356,12 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F26:F39" si="6">D26*E26</f>
         <v>0</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H26:H39" si="7">D26*G26</f>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
@@ -1360,12 +1376,12 @@
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
@@ -1380,12 +1396,12 @@
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
@@ -1400,12 +1416,12 @@
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
@@ -1420,12 +1436,12 @@
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
@@ -1440,12 +1456,12 @@
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
@@ -1460,12 +1476,12 @@
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
@@ -1480,12 +1496,12 @@
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
@@ -1500,12 +1516,12 @@
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
@@ -1520,12 +1536,12 @@
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
@@ -1540,12 +1556,12 @@
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
@@ -1560,12 +1576,12 @@
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
@@ -1580,16 +1596,36 @@
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:J3">
@@ -2195,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="14">
         <v>42085</v>
@@ -2227,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="14">
         <v>42085</v>
@@ -2259,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="14">
         <v>42085</v>
@@ -2291,7 +2327,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="14">
         <v>42085</v>
@@ -2309,7 +2345,7 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
@@ -2317,7 +2353,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="14">
         <v>42085</v>
@@ -2340,7 +2376,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="12"/>
     </row>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,19 +166,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>济南qq聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城小区董</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未确认下单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>济南qq聊天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金城小区董</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未确认下单</t>
+    <t>上海市松江区珠江新城51号903室，徐正才，13817940788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市闵行区瑞丽路386弄5号901电话13818320617朱沙沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市闵行区金平路788弄205号101室  杨秀英  13818937500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,19 +198,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上海市松江区珠江新城51号903室，徐正才，13817940788</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海市闵行区瑞丽路386弄5号901电话13818320617朱沙沙</t>
+    <t>杭州市下城区云天财富中心酒店式公寓328席克友13372512810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,7 +427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,9 +459,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,6 +494,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,14 +670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -670,7 +688,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
@@ -681,7 +699,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -695,7 +713,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,7 +745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -759,7 +777,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -791,7 +809,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -823,7 +841,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -855,7 +873,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -887,7 +905,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -919,7 +937,7 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -951,7 +969,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -983,7 +1001,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1015,12 +1033,12 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>10</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="23">
         <v>42084</v>
@@ -1047,12 +1065,12 @@
       </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>11</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="23">
         <v>42084</v>
@@ -1079,7 +1097,7 @@
       </c>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>12</v>
       </c>
@@ -1111,7 +1129,7 @@
       </c>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>13</v>
       </c>
@@ -1143,7 +1161,7 @@
       </c>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>14</v>
       </c>
@@ -1175,7 +1193,7 @@
       </c>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>15</v>
       </c>
@@ -1203,51 +1221,75 @@
         <v>40</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A19" s="1">
+    <row r="19" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="22">
         <v>16</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="10">
+      <c r="B19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="23">
+        <v>42087</v>
+      </c>
+      <c r="D19" s="22">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
+        <v>158</v>
+      </c>
+      <c r="F19" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
+        <v>158</v>
+      </c>
+      <c r="G19" s="24">
+        <v>20</v>
+      </c>
+      <c r="H19" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="22">
         <v>17</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="10">
+      <c r="B20" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="23">
+        <v>42087</v>
+      </c>
+      <c r="D20" s="22">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24">
+        <v>158</v>
+      </c>
+      <c r="F20" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10">
+        <v>158</v>
+      </c>
+      <c r="G20" s="24">
+        <v>20</v>
+      </c>
+      <c r="H20" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1267,7 +1309,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1287,7 +1329,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1307,7 +1349,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1327,7 +1369,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1347,7 +1389,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="20.25" customHeight="1">
+    <row r="26" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1367,7 +1409,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="20.25" customHeight="1">
+    <row r="27" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1387,7 +1429,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="20.25" customHeight="1">
+    <row r="28" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1407,7 +1449,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="20.25" customHeight="1">
+    <row r="29" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1427,7 +1469,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="20.25" customHeight="1">
+    <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1447,7 +1489,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="20.25" customHeight="1">
+    <row r="31" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1467,7 +1509,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="20.25" customHeight="1">
+    <row r="32" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1487,7 +1529,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="20.25" customHeight="1">
+    <row r="33" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1507,7 +1549,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="20.25" customHeight="1">
+    <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1527,7 +1569,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1">
+    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1547,7 +1589,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="20.25" customHeight="1">
+    <row r="36" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1567,7 +1609,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="20.25" customHeight="1">
+    <row r="37" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1587,7 +1629,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="20.25" customHeight="1">
+    <row r="38" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1607,7 +1649,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1">
+    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1628,10 +1670,7 @@
       <c r="J39" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J3">
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-  </autoFilter>
+  <autoFilter ref="A3:J3"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1639,14 +1678,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1657,7 +1696,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
@@ -1666,7 +1705,7 @@
       </c>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="18" t="s">
         <v>21</v>
       </c>
@@ -1675,7 +1714,7 @@
       </c>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -1727,7 +1766,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1747,7 +1786,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1767,7 +1806,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1787,7 +1826,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1807,7 +1846,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1827,7 +1866,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -1847,7 +1886,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -1867,7 +1906,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1887,7 +1926,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1907,7 +1946,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1927,7 +1966,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1947,7 +1986,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1966,7 +2005,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1986,7 +2025,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2006,7 +2045,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2026,7 +2065,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2046,7 +2085,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2066,7 +2105,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2086,7 +2125,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2106,7 +2145,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2134,14 +2173,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2152,7 +2189,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="16" t="s">
         <v>23</v>
       </c>
@@ -2163,7 +2200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -2177,7 +2214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="18" t="s">
         <v>21</v>
       </c>
@@ -2194,7 +2231,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -2258,7 +2295,7 @@
       </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -2290,7 +2327,7 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -2322,12 +2359,12 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="14">
         <v>42085</v>
@@ -2345,15 +2382,15 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="14">
         <v>42085</v>
@@ -2376,11 +2413,11 @@
         <v>20</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -2400,7 +2437,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -2420,7 +2457,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2440,7 +2477,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2460,7 +2497,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2480,7 +2517,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2500,7 +2537,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2520,7 +2557,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2540,7 +2577,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2560,7 +2597,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2580,7 +2617,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2600,7 +2637,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2620,7 +2657,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2640,7 +2677,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2660,7 +2697,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2680,7 +2717,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2708,14 +2745,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2726,7 +2763,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="16" t="s">
         <v>27</v>
       </c>
@@ -2737,7 +2774,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -2751,7 +2788,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="18" t="s">
         <v>21</v>
       </c>
@@ -2768,7 +2805,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2800,7 +2837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -2820,7 +2857,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -2840,7 +2877,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -2860,7 +2897,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -2880,7 +2917,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -2900,7 +2937,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -2920,7 +2957,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -2940,7 +2977,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2960,7 +2997,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2980,7 +3017,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3000,7 +3037,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3020,7 +3057,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3040,7 +3077,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3059,7 +3096,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3079,7 +3116,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3099,7 +3136,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3119,7 +3156,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3139,7 +3176,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3159,7 +3196,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3179,7 +3216,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3199,7 +3236,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,15 +166,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>济南qq聊天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金城小区董</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未确认下单</t>
+    <t>上海市松江区珠江新城51号903室，徐正才，13817940788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市闵行区瑞丽路386弄5号901电话13818320617朱沙沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市闵行区金平路788弄205号101室  杨秀英  13818937500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -182,15 +186,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上海市松江区珠江新城51号903室，徐正才，13817940788</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海市闵行区瑞丽路386弄5号901电话13818320617朱沙沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海市闵行区金平路788弄205号101室  杨秀英  13818937500</t>
+    <t>杭州市下城区云天财富中心酒店式公寓328席克友13372512810</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -198,7 +194,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杭州市下城区云天财富中心酒店式公寓328席克友13372512810</t>
+    <t>烟台市交警支队第四大队 刁良基  18660063836</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆明市环城南路39号泰丽酒店，赵岚，13398808446，1件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,15 +214,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已付款</t>
+    <t>下单人：白文毅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单人：琳琳妈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,9 +349,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -360,12 +369,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,10 +471,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,7 +505,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -670,14 +680,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -688,32 +698,32 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:10">
+      <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="19">
         <v>158</v>
       </c>
-      <c r="E1" s="21">
+      <c r="E1" s="20">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>168</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -745,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -777,7 +787,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -809,7 +819,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -841,7 +851,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -873,7 +883,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -905,7 +915,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -937,7 +947,7 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -969,7 +979,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1001,7 +1011,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1033,283 +1043,299 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="23">
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="7">
         <v>42084</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="8">
         <v>188</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="8">
         <v>20</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="8">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7">
         <v>42084</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="8">
         <v>188</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="8">
         <f t="shared" ref="F14" si="2">D14*E14</f>
         <v>188</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="8">
         <v>20</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="8">
         <f t="shared" ref="H14" si="3">D14*G14</f>
         <v>20</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="7">
         <v>42085</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="8">
         <v>168</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="8">
         <v>30</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="8">
         <f>D15*G15</f>
         <v>30</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="7">
         <v>42085</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="8">
         <v>150</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="8">
         <f t="shared" ref="F16:F25" si="4">D16*E16</f>
         <v>150</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="8">
         <v>12</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="8">
         <f>D16*G16</f>
         <v>12</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="7">
         <v>42085</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="27">
         <v>1</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="8">
         <v>168</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="8">
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="8">
         <v>30</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="8">
         <f t="shared" ref="H17:H25" si="5">D17*G17</f>
         <v>30</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="7">
         <v>42085</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="8">
         <v>158</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="8">
         <f t="shared" si="4"/>
         <v>316</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="8">
         <v>20</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="8">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="I18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22">
+      <c r="I18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A19" s="21">
         <v>16</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="23">
+      <c r="B19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="22">
         <v>42087</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>1</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>158</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="23">
         <v>20</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="23">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="I19" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:10" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22">
+      <c r="I19" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A20" s="21">
         <v>17</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="23">
+      <c r="B20" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="22">
         <v>42087</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>158</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="23">
         <v>20</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="23">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A21" s="21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="10">
+      <c r="C21" s="22">
+        <v>42087</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23">
+        <v>158</v>
+      </c>
+      <c r="F21" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
+        <v>158</v>
+      </c>
+      <c r="G21" s="23">
+        <v>20</v>
+      </c>
+      <c r="H21" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1329,7 +1355,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1349,7 +1375,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1369,7 +1395,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1389,7 +1415,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="20.25" customHeight="1">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1409,7 +1435,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="20.25" customHeight="1">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1429,7 +1455,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="20.25" customHeight="1">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1449,7 +1475,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="20.25" customHeight="1">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1469,7 +1495,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="20.25" customHeight="1">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1489,7 +1515,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="20.25" customHeight="1">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1509,7 +1535,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="20.25" customHeight="1">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1529,7 +1555,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="20.25" customHeight="1">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1549,7 +1575,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1569,7 +1595,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1589,7 +1615,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1609,7 +1635,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1629,7 +1655,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="20.25" customHeight="1">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1649,7 +1675,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="20.25" customHeight="1">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1678,14 +1704,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1696,25 +1722,25 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:10">
+      <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="19">
         <v>279</v>
       </c>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C2" s="18" t="s">
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>299</v>
       </c>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1746,12 +1772,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="14"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="12"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10">
@@ -1766,12 +1792,12 @@
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="12"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10">
@@ -1786,12 +1812,12 @@
       <c r="I5" s="10"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="12"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10">
@@ -1806,12 +1832,12 @@
       <c r="I6" s="10"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="12"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
@@ -1826,12 +1852,12 @@
       <c r="I7" s="10"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="12"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10">
@@ -1846,12 +1872,12 @@
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="12"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
@@ -1866,12 +1892,12 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="12"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10">
@@ -1886,7 +1912,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -1906,7 +1932,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1926,7 +1952,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1946,7 +1972,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1966,7 +1992,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1986,7 +2012,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2005,7 +2031,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2025,7 +2051,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2045,7 +2071,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2065,7 +2091,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2085,7 +2111,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2105,7 +2131,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2125,7 +2151,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2145,7 +2171,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2173,12 +2199,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2189,49 +2215,49 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:10">
+      <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="15">
         <v>35</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="16">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>45</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:10">
+      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="26">
         <v>55</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>85</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="25">
         <v>50</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="25">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2263,166 +2289,160 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="22">
         <v>42085</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="21">
         <v>1</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="23">
         <v>45</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="23">
         <f t="shared" ref="F5:F25" si="0">D5*E5</f>
         <v>45</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="23">
         <v>10</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="23">
         <f>D5*G5</f>
         <v>10</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="22">
         <v>42085</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="21">
         <v>1</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="23">
         <v>45</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="23">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="23">
         <v>10</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="23">
         <f>D6*G6</f>
         <v>10</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="22">
         <v>42085</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="21">
         <v>1</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="23">
         <v>45</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="23">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="23">
         <v>10</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="23">
         <f t="shared" ref="H7:H25" si="1">D7*G7</f>
         <v>10</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="21">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="22">
         <v>42085</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23">
+        <v>55</v>
+      </c>
+      <c r="F8" s="23">
+        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
+        <v>55</v>
+      </c>
+      <c r="G8" s="23">
+        <v>20</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" ref="H8:H10" si="3">D8*G8</f>
+        <v>20</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="14">
-        <v>42085</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>55</v>
-      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="10">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G9" s="10">
-        <v>20</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>39</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="12"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10">
@@ -2431,18 +2451,18 @@
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="12"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10">
@@ -2457,7 +2477,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2477,7 +2497,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2497,7 +2517,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2517,7 +2537,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2537,7 +2557,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2557,7 +2577,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2577,7 +2597,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2597,7 +2617,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2617,7 +2637,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2637,7 +2657,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2657,7 +2677,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2677,7 +2697,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2697,7 +2717,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2717,7 +2737,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2745,14 +2765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2763,49 +2783,49 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:10">
+      <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="15">
         <v>116</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="16">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>130</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:10">
+      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>146</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>105</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="25">
         <v>136</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="25">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2837,32 +2857,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
+      <c r="B5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="22">
+        <v>42087</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <v>136</v>
+      </c>
+      <c r="F5" s="23">
         <f t="shared" ref="F5" si="0">D5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10">
+        <v>136</v>
+      </c>
+      <c r="G5" s="23">
+        <v>20</v>
+      </c>
+      <c r="H5" s="23">
         <f>D5*G5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="12"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10">
@@ -2877,12 +2911,12 @@
       <c r="I6" s="10"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="12"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
@@ -2897,12 +2931,12 @@
       <c r="I7" s="10"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="12"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10">
@@ -2917,12 +2951,12 @@
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="12"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
@@ -2937,12 +2971,12 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="12"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10">
@@ -2957,12 +2991,12 @@
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="12"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10">
@@ -2977,7 +3011,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="15" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2997,7 +3031,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3017,7 +3051,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3037,7 +3071,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3057,7 +3091,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3077,7 +3111,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3096,7 +3130,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3116,7 +3150,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3136,7 +3170,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3156,7 +3190,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3176,7 +3210,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3196,7 +3230,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3216,7 +3250,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3236,7 +3270,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,38 @@
   </si>
   <si>
     <t>下单人：琳琳妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟台开发区魏国华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己试用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝罘区祥发小学 于华军15653526881</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀区中关村东路108号。联通隆福4s店 租赁部  孙桐  13910566349。3箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30号发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1339,21 +1371,35 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="11">
+        <v>42088</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>160</v>
+      </c>
       <c r="F22" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="10"/>
+        <v>480</v>
+      </c>
+      <c r="G22" s="10">
+        <v>22</v>
+      </c>
       <c r="H22" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
@@ -2202,6 +2248,600 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="54.125" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="C1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="15">
+        <v>35</v>
+      </c>
+      <c r="E1" s="16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="19">
+        <v>45</v>
+      </c>
+      <c r="E2" s="20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="26">
+        <v>55</v>
+      </c>
+      <c r="E3" s="18">
+        <v>85</v>
+      </c>
+      <c r="F3" s="25">
+        <v>50</v>
+      </c>
+      <c r="G3" s="25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="22">
+        <v>42085</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <v>45</v>
+      </c>
+      <c r="F5" s="23">
+        <f t="shared" ref="F5:F25" si="0">D5*E5</f>
+        <v>45</v>
+      </c>
+      <c r="G5" s="23">
+        <v>10</v>
+      </c>
+      <c r="H5" s="23">
+        <f>D5*G5</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A6" s="21">
+        <v>2</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="22">
+        <v>42085</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23">
+        <v>45</v>
+      </c>
+      <c r="F6" s="23">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G6" s="23">
+        <v>10</v>
+      </c>
+      <c r="H6" s="23">
+        <f>D6*G6</f>
+        <v>10</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="21">
+        <v>3</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="22">
+        <v>42085</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23">
+        <v>45</v>
+      </c>
+      <c r="F7" s="23">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G7" s="23">
+        <v>10</v>
+      </c>
+      <c r="H7" s="23">
+        <f t="shared" ref="H7:H25" si="1">D7*G7</f>
+        <v>10</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="21">
+        <v>4</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="22">
+        <v>42085</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23">
+        <v>55</v>
+      </c>
+      <c r="F8" s="23">
+        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
+        <v>55</v>
+      </c>
+      <c r="G8" s="23">
+        <v>20</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" ref="H8:H10" si="3">D8*G8</f>
+        <v>20</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="13">
+        <v>42088</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>-55</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="2"/>
+        <v>-55</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-55</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="3"/>
+        <v>-55</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="13">
+        <v>42088</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>55</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G10" s="10">
+        <v>20</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2217,44 +2857,44 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D1" s="15">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="E1" s="16">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="19">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="E2" s="20">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="26">
-        <v>55</v>
+      <c r="D3" s="17">
+        <v>146</v>
       </c>
       <c r="E3" s="18">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F3" s="25">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="G3" s="25">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1">
@@ -2294,128 +2934,108 @@
         <v>1</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C5" s="22">
-        <v>42085</v>
+        <v>42087</v>
       </c>
       <c r="D5" s="21">
         <v>1</v>
       </c>
       <c r="E5" s="23">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="F5" s="23">
-        <f t="shared" ref="F5:F25" si="0">D5*E5</f>
-        <v>45</v>
+        <f t="shared" ref="F5" si="0">D5*E5</f>
+        <v>136</v>
       </c>
       <c r="G5" s="23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5" s="23">
         <f>D5*G5</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="21">
         <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C6" s="22">
-        <v>42085</v>
+        <v>42088</v>
       </c>
       <c r="D6" s="21">
         <v>1</v>
       </c>
       <c r="E6" s="23">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F6" s="23">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f t="shared" ref="F6:F25" si="1">D6*E6</f>
+        <v>83</v>
       </c>
       <c r="G6" s="23">
-        <v>10</v>
+        <v>-83</v>
       </c>
       <c r="H6" s="23">
-        <f>D6*G6</f>
-        <v>10</v>
+        <f t="shared" ref="H6:H25" si="2">D6*G6</f>
+        <v>-83</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="21">
+        <v>55</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="22">
-        <v>42085</v>
-      </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23">
-        <v>45</v>
-      </c>
-      <c r="F7" s="23">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G7" s="23">
-        <v>10</v>
-      </c>
-      <c r="H7" s="23">
-        <f t="shared" ref="H7:H25" si="1">D7*G7</f>
-        <v>10</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="21">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="22">
-        <v>42085</v>
-      </c>
-      <c r="D8" s="21">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23">
-        <v>55</v>
-      </c>
-      <c r="F8" s="23">
-        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
-        <v>55</v>
-      </c>
-      <c r="G8" s="23">
-        <v>20</v>
-      </c>
-      <c r="H8" s="23">
-        <f t="shared" ref="H8:H10" si="3">D8*G8</f>
-        <v>20</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="21"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
@@ -2426,12 +3046,12 @@
       <c r="D9" s="12"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="10"/>
@@ -2446,12 +3066,12 @@
       <c r="D10" s="12"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="10"/>
@@ -2466,12 +3086,12 @@
       <c r="D11" s="12"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
@@ -2486,12 +3106,12 @@
       <c r="D12" s="12"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I12" s="10"/>
@@ -2503,18 +3123,18 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="10"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1">
@@ -2523,18 +3143,18 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="10"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1">
@@ -2543,18 +3163,18 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="10"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
@@ -2563,18 +3183,18 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="10"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
@@ -2583,18 +3203,17 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="10"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
@@ -2603,18 +3222,18 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="10"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
@@ -2623,18 +3242,18 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="10"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="20.25" customHeight="1">
@@ -2643,18 +3262,18 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="10"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="20.25" customHeight="1">
@@ -2666,12 +3285,12 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="2"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10"/>
       <c r="H21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -2686,12 +3305,12 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="2"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="10"/>
       <c r="H22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -2706,12 +3325,12 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="2"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10"/>
       <c r="H23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -2726,12 +3345,12 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="2"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10"/>
       <c r="H24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -2746,539 +3365,6 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="54.125" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
-    <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="15">
-        <v>116</v>
-      </c>
-      <c r="E1" s="16">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="19">
-        <v>130</v>
-      </c>
-      <c r="E2" s="20">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="17">
-        <v>146</v>
-      </c>
-      <c r="E3" s="18">
-        <v>105</v>
-      </c>
-      <c r="F3" s="25">
-        <v>136</v>
-      </c>
-      <c r="G3" s="25">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="21">
-        <v>1</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="22">
-        <v>42087</v>
-      </c>
-      <c r="D5" s="21">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23">
-        <v>136</v>
-      </c>
-      <c r="F5" s="23">
-        <f t="shared" ref="F5" si="0">D5*E5</f>
-        <v>136</v>
-      </c>
-      <c r="G5" s="23">
-        <v>20</v>
-      </c>
-      <c r="H5" s="23">
-        <f>D5*G5</f>
-        <v>20</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="12">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
-        <f t="shared" ref="F6:F25" si="1">D6*E6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10">
-        <f t="shared" ref="H6:H25" si="2">D6*G6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="12">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="12">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A9" s="12">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="12">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A11" s="12">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A12" s="12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A25" s="1">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,14 +251,22 @@
   </si>
   <si>
     <t>30号发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市朝阳区太阳公元二期5号楼2单元1902 李司旸电话18518391156</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,7 +479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,9 +511,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,6 +546,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -712,14 +722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -730,7 +740,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -741,7 +751,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -755,7 +765,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -787,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -819,7 +829,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -851,7 +861,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -883,7 +893,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -915,7 +925,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -947,7 +957,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -979,7 +989,7 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1011,7 +1021,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1043,7 +1053,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1075,7 +1085,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1107,7 +1117,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1139,7 +1149,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1171,7 +1181,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1203,7 +1213,7 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1235,7 +1245,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1267,7 +1277,7 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21">
         <v>16</v>
       </c>
@@ -1299,7 +1309,7 @@
       </c>
       <c r="J19" s="21"/>
     </row>
-    <row r="20" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21">
         <v>17</v>
       </c>
@@ -1333,7 +1343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="21">
         <v>18</v>
       </c>
@@ -1367,7 +1377,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1395,33 +1405,45 @@
         <v>66</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="11">
+        <v>42089</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>168</v>
+      </c>
       <c r="F23" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="G23" s="10">
+        <v>30</v>
+      </c>
       <c r="H23" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1441,7 +1463,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1461,7 +1483,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="20.25" customHeight="1">
+    <row r="26" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1481,7 +1503,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="20.25" customHeight="1">
+    <row r="27" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1501,7 +1523,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="20.25" customHeight="1">
+    <row r="28" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1521,7 +1543,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="20.25" customHeight="1">
+    <row r="29" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1541,7 +1563,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="20.25" customHeight="1">
+    <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1561,7 +1583,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="20.25" customHeight="1">
+    <row r="31" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1581,7 +1603,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="20.25" customHeight="1">
+    <row r="32" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1601,7 +1623,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="20.25" customHeight="1">
+    <row r="33" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1621,7 +1643,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="20.25" customHeight="1">
+    <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1641,7 +1663,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1">
+    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1661,7 +1683,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="20.25" customHeight="1">
+    <row r="36" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1681,7 +1703,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="20.25" customHeight="1">
+    <row r="37" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1701,7 +1723,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="20.25" customHeight="1">
+    <row r="38" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1721,7 +1743,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1">
+    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1750,14 +1772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1768,7 +1790,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1777,7 +1799,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -1786,7 +1808,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1818,7 +1840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -1838,7 +1860,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1858,7 +1880,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1878,7 +1900,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1898,7 +1920,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1918,7 +1940,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1938,7 +1960,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -1958,7 +1980,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -1978,7 +2000,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1998,7 +2020,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2018,7 +2040,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2038,7 +2060,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2058,7 +2080,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2077,7 +2099,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2097,7 +2119,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2117,7 +2139,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2137,7 +2159,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2157,7 +2179,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2177,7 +2199,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2197,7 +2219,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2217,7 +2239,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2245,14 +2267,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2263,7 +2285,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -2274,7 +2296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -2288,7 +2310,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -2305,7 +2327,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +2359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -2369,7 +2391,7 @@
       </c>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -2401,7 +2423,7 @@
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>3</v>
       </c>
@@ -2433,7 +2455,7 @@
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>4</v>
       </c>
@@ -2465,7 +2487,7 @@
       </c>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -2499,7 +2521,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -2531,7 +2553,7 @@
       </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -2551,7 +2573,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2571,7 +2593,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2591,7 +2613,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2611,7 +2633,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2631,7 +2653,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2651,7 +2673,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2671,7 +2693,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2691,7 +2713,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2711,7 +2733,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2731,7 +2753,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2751,7 +2773,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2771,7 +2793,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2791,7 +2813,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2811,7 +2833,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2839,12 +2861,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2855,7 +2877,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -2866,7 +2888,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -2880,7 +2902,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -2897,7 +2919,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +2951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -2963,7 +2985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -2997,7 +3019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -3017,7 +3039,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -3037,7 +3059,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -3057,7 +3079,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -3077,7 +3099,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -3097,7 +3119,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3117,7 +3139,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3137,7 +3159,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3157,7 +3179,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3177,7 +3199,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3197,7 +3219,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3216,7 +3238,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3236,7 +3258,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3256,7 +3278,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3276,7 +3298,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3296,7 +3318,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3316,7 +3338,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3336,7 +3358,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3356,7 +3378,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1385,7 +1385,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="11">
-        <v>42088</v>
+        <v>42089</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下单人：琳琳妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>烟台开发区魏国华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,14 +255,22 @@
   </si>
   <si>
     <t>北京市朝阳区太阳公元二期5号楼2单元1902 李司旸电话18518391156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单人：琳琳妈 589570985135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>589570985417</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -419,6 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -479,7 +484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,10 +516,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,7 +550,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -722,14 +725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -740,7 +743,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -751,7 +754,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -765,7 +768,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -797,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -829,7 +832,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -861,7 +864,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -893,7 +896,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -925,7 +928,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -957,7 +960,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -989,7 +992,7 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1021,7 +1024,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1053,7 +1056,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1085,7 +1088,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1117,7 +1120,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1149,7 +1152,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1181,7 +1184,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1213,7 +1216,7 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1245,7 +1248,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1277,7 +1280,7 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="21">
         <v>16</v>
       </c>
@@ -1307,9 +1310,11 @@
       <c r="I19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J19" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="21">
         <v>17</v>
       </c>
@@ -1340,10 +1345,10 @@
         <v>28</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="21">
         <v>18</v>
       </c>
@@ -1377,12 +1382,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="11">
         <v>42089</v>
@@ -1408,15 +1413,15 @@
         <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11">
         <v>42089</v>
@@ -1439,11 +1444,11 @@
         <v>30</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1463,7 +1468,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1483,7 +1488,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="20.25" customHeight="1">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1503,7 +1508,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="20.25" customHeight="1">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1523,7 +1528,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="20.25" customHeight="1">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1543,7 +1548,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="20.25" customHeight="1">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1563,7 +1568,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="20.25" customHeight="1">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1583,7 +1588,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="20.25" customHeight="1">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1603,7 +1608,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="20.25" customHeight="1">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1623,7 +1628,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="20.25" customHeight="1">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1643,7 +1648,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1663,7 +1668,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1683,7 +1688,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1703,7 +1708,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1723,7 +1728,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="20.25" customHeight="1">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1743,7 +1748,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="20.25" customHeight="1">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1772,14 +1777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1790,7 +1795,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1799,7 +1804,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -1808,7 +1813,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -1860,7 +1865,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1880,7 +1885,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1900,7 +1905,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1920,7 +1925,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1940,7 +1945,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1960,7 +1965,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -1980,7 +1985,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2000,7 +2005,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2020,7 +2025,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2040,7 +2045,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2060,7 +2065,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2080,7 +2085,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2099,7 +2104,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2119,7 +2124,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2139,7 +2144,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2159,7 +2164,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2179,7 +2184,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2199,7 +2204,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2219,7 +2224,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2239,7 +2244,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2267,14 +2272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2285,7 +2290,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -2296,7 +2301,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -2310,7 +2315,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -2327,7 +2332,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2359,7 +2364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -2391,7 +2396,7 @@
       </c>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -2423,7 +2428,7 @@
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="21">
         <v>3</v>
       </c>
@@ -2455,7 +2460,7 @@
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="21">
         <v>4</v>
       </c>
@@ -2487,12 +2492,12 @@
       </c>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="13">
         <v>42088</v>
@@ -2515,18 +2520,18 @@
         <v>-55</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="13">
         <v>42088</v>
@@ -2549,11 +2554,11 @@
         <v>20</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -2573,7 +2578,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2593,7 +2598,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2613,7 +2618,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2633,7 +2638,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2653,7 +2658,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2673,7 +2678,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2693,7 +2698,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2713,7 +2718,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2733,7 +2738,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2753,7 +2758,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2773,7 +2778,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2793,7 +2798,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2813,7 +2818,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2833,7 +2838,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2861,12 +2866,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2877,7 +2882,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -2888,7 +2893,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -2902,7 +2907,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -2919,7 +2924,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2951,7 +2956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -2985,12 +2990,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="21">
         <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="22">
         <v>42088</v>
@@ -3013,13 +3018,13 @@
         <v>-83</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -3039,7 +3044,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -3059,7 +3064,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -3079,7 +3084,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -3099,7 +3104,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -3119,7 +3124,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3139,7 +3144,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3159,7 +3164,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3179,7 +3184,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3199,7 +3204,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3219,7 +3224,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3238,7 +3243,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3258,7 +3263,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3278,7 +3283,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3298,7 +3303,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3318,7 +3323,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3338,7 +3343,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3358,7 +3363,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3378,7 +3383,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -11,6 +11,7 @@
     <sheet name="二蛋妈阿胶糕" sheetId="2" r:id="rId2"/>
     <sheet name="一块密" sheetId="3" r:id="rId3"/>
     <sheet name="晓起皇菊" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -424,6 +425,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -728,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3407,4 +3410,156 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="26.75" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="24.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="24.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="24.75" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="24.75" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="24.75" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="24.75" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="24.75" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="24.75" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,14 +264,22 @@
   </si>
   <si>
     <t>589570985417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：浙江省乐清市虹桥镇蒲岐华一村华中路170巷东5幢5号收件人：戴茜茜   13588989760</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,7 +495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,9 +527,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,6 +562,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -728,14 +738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -746,7 +756,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -757,7 +767,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -771,7 +781,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,7 +813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -835,7 +845,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -867,7 +877,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -899,7 +909,7 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -931,7 +941,7 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -963,7 +973,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -995,7 +1005,7 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1027,7 +1037,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1059,7 +1069,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1091,7 +1101,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1123,7 +1133,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1155,7 +1165,7 @@
       </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1187,7 +1197,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1219,7 +1229,7 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1251,7 +1261,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1283,7 +1293,7 @@
       </c>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21">
         <v>16</v>
       </c>
@@ -1317,7 +1327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21">
         <v>17</v>
       </c>
@@ -1351,7 +1361,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="21">
         <v>18</v>
       </c>
@@ -1385,7 +1395,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1419,7 +1429,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1451,27 +1461,39 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="11">
+        <v>42090</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>160</v>
+      </c>
       <c r="F24" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="10"/>
+        <v>160</v>
+      </c>
+      <c r="G24" s="10">
+        <v>22</v>
+      </c>
       <c r="H24" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1491,7 +1513,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="20.25" customHeight="1">
+    <row r="26" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1511,7 +1533,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="20.25" customHeight="1">
+    <row r="27" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1531,7 +1553,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="20.25" customHeight="1">
+    <row r="28" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1551,7 +1573,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="20.25" customHeight="1">
+    <row r="29" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1571,7 +1593,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="20.25" customHeight="1">
+    <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1591,7 +1613,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="20.25" customHeight="1">
+    <row r="31" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1611,7 +1633,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="20.25" customHeight="1">
+    <row r="32" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1631,7 +1653,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="20.25" customHeight="1">
+    <row r="33" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1651,7 +1673,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="20.25" customHeight="1">
+    <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1671,7 +1693,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1">
+    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1691,7 +1713,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="20.25" customHeight="1">
+    <row r="36" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1711,7 +1733,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="20.25" customHeight="1">
+    <row r="37" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1731,7 +1753,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="20.25" customHeight="1">
+    <row r="38" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1751,7 +1773,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1">
+    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1780,14 +1802,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1798,7 +1820,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1807,7 +1829,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -1816,7 +1838,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1848,7 +1870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -1868,7 +1890,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1888,7 +1910,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1908,7 +1930,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1928,7 +1950,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1948,7 +1970,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1968,7 +1990,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -1988,7 +2010,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2008,7 +2030,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2028,7 +2050,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2048,7 +2070,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2068,7 +2090,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2088,7 +2110,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2107,7 +2129,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2127,7 +2149,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2147,7 +2169,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2167,7 +2189,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2187,7 +2209,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2207,7 +2229,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2227,7 +2249,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2247,7 +2269,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2275,14 +2297,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H5" sqref="H5:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2293,7 +2315,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -2304,7 +2326,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -2318,7 +2340,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -2335,7 +2357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2367,7 +2389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -2399,7 +2421,7 @@
       </c>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -2431,7 +2453,7 @@
       </c>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>3</v>
       </c>
@@ -2463,7 +2485,7 @@
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>4</v>
       </c>
@@ -2495,7 +2517,7 @@
       </c>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -2529,7 +2551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -2561,7 +2583,7 @@
       </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -2581,7 +2603,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2601,7 +2623,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2621,7 +2643,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2641,7 +2663,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2661,7 +2683,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2681,7 +2703,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2701,7 +2723,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2721,7 +2743,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2741,7 +2763,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2761,7 +2783,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2781,7 +2803,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2801,7 +2823,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2821,7 +2843,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2841,7 +2863,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2869,12 +2891,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2885,7 +2909,7 @@
     <col min="10" max="10" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -2896,7 +2920,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -2910,7 +2934,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -2927,7 +2951,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2959,7 +2983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -2993,7 +3017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -3027,7 +3051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -3047,7 +3071,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -3067,7 +3091,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -3087,7 +3111,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -3107,7 +3131,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -3127,7 +3151,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3147,7 +3171,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3167,7 +3191,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3187,7 +3211,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3207,7 +3231,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3227,7 +3251,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3246,7 +3270,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3266,7 +3290,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3286,7 +3310,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3306,7 +3330,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3326,7 +3350,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3346,7 +3370,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3366,7 +3390,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3386,7 +3410,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3413,20 +3437,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.875" customWidth="1"/>
     <col min="2" max="2" width="26.75" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.75" customHeight="1">
+    <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="30"/>
       <c r="C1" s="1"/>
@@ -3442,7 +3466,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="24.75" customHeight="1">
+    <row r="2" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -3462,7 +3486,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="24.75" customHeight="1">
+    <row r="3" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="30"/>
       <c r="C3" s="1"/>
@@ -3478,7 +3502,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="24.75" customHeight="1">
+    <row r="4" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="30"/>
       <c r="C4" s="1"/>
@@ -3494,7 +3518,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="24.75" customHeight="1">
+    <row r="5" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="30"/>
       <c r="C5" s="1"/>
@@ -3510,7 +3534,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="24.75" customHeight="1">
+    <row r="6" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="30"/>
       <c r="C6" s="1"/>
@@ -3526,7 +3550,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="24.75" customHeight="1">
+    <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="30"/>
       <c r="C7" s="1"/>
@@ -3542,7 +3566,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="24.75" customHeight="1">
+    <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="30"/>
       <c r="C8" s="1"/>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,17 +11,17 @@
     <sheet name="二蛋妈阿胶糕" sheetId="2" r:id="rId2"/>
     <sheet name="一块密" sheetId="3" r:id="rId3"/>
     <sheet name="晓起皇菊" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="红斗车订单" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30号发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,14 +268,50 @@
   </si>
   <si>
     <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">山东省烟台市开发区长江路59号蓝天国际大厦7楼欣和企业  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款王永祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟台开发区融科林语刘娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于燕 13426316324 北京市东城区永外郭庄西巷1号一师附小往东50米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省邯郸市丛台区滏西北大街月星家居西门南行10米营销中心  申小芳  15030000783【芒果一箱】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理人：瑶瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>589583104104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30号发 589583103746</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +342,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -376,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -435,6 +473,12 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -495,7 +539,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,10 +571,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -562,7 +605,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -738,14 +780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -753,10 +795,10 @@
     <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.75" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -767,7 +809,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -781,7 +823,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -809,11 +851,11 @@
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -843,9 +885,9 @@
       <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -875,9 +917,9 @@
       <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -907,9 +949,9 @@
       <c r="I6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -939,9 +981,9 @@
       <c r="I7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -971,9 +1013,9 @@
       <c r="I8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1003,9 +1045,9 @@
       <c r="I9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1035,9 +1077,9 @@
       <c r="I10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1067,9 +1109,9 @@
       <c r="I11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1099,9 +1141,9 @@
       <c r="I12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1131,9 +1173,9 @@
       <c r="I13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1163,9 +1205,9 @@
       <c r="I14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1195,9 +1237,9 @@
       <c r="I15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1227,9 +1269,9 @@
       <c r="I16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1259,9 +1301,9 @@
       <c r="I17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1291,9 +1333,9 @@
       <c r="I18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="21">
         <v>16</v>
       </c>
@@ -1324,10 +1366,10 @@
         <v>42</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="21">
         <v>17</v>
       </c>
@@ -1357,11 +1399,11 @@
       <c r="I20" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J20" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="21">
         <v>18</v>
       </c>
@@ -1391,82 +1433,84 @@
       <c r="I21" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+    <row r="22" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A22" s="21">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="22">
         <v>42089</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="21">
         <v>3</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="23">
         <v>160</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="23">
         <f t="shared" si="4"/>
         <v>480</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="23">
         <v>22</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="23">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
+      <c r="J22" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A23" s="21">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="22">
         <v>42089</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="21">
         <v>1</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="23">
         <v>168</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="23">
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="23">
         <v>30</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="23">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="11">
         <v>42090</v>
@@ -1489,51 +1533,77 @@
         <v>22</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="11">
+        <v>42091</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>168</v>
+      </c>
       <c r="F25" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="G25" s="10">
+        <v>30</v>
+      </c>
       <c r="H25" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.25" customHeight="1">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="11">
+        <v>42091</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>168</v>
+      </c>
       <c r="F26" s="10">
         <f t="shared" ref="F26:F39" si="6">D26*E26</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="G26" s="10">
+        <v>30</v>
+      </c>
       <c r="H26" s="10">
         <f t="shared" ref="H26:H39" si="7">D26*G26</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="20.25" customHeight="1">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1551,9 +1621,9 @@
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="1:10" ht="20.25" customHeight="1">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1571,9 +1641,9 @@
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="1:10" ht="20.25" customHeight="1">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1591,9 +1661,9 @@
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="1:10" ht="20.25" customHeight="1">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1611,9 +1681,9 @@
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J30" s="30"/>
+    </row>
+    <row r="31" spans="1:10" ht="20.25" customHeight="1">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1631,9 +1701,9 @@
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J31" s="30"/>
+    </row>
+    <row r="32" spans="1:10" ht="20.25" customHeight="1">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1651,9 +1721,9 @@
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="1:10" ht="20.25" customHeight="1">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1671,9 +1741,9 @@
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J33" s="30"/>
+    </row>
+    <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1691,9 +1761,9 @@
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1711,9 +1781,9 @@
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1731,9 +1801,9 @@
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1751,9 +1821,9 @@
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J37" s="30"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.25" customHeight="1">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1771,9 +1841,9 @@
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J38" s="30"/>
+    </row>
+    <row r="39" spans="1:10" ht="20.25" customHeight="1">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1791,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:J3"/>
@@ -1802,14 +1872,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1817,10 +1887,10 @@
     <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.75" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1829,7 +1899,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -1838,7 +1908,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1866,11 +1936,11 @@
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -1888,9 +1958,9 @@
         <v>0</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1908,9 +1978,9 @@
         <v>0</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1928,9 +1998,9 @@
         <v>0</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1948,9 +2018,9 @@
         <v>0</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1968,9 +2038,9 @@
         <v>0</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1988,9 +2058,9 @@
         <v>0</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2008,9 +2078,9 @@
         <v>0</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2028,9 +2098,9 @@
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2048,9 +2118,9 @@
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2068,9 +2138,9 @@
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2088,9 +2158,9 @@
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2108,9 +2178,9 @@
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2127,9 +2197,9 @@
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2147,9 +2217,9 @@
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2167,9 +2237,9 @@
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2187,9 +2257,9 @@
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2207,9 +2277,9 @@
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2227,9 +2297,9 @@
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2247,9 +2317,9 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2267,9 +2337,9 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2287,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2297,14 +2367,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2312,10 +2382,10 @@
     <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.75" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -2326,7 +2396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -2340,7 +2410,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -2357,7 +2427,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2385,11 +2455,11 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -2419,9 +2489,9 @@
       <c r="I5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -2451,9 +2521,9 @@
       <c r="I6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="21">
         <v>3</v>
       </c>
@@ -2483,9 +2553,9 @@
       <c r="I7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="21">
         <v>4</v>
       </c>
@@ -2515,9 +2585,9 @@
       <c r="I8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -2547,11 +2617,11 @@
       <c r="I9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -2581,19 +2651,27 @@
       <c r="I10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="13">
+        <v>42090</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>50</v>
+      </c>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10">
@@ -2601,9 +2679,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J11" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2621,9 +2701,9 @@
         <v>0</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2641,9 +2721,9 @@
         <v>0</v>
       </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2661,9 +2741,9 @@
         <v>0</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2681,9 +2761,9 @@
         <v>0</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2701,9 +2781,9 @@
         <v>0</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2721,9 +2801,9 @@
         <v>0</v>
       </c>
       <c r="I17" s="10"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2741,9 +2821,9 @@
         <v>0</v>
       </c>
       <c r="I18" s="10"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2761,9 +2841,9 @@
         <v>0</v>
       </c>
       <c r="I19" s="10"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2781,9 +2861,9 @@
         <v>0</v>
       </c>
       <c r="I20" s="10"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2801,9 +2881,9 @@
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2821,9 +2901,9 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2841,9 +2921,9 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2861,9 +2941,9 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2881,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2891,14 +2971,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2906,10 +2986,10 @@
     <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.75" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -2920,7 +3000,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -2934,7 +3014,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -2951,7 +3031,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2979,11 +3059,11 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -3013,11 +3093,11 @@
       <c r="I5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="21">
         <v>2</v>
       </c>
@@ -3047,11 +3127,11 @@
       <c r="I6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -3069,9 +3149,9 @@
         <v>0</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -3089,9 +3169,9 @@
         <v>0</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -3109,9 +3189,9 @@
         <v>0</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -3129,9 +3209,9 @@
         <v>0</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -3149,9 +3229,9 @@
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3169,9 +3249,9 @@
         <v>0</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3189,9 +3269,9 @@
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3209,9 +3289,9 @@
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3229,9 +3309,9 @@
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3249,9 +3329,9 @@
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3268,9 +3348,9 @@
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3288,9 +3368,9 @@
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3308,9 +3388,9 @@
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3328,9 +3408,9 @@
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3348,9 +3428,9 @@
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3368,9 +3448,9 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3388,9 +3468,9 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3408,9 +3488,9 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3428,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3437,21 +3517,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.875" customWidth="1"/>
     <col min="2" max="2" width="26.75" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:14" ht="24.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B1" s="30"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3466,13 +3548,8 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>60</v>
-      </c>
+    <row r="2" spans="1:14" ht="24.75" customHeight="1">
+      <c r="A2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3486,8 +3563,8 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:14" ht="24.75" customHeight="1">
+      <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3502,7 +3579,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="24.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="30"/>
       <c r="C4" s="1"/>
@@ -3518,7 +3595,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="24.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="30"/>
       <c r="C5" s="1"/>
@@ -3534,7 +3611,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="24.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="30"/>
       <c r="C6" s="1"/>
@@ -3550,7 +3627,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="24.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="30"/>
       <c r="C7" s="1"/>
@@ -3566,7 +3643,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="24.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="30"/>
       <c r="C8" s="1"/>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,10 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>烟台开发区融科林语刘娟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>于燕 13426316324 北京市东城区永外郭庄西巷1号一师附小往东50米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,6 +300,50 @@
   </si>
   <si>
     <t>30号发 589583103746</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>589586941963</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西省晋中市榆次区蕴华西街焦化宿舍东二排一号，刘丽收，电话13753352372【芒果一箱】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟台市开发区蓝天国际大厦7楼欣和企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王勇翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>589586936468</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理人：瑶瑶  589586935128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省石家庄市裕华区恒大雅苑4-1-403，李巧玲收，电话15530184565</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘娟阳阳妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北瑶瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,9 +507,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -479,6 +516,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -783,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -795,7 +835,7 @@
     <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.75" style="31" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -851,7 +891,7 @@
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -885,7 +925,7 @@
       <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="33"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
@@ -917,7 +957,7 @@
       <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="33"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
@@ -949,7 +989,7 @@
       <c r="I6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
@@ -981,7 +1021,7 @@
       <c r="I7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
@@ -1013,7 +1053,7 @@
       <c r="I8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
@@ -1045,7 +1085,7 @@
       <c r="I9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
@@ -1077,7 +1117,7 @@
       <c r="I10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
@@ -1109,7 +1149,7 @@
       <c r="I11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
@@ -1141,7 +1181,7 @@
       <c r="I12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
@@ -1173,7 +1213,7 @@
       <c r="I13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="33"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
@@ -1205,7 +1245,7 @@
       <c r="I14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="5">
@@ -1237,7 +1277,7 @@
       <c r="I15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="33"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="5">
@@ -1269,7 +1309,7 @@
       <c r="I16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="5">
@@ -1301,7 +1341,7 @@
       <c r="I17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="33"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="5">
@@ -1333,7 +1373,7 @@
       <c r="I18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="33"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="21">
@@ -1365,7 +1405,7 @@
       <c r="I19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1399,7 +1439,7 @@
       <c r="I20" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1433,7 +1473,7 @@
       <c r="I21" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="28" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1467,8 +1507,8 @@
       <c r="I22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="29" t="s">
-        <v>70</v>
+      <c r="J22" s="28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
@@ -1501,8 +1541,8 @@
       <c r="I23" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="35" t="s">
-        <v>69</v>
+      <c r="J23" s="34" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.25" customHeight="1">
@@ -1535,14 +1575,16 @@
       <c r="I24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="30"/>
+      <c r="J24" s="29" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="11">
         <v>42091</v>
@@ -1565,16 +1607,18 @@
         <v>30</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="30"/>
+        <v>66</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="20.25" customHeight="1">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="11">
         <v>42091</v>
@@ -1597,71 +1641,113 @@
         <v>30</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="20.25" customHeight="1">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="11">
+        <v>42092</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>168</v>
+      </c>
       <c r="F27" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="G27" s="10">
+        <v>30</v>
+      </c>
       <c r="H27" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="30"/>
+        <v>30</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="20.25" customHeight="1">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="11">
+        <v>42093</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>168</v>
+      </c>
       <c r="F28" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="G28" s="10">
+        <v>30</v>
+      </c>
       <c r="H28" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="30"/>
+        <v>30</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="20.25" customHeight="1">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="11">
+        <v>42093</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>158</v>
+      </c>
       <c r="F29" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="10"/>
+        <v>316</v>
+      </c>
+      <c r="G29" s="10">
+        <v>20</v>
+      </c>
       <c r="H29" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="20.25" customHeight="1">
       <c r="A30" s="1">
@@ -1681,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="30"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" customHeight="1">
       <c r="A31" s="1">
@@ -1701,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="30"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" customHeight="1">
       <c r="A32" s="1">
@@ -1721,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="30"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" ht="20.25" customHeight="1">
       <c r="A33" s="1">
@@ -1741,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="30"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="1">
@@ -1761,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="30"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="1">
@@ -1781,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="30"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="1">
@@ -1801,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="30"/>
+      <c r="J36" s="29"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="1">
@@ -1821,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="30"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1">
       <c r="A38" s="1">
@@ -1841,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="30"/>
+      <c r="J38" s="29"/>
     </row>
     <row r="39" spans="1:10" ht="20.25" customHeight="1">
       <c r="A39" s="1">
@@ -1861,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="30"/>
+      <c r="J39" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:J3"/>
@@ -1875,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1887,7 +1973,7 @@
     <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.75" style="31" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1936,7 +2022,7 @@
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1958,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="34"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
@@ -1978,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="34"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
@@ -1998,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="34"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
@@ -2018,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="34"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
@@ -2038,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="34"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
@@ -2058,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="34"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
@@ -2078,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="34"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
@@ -2098,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="34"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
@@ -2118,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="30"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
@@ -2138,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="30"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
@@ -2158,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="30"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
@@ -2178,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="30"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
@@ -2197,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="30"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
@@ -2217,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="30"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
@@ -2237,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="30"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
@@ -2257,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="30"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
@@ -2277,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="30"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
@@ -2297,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="30"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
@@ -2317,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="30"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
@@ -2337,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="30"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
@@ -2357,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="30"/>
+      <c r="J24" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2371,7 +2457,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H5" sqref="H5:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2382,7 +2468,7 @@
     <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.75" style="31" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2455,203 +2541,203 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="21">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="7">
         <v>42085</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="8">
         <v>45</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="8">
         <f t="shared" ref="F5:F25" si="0">D5*E5</f>
         <v>45</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="8">
         <v>10</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="8">
         <f>D5*G5</f>
         <v>10</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="21">
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="7">
         <v>42085</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="8">
         <v>45</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="8">
         <v>10</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="8">
         <f>D6*G6</f>
         <v>10</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="21">
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="7">
         <v>42085</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="8">
         <v>45</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="8">
         <v>10</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="8">
         <f t="shared" ref="H7:H25" si="1">D7*G7</f>
         <v>10</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="21">
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="7">
         <v>42085</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="8">
         <v>55</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="2">D8*E8</f>
         <v>55</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="8">
         <v>20</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="8">
         <f t="shared" ref="H8:H10" si="3">D8*G8</f>
         <v>20</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A9" s="12">
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>42088</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>-55</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <f t="shared" si="2"/>
         <v>-55</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>-55</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <f t="shared" si="3"/>
         <v>-55</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="12">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>42088</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>55</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>20</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="8">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="34"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
@@ -2679,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="33" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2701,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="34"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
@@ -2721,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="30"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
@@ -2741,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="30"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
@@ -2761,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="30"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
@@ -2781,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="30"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
@@ -2801,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="10"/>
-      <c r="J17" s="30"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
@@ -2821,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="10"/>
-      <c r="J18" s="30"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
@@ -2841,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="10"/>
-      <c r="J19" s="30"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
@@ -2861,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="10"/>
-      <c r="J20" s="30"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
@@ -2881,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="30"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
@@ -2901,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="30"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
@@ -2921,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="30"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
@@ -2941,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="30"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
@@ -2961,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="30"/>
+      <c r="J25" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2975,7 +3061,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2986,7 +3072,7 @@
     <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.75" style="31" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3059,75 +3145,75 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="21">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="7">
         <v>42087</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="8">
         <v>136</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="8">
         <f t="shared" ref="F5" si="0">D5*E5</f>
         <v>136</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="8">
         <v>20</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="8">
         <f>D5*G5</f>
         <v>20</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="21">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="7">
         <v>42088</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="8">
         <v>83</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="8">
         <f t="shared" ref="F6:F25" si="1">D6*E6</f>
         <v>83</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="8">
         <v>-83</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="8">
         <f t="shared" ref="H6:H25" si="2">D6*G6</f>
         <v>-83</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="32" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3149,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="34"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
@@ -3169,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="34"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
@@ -3189,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="34"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
@@ -3209,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="34"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
@@ -3229,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="34"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
@@ -3249,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="34"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
@@ -3269,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="30"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
@@ -3289,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="30"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
@@ -3309,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="30"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
@@ -3329,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="30"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
@@ -3348,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="30"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
@@ -3368,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="30"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
@@ -3388,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="30"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
@@ -3408,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="30"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
@@ -3428,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="30"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
@@ -3448,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="30"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
@@ -3468,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="30"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
@@ -3488,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="30"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
@@ -3508,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="30"/>
+      <c r="J25" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3518,146 +3604,504 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.875" customWidth="1"/>
-    <col min="2" max="2" width="26.75" style="31" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="54.125" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+    <row r="1" spans="1:10">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="13">
+        <v>42092</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
+        <f t="shared" ref="F5:F25" si="0">D5*E5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
+        <f>D5*G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>75</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G6" s="10">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" ref="H6:H25" si="1">D6*G6</f>
+        <v>10</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="99">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,14 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部分收款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>押金50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>昆明市环城南路39号泰丽酒店，赵岚，13398808446，1件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,6 +336,86 @@
   </si>
   <si>
     <t>已收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏国华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理价格28（23）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘娟阳阳妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理价格37（30）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理价格46（38）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理价格68（58）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理价格45（35）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理价格39（33）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理价格38（31）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理价格43（38）阳阳妈总额192+3=195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理价格40（35）魏国华总额161+4+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟台开发区立雪佳苑小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天国际大厦李永波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -494,12 +566,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,7 +573,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -515,10 +580,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -823,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -835,7 +900,7 @@
     <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.75" style="30" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -891,7 +956,7 @@
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -925,7 +990,7 @@
       <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
@@ -957,7 +1022,7 @@
       <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="32"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
@@ -989,7 +1054,7 @@
       <c r="I6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
@@ -1021,7 +1086,7 @@
       <c r="I7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="32"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
@@ -1053,7 +1118,7 @@
       <c r="I8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="32"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
@@ -1085,7 +1150,7 @@
       <c r="I9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="32"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
@@ -1117,7 +1182,7 @@
       <c r="I10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="32"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
@@ -1149,7 +1214,7 @@
       <c r="I11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="32"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
@@ -1181,7 +1246,7 @@
       <c r="I12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="32"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
@@ -1213,7 +1278,7 @@
       <c r="I13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="32"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
@@ -1245,7 +1310,7 @@
       <c r="I14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="32"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="5">
@@ -1277,7 +1342,7 @@
       <c r="I15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="32"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="5">
@@ -1309,7 +1374,7 @@
       <c r="I16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="32"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="5">
@@ -1321,7 +1386,7 @@
       <c r="C17" s="7">
         <v>42085</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="23">
         <v>1</v>
       </c>
       <c r="E17" s="8">
@@ -1341,7 +1406,7 @@
       <c r="I17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="32"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="5">
@@ -1373,421 +1438,445 @@
       <c r="I18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A19" s="21">
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="7">
         <v>42087</v>
       </c>
-      <c r="D19" s="21">
-        <v>1</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
         <v>158</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="8">
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="8">
         <v>20</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="8">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A20" s="21">
+      <c r="J19" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="7">
         <v>42087</v>
       </c>
-      <c r="D20" s="21">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
         <v>158</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="8">
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="8">
         <v>20</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="8">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A21" s="21">
+      <c r="J20" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="22">
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7">
         <v>42087</v>
       </c>
-      <c r="D21" s="21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
         <v>158</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="8">
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="8">
         <v>20</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="8">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A22" s="21">
+      <c r="I21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="22">
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="7">
         <v>42089</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="5">
         <v>3</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="8">
         <v>160</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="8">
         <f t="shared" si="4"/>
         <v>480</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="8">
         <v>22</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="8">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="24" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A23" s="21">
+      <c r="J22" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="22">
+      <c r="B23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="7">
         <v>42089</v>
       </c>
-      <c r="D23" s="21">
-        <v>1</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
         <v>168</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="8">
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="8">
         <v>30</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="8">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="I23" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A24" s="1">
+      <c r="I23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="7">
         <v>42090</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
         <v>160</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="8">
         <v>22</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="8">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A25" s="1">
+      <c r="I24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="7">
         <v>42091</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
         <v>168</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="8">
         <v>30</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="8">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A26" s="1">
+      <c r="I25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="B26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="7">
         <v>42091</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
         <v>168</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="8">
         <f t="shared" ref="F26:F39" si="6">D26*E26</f>
         <v>168</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="8">
         <v>30</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="8">
         <f t="shared" ref="H26:H39" si="7">D26*G26</f>
         <v>30</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A27" s="1">
+      <c r="I26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="B27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="7">
         <v>42092</v>
       </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
         <v>168</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <f t="shared" si="6"/>
         <v>168</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>30</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="8">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A28" s="1">
+      <c r="I27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="B28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="7">
         <v>42093</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
         <v>168</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="8">
         <f t="shared" si="6"/>
         <v>168</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="8">
         <v>30</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="8">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A29" s="1">
+      <c r="I28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="B29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="7">
         <v>42093</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
         <v>2</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="8">
         <v>158</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="8">
         <f t="shared" si="6"/>
         <v>316</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="8">
         <v>20</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="8">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="27" t="s">
         <v>72</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="20.25" customHeight="1">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="11">
+        <v>42095</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2">
+        <v>160</v>
+      </c>
       <c r="F30" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="10"/>
+        <v>640</v>
+      </c>
+      <c r="G30" s="10">
+        <v>22</v>
+      </c>
       <c r="H30" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="29"/>
+        <v>88</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="24"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" customHeight="1">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="11">
+        <v>42095</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>168</v>
+      </c>
       <c r="F31" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="G31" s="10">
+        <v>30</v>
+      </c>
       <c r="H31" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="29"/>
+        <v>30</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" customHeight="1">
       <c r="A32" s="1">
@@ -1807,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" ht="20.25" customHeight="1">
       <c r="A33" s="1">
@@ -1827,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="29"/>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="1">
@@ -1847,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="29"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="1">
@@ -1867,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="29"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="1">
@@ -1887,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="29"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="1">
@@ -1907,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="29"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1">
       <c r="A38" s="1">
@@ -1927,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="29"/>
+      <c r="J38" s="24"/>
     </row>
     <row r="39" spans="1:10" ht="20.25" customHeight="1">
       <c r="A39" s="1">
@@ -1947,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="29"/>
+      <c r="J39" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:J3"/>
@@ -1973,7 +2062,7 @@
     <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.75" style="30" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2022,7 +2111,7 @@
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2044,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="33"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
@@ -2064,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="33"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
@@ -2084,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="33"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
@@ -2104,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="33"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
@@ -2124,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="33"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
@@ -2144,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="33"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
@@ -2164,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="33"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
@@ -2184,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="33"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
@@ -2204,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="29"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
@@ -2224,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="29"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
@@ -2244,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="29"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
@@ -2264,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="29"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
@@ -2283,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="29"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
@@ -2303,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="29"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
@@ -2323,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="29"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
@@ -2343,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="29"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
@@ -2363,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="29"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
@@ -2383,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="29"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
@@ -2403,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="29"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
@@ -2423,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="29"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
@@ -2443,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="29"/>
+      <c r="J24" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2457,7 +2546,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2468,7 +2557,7 @@
     <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.75" style="30" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2500,16 +2589,16 @@
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="22">
         <v>55</v>
       </c>
       <c r="E3" s="18">
         <v>85</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="21">
         <v>50</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="21">
         <v>79</v>
       </c>
     </row>
@@ -2541,7 +2630,7 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2575,7 +2664,7 @@
       <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="32"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
@@ -2607,7 +2696,7 @@
       <c r="I6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
@@ -2639,7 +2728,7 @@
       <c r="I7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="32"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
@@ -2658,7 +2747,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
+        <f t="shared" ref="F8" si="2">D8*E8</f>
         <v>55</v>
       </c>
       <c r="G8" s="8">
@@ -2671,14 +2760,14 @@
       <c r="I8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="32"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7">
         <v>42088</v>
@@ -2687,24 +2776,23 @@
         <v>1</v>
       </c>
       <c r="E9" s="8">
-        <v>-55</v>
+        <v>-35</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="2"/>
-        <v>-55</v>
+        <f>G9</f>
+        <v>-35</v>
       </c>
       <c r="G9" s="8">
-        <v>-55</v>
+        <v>-35</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="3"/>
-        <v>-55</v>
+        <v>-35</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
@@ -2712,7 +2800,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="7">
         <v>42088</v>
@@ -2735,16 +2823,16 @@
         <v>20</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="32"/>
+        <v>52</v>
+      </c>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="13">
         <v>42090</v>
@@ -2765,8 +2853,8 @@
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="33" t="s">
-        <v>63</v>
+      <c r="J11" s="28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
@@ -2787,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="33"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
@@ -2807,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="29"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
@@ -2827,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="29"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
@@ -2847,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="29"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
@@ -2867,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="29"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
@@ -2887,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="10"/>
-      <c r="J17" s="29"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
@@ -2907,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="10"/>
-      <c r="J18" s="29"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
@@ -2927,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="10"/>
-      <c r="J19" s="29"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
@@ -2947,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="10"/>
-      <c r="J20" s="29"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
@@ -2967,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="29"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
@@ -2987,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="29"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
@@ -3007,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="29"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
@@ -3027,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="29"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
@@ -3047,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="29"/>
+      <c r="J25" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3060,8 +3148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3072,7 +3160,7 @@
     <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.75" style="30" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3110,10 +3198,10 @@
       <c r="E3" s="18">
         <v>105</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="21">
         <v>136</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="21">
         <v>98</v>
       </c>
     </row>
@@ -3145,7 +3233,7 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3177,10 +3265,10 @@
         <v>20</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
@@ -3188,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="7">
         <v>42088</v>
@@ -3211,10 +3299,10 @@
         <v>-83</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="32" t="s">
         <v>52</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
@@ -3235,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="33"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
@@ -3255,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="33"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
@@ -3275,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="33"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
@@ -3295,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="33"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
@@ -3315,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="33"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
@@ -3335,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="33"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
@@ -3355,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="29"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
@@ -3375,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="29"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
@@ -3395,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="29"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
@@ -3415,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="29"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
@@ -3434,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="29"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
@@ -3454,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="29"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
@@ -3474,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="29"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
@@ -3494,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="29"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
@@ -3514,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="29"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
@@ -3534,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="29"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
@@ -3554,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="29"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
@@ -3574,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="29"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
@@ -3594,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="29"/>
+      <c r="J25" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3606,8 +3694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3618,7 +3706,7 @@
     <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="35.75" style="30" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3635,8 +3723,8 @@
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -3666,7 +3754,7 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3674,215 +3762,326 @@
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>78</v>
+      <c r="B5" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="C5" s="13">
         <v>42092</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="10">
+        <v>43</v>
+      </c>
       <c r="F5" s="10">
-        <f t="shared" ref="F5:F25" si="0">D5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="G5" s="10">
+        <v>5</v>
+      </c>
       <c r="H5" s="10">
-        <f>D5*G5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="33"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="C6" s="13">
+        <v>42093</v>
+      </c>
       <c r="D6" s="12">
         <v>1</v>
       </c>
       <c r="E6" s="10">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G6" s="10">
         <v>10</v>
       </c>
       <c r="H6" s="10">
-        <f t="shared" ref="H6:H25" si="1">D6*G6</f>
+        <f t="shared" ref="H6:H25" si="0">D6*G6</f>
         <v>10</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="33"/>
+        <v>78</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="13">
+        <v>42092</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="10">
+        <v>28</v>
+      </c>
       <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="G7" s="10">
+        <v>5</v>
+      </c>
       <c r="H7" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="33"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10"/>
+      <c r="B8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="13">
+        <v>42093</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="10">
+        <v>37</v>
+      </c>
       <c r="F8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="G8" s="10">
+        <v>7</v>
+      </c>
       <c r="H8" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="33"/>
+        <v>7</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="13">
+        <v>42093</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="10">
+        <v>46</v>
+      </c>
       <c r="F9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="G9" s="10">
+        <v>8</v>
+      </c>
       <c r="H9" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="33"/>
+        <v>8</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="13">
+        <v>42092</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>58</v>
+      </c>
       <c r="F10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
       <c r="H10" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="33"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="13">
+        <v>42092</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>35</v>
+      </c>
       <c r="F11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
       <c r="H11" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="33"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="13">
+        <v>42092</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>33</v>
+      </c>
       <c r="F12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
       <c r="H12" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="33"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="11">
+        <v>42093</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>38</v>
+      </c>
       <c r="F13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="G13" s="10">
+        <v>7</v>
+      </c>
       <c r="H13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="29"/>
+        <v>7</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="11">
+        <v>42093</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>35</v>
+      </c>
       <c r="F14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
       <c r="H14" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="29"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
@@ -3893,16 +4092,16 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F15:F25" si="1">D15*E15</f>
         <v>0</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="29"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
@@ -3913,16 +4112,16 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="29"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
@@ -3932,16 +4131,16 @@
       <c r="C17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="29"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
@@ -3952,16 +4151,16 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="29"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
@@ -3972,16 +4171,16 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="29"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
@@ -3992,16 +4191,16 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="29"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
@@ -4012,16 +4211,16 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="29"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
@@ -4032,16 +4231,16 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="29"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
@@ -4052,16 +4251,16 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="29"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
@@ -4072,16 +4271,16 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="29"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
@@ -4092,16 +4291,16 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="29"/>
+      <c r="J25" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,14 +416,38 @@
   </si>
   <si>
     <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市中大新长江南区负二楼SR032 戴春春 18826445004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省莱州市城港路1507号，中昌集团，丁晖，18660092448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号发货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,7 +668,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,9 +700,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -710,6 +735,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -885,14 +911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -903,7 +929,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -914,7 +940,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -928,7 +954,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -960,7 +986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -992,7 +1018,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1024,7 +1050,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1056,7 +1082,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1088,7 +1114,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1120,7 +1146,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1152,7 +1178,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1184,7 +1210,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1216,7 +1242,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1248,7 +1274,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1280,7 +1306,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1312,7 +1338,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1344,7 +1370,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1376,7 +1402,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1408,7 +1434,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1440,7 +1466,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1474,7 +1500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1508,7 +1534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1542,7 +1568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1576,7 +1602,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1610,7 +1636,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1644,7 +1670,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -1678,7 +1704,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -1712,7 +1738,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -1746,7 +1772,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -1780,7 +1806,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -1814,7 +1840,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="20.25" customHeight="1">
+    <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1846,7 +1872,7 @@
       </c>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="1:10" ht="20.25" customHeight="1">
+    <row r="31" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1878,47 +1904,75 @@
       </c>
       <c r="J31" s="24"/>
     </row>
-    <row r="32" spans="1:10" ht="20.25" customHeight="1">
+    <row r="32" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
+      <c r="B32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="11">
+        <v>42096</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>160</v>
+      </c>
       <c r="F32" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="10"/>
+        <v>160</v>
+      </c>
+      <c r="G32" s="10">
+        <v>52</v>
+      </c>
       <c r="H32" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="24"/>
-    </row>
-    <row r="33" spans="1:10" ht="20.25" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
+      <c r="B33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="11">
+        <v>42096</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>158</v>
+      </c>
       <c r="F33" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="G33" s="10">
+        <v>20</v>
+      </c>
       <c r="H33" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="24"/>
-    </row>
-    <row r="34" spans="1:10" ht="20.25" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1938,7 +1992,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="24"/>
     </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1">
+    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1958,7 +2012,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="24"/>
     </row>
-    <row r="36" spans="1:10" ht="20.25" customHeight="1">
+    <row r="36" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1978,7 +2032,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="24"/>
     </row>
-    <row r="37" spans="1:10" ht="20.25" customHeight="1">
+    <row r="37" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1998,7 +2052,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="24"/>
     </row>
-    <row r="38" spans="1:10" ht="20.25" customHeight="1">
+    <row r="38" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2018,7 +2072,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="24"/>
     </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1">
+    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2047,14 +2101,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2065,7 +2119,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -2074,7 +2128,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2083,7 +2137,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -2135,7 +2189,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -2155,7 +2209,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2175,7 +2229,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -2195,7 +2249,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -2215,7 +2269,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -2235,7 +2289,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2255,7 +2309,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2275,7 +2329,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2295,7 +2349,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2315,7 +2369,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2335,7 +2389,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2355,7 +2409,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2374,7 +2428,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2394,7 +2448,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2414,7 +2468,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2434,7 +2488,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2454,7 +2508,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2474,7 +2528,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2494,7 +2548,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2514,7 +2568,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2542,14 +2596,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2560,7 +2614,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -2571,7 +2625,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -2585,7 +2639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -2602,7 +2656,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2634,7 +2688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2666,7 +2720,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2698,7 +2752,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2730,7 +2784,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -2762,7 +2816,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -2795,7 +2849,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -2827,7 +2881,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -2857,7 +2911,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2877,7 +2931,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2897,7 +2951,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2917,7 +2971,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2937,7 +2991,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2957,7 +3011,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2977,7 +3031,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2997,7 +3051,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3017,7 +3071,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3037,7 +3091,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3057,7 +3111,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3077,7 +3131,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3097,7 +3151,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3117,7 +3171,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3145,14 +3199,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3163,7 +3217,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -3174,7 +3228,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -3188,7 +3242,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3205,7 +3259,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3237,7 +3291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3271,7 +3325,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3305,7 +3359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -3325,7 +3379,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -3345,7 +3399,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -3365,7 +3419,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -3385,7 +3439,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -3405,7 +3459,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3425,7 +3479,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3445,7 +3499,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3465,7 +3519,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3485,7 +3539,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3505,7 +3559,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3524,7 +3578,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3544,7 +3598,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3564,7 +3618,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3584,7 +3638,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3604,7 +3658,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3624,7 +3678,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3644,7 +3698,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3664,7 +3718,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3691,14 +3745,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3709,24 +3763,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3758,7 +3812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -3790,7 +3844,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -3823,7 +3877,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -3855,7 +3909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -3887,7 +3941,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -3919,7 +3973,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -3952,7 +4006,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -3985,7 +4039,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4018,7 +4072,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4050,7 +4104,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4083,7 +4137,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4103,7 +4157,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4123,7 +4177,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4142,7 +4196,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4162,7 +4216,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4182,7 +4236,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4202,7 +4256,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4222,7 +4276,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4242,7 +4296,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4262,7 +4316,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4282,7 +4336,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="107">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,19 +435,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4号发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市奉贤区四团镇海奕路218号15800748979谢诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：小淞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4号发货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,7 +676,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -700,10 +708,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -735,7 +742,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -911,14 +917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -929,7 +935,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -940,7 +946,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -954,7 +960,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -986,7 +992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1018,7 +1024,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1050,7 +1056,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1082,7 +1088,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1114,7 +1120,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1146,7 +1152,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1178,7 +1184,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1210,7 +1216,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1242,7 +1248,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1274,7 +1280,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1306,7 +1312,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1338,7 +1344,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1370,7 +1376,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1402,7 +1408,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1434,7 +1440,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1466,7 +1472,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1636,7 +1642,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -1840,159 +1846,173 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="7">
         <v>42095</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="5">
         <v>4</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="8">
         <v>160</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="8">
         <f t="shared" si="6"/>
         <v>640</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="8">
         <v>22</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="8">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J30" s="24"/>
-    </row>
-    <row r="31" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A31" s="5">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="7">
         <v>42095</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
         <v>168</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="8">
         <f t="shared" si="6"/>
         <v>168</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="8">
         <v>30</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="8">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
+      <c r="J31" s="27"/>
+    </row>
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A32" s="5">
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="7">
         <v>42096</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
         <v>160</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="8">
         <f t="shared" si="6"/>
         <v>160</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="8">
         <v>52</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="8">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="27" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A33" s="5">
         <v>30</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="7">
         <v>42096</v>
       </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8">
         <v>158</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="8">
         <f t="shared" si="6"/>
         <v>158</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="8">
         <v>20</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="8">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="J33" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
+      <c r="B34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="11">
+        <v>42101</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>158</v>
+      </c>
       <c r="F34" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="G34" s="10">
+        <v>20</v>
+      </c>
       <c r="H34" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="24"/>
-    </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2012,7 +2032,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="24"/>
     </row>
-    <row r="36" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2032,7 +2052,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="24"/>
     </row>
-    <row r="37" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2052,7 +2072,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="24"/>
     </row>
-    <row r="38" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="20.25" customHeight="1">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2072,7 +2092,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="24"/>
     </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="20.25" customHeight="1">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2101,14 +2121,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2119,7 +2139,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -2128,7 +2148,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2137,7 +2157,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -2189,7 +2209,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -2209,7 +2229,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2229,7 +2249,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -2249,7 +2269,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -2269,7 +2289,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -2289,7 +2309,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2309,7 +2329,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2329,7 +2349,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2349,7 +2369,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2369,7 +2389,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2389,7 +2409,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2409,7 +2429,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2428,7 +2448,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2448,7 +2468,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2468,7 +2488,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2488,7 +2508,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2508,7 +2528,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2528,7 +2548,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2548,7 +2568,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2568,7 +2588,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2596,14 +2616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2614,7 +2634,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -2625,7 +2645,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -2639,7 +2659,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -2656,7 +2676,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2688,7 +2708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -2720,7 +2740,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2752,7 +2772,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2784,7 +2804,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -2816,7 +2836,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -2849,7 +2869,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -2881,37 +2901,39 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="7">
         <v>42090</v>
       </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
         <v>50</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="28" t="s">
+      <c r="G11" s="8">
+        <v>-35</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="1"/>
+        <v>-35</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -2931,7 +2953,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2951,7 +2973,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2971,7 +2993,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2991,7 +3013,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3011,7 +3033,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3031,7 +3053,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3051,7 +3073,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3071,7 +3093,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3091,7 +3113,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3111,7 +3133,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3131,7 +3153,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3151,7 +3173,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3171,7 +3193,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3199,14 +3221,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3217,7 +3239,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -3228,7 +3250,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -3242,7 +3264,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3259,7 +3281,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3291,7 +3313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3325,7 +3347,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3359,7 +3381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -3379,7 +3401,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -3399,7 +3421,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -3419,7 +3441,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -3439,7 +3461,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -3459,7 +3481,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3479,7 +3501,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3499,7 +3521,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3519,7 +3541,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3539,7 +3561,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3559,7 +3581,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3578,7 +3600,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3598,7 +3620,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3618,7 +3640,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3638,7 +3660,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3658,7 +3680,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3678,7 +3700,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3698,7 +3720,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3718,7 +3740,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3745,14 +3767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3763,24 +3785,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3812,7 +3834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -3844,7 +3866,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -3877,7 +3899,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -3909,7 +3931,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -3941,7 +3963,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -3973,7 +3995,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4006,7 +4028,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4039,7 +4061,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4072,7 +4094,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4104,7 +4126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4137,7 +4159,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4157,7 +4179,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4177,7 +4199,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4196,7 +4218,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4216,7 +4238,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4236,7 +4258,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4256,7 +4278,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4276,7 +4298,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4296,7 +4318,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4316,7 +4338,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4336,7 +4358,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="114">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,34 @@
   </si>
   <si>
     <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱阳市天山小区，一号楼五单元三楼东户  董璨 15098670797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：孙蕊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融科林语杨廷元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送给福山朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西曼爸生日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1978,37 +2006,37 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A34" s="1">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A34" s="5">
         <v>31</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="7">
         <v>42101</v>
       </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
         <v>158</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="8">
         <f t="shared" si="6"/>
         <v>158</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="8">
         <v>20</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="8">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J34" s="24" t="s">
+      <c r="J34" s="27" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2016,41 +2044,69 @@
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
+      <c r="B35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="11">
+        <v>42105</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>158</v>
+      </c>
       <c r="F35" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="G35" s="10">
+        <v>20</v>
+      </c>
       <c r="H35" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="24"/>
-    </row>
-    <row r="36" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A36" s="1">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A36" s="5">
         <v>33</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="10">
+      <c r="B36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="7">
+        <v>42105</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8">
+        <v>138</v>
+      </c>
+      <c r="F36" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10">
+        <v>138</v>
+      </c>
+      <c r="G36" s="8">
+        <v>-138</v>
+      </c>
+      <c r="H36" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="24"/>
+        <v>-138</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="1">
@@ -2111,6 +2167,126 @@
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="10">
+        <f t="shared" ref="F40:F45" si="8">D40*E40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10">
+        <f t="shared" ref="H40:H45" si="9">D40*G40</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="24"/>
+    </row>
+    <row r="41" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:J3"/>
@@ -2124,9 +2300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2620,7 +2794,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3224,9 +3398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3381,25 +3553,39 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="12">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10">
+      <c r="B7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="7">
+        <v>42103</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>116</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="G7" s="8">
+        <v>-116</v>
+      </c>
+      <c r="H7" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="28"/>
+        <v>-116</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="一块密" sheetId="3" r:id="rId3"/>
     <sheet name="晓起皇菊" sheetId="4" r:id="rId4"/>
     <sheet name="红斗车订单" sheetId="5" r:id="rId5"/>
+    <sheet name="你好芒代理细则" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,6 +477,82 @@
   </si>
   <si>
     <t>西曼爸生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补邮费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东、海南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西、福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南、江西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏、河北、山西、天津
+湖北、辽宁、陕西、北京
+上海、贵州、云南、四川
+重庆、浙江、山东、安徽
+河南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃、内蒙古、青海、宁夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江、吉林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏、新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一顺丰生鲜速配包邮,48小时内到货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简装：128元/箱、精装：158元/箱（部分地区需补邮费，见下表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +560,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,8 +598,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +648,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -644,6 +760,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -948,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -4568,4 +4705,105 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="31"/>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A3" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A8" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="晓起皇菊" sheetId="4" r:id="rId4"/>
     <sheet name="红斗车订单" sheetId="5" r:id="rId5"/>
     <sheet name="你好芒代理细则" sheetId="6" r:id="rId6"/>
+    <sheet name="枇杷" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="139">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,6 +554,33 @@
   </si>
   <si>
     <t>简装：128元/箱、精装：158元/箱（部分地区需补邮费，见下表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东烟台蓝天国际大厦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.4.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+  </si>
+  <si>
+    <t>魏国华试吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省泸州市天星影视艺术学院   葛莉    15884184595</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：福建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,9 +788,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,6 +805,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2239,51 +2267,79 @@
         <v>-138</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="J36" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A37" s="1">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A37" s="5">
         <v>34</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="10">
+      <c r="B37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="7">
+        <v>42106</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8">
+        <v>138</v>
+      </c>
+      <c r="F37" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10">
+        <v>138</v>
+      </c>
+      <c r="G37" s="8">
+        <v>20</v>
+      </c>
+      <c r="H37" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="24"/>
-    </row>
-    <row r="38" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A38" s="1">
+        <v>20</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A38" s="5">
         <v>35</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="10">
+      <c r="B38" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="7">
+        <v>42107</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <v>158</v>
+      </c>
+      <c r="F38" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10">
+        <v>158</v>
+      </c>
+      <c r="G38" s="8">
+        <v>20</v>
+      </c>
+      <c r="H38" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="20.25" customHeight="1">
       <c r="A39" s="1">
@@ -2424,6 +2480,126 @@
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="24"/>
+    </row>
+    <row r="46" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="10">
+        <f t="shared" ref="F46:F51" si="10">D46*E46</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10">
+        <f t="shared" ref="H46:H51" si="11">D46*G46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="24"/>
+    </row>
+    <row r="47" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:J3"/>
@@ -2437,7 +2613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4093,9 +4271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4711,8 +4887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4722,78 +4898,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4806,4 +4982,510 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="54.125" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="C1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="19">
+        <v>118</v>
+      </c>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="17">
+        <v>158</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>118</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F24" si="0">D4*E4</f>
+        <v>118</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-118</v>
+      </c>
+      <c r="H4" s="10">
+        <f>D4*G4</f>
+        <v>-118</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
+        <f t="shared" ref="H5:H24" si="1">D5*G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="一块密" sheetId="3" r:id="rId3"/>
     <sheet name="晓起皇菊" sheetId="4" r:id="rId4"/>
     <sheet name="红斗车订单" sheetId="5" r:id="rId5"/>
-    <sheet name="你好芒代理细则" sheetId="6" r:id="rId6"/>
+    <sheet name="你好芒代理价格表" sheetId="6" r:id="rId6"/>
     <sheet name="枇杷" sheetId="8" r:id="rId7"/>
+    <sheet name="枇杷代理价格表" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="146">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,6 +582,37 @@
   </si>
   <si>
     <t>代理：福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国大部分地区：118元/箱（部分地区需补邮费，见下表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北、西南地区
+（重庆，四川，贵州，云南，宁夏，甘肃，青海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部大部分地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北地区
+（吉林，辽宁，黑龙江）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较远地区
+（西藏，内蒙，新疆，港澳台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一顺丰包邮,48小时内到货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格：4KG/箱  净重3KG/箱  一大箱分4小盒， 12个/箱  合计48个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +686,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,6 +720,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -807,6 +845,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -4887,8 +4940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5488,4 +5541,88 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="37"/>
+    </row>
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="37"/>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="40.5">
+      <c r="A5" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="35.25" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42.75" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A8" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -585,10 +585,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全国大部分地区：118元/箱（部分地区需补邮费，见下表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西北、西南地区
 （重庆，四川，贵州，云南，宁夏，甘肃，青海）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -613,6 +609,10 @@
   </si>
   <si>
     <t>规格：4KG/箱  净重3KG/箱  一大箱分4小盒， 12个/箱  合计48个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国大部分地区：138元/箱（部分地区需补邮费，见下表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,12 +841,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -855,6 +849,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4940,7 +4940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4951,16 +4951,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -5547,8 +5547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5558,16 +5558,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="37"/>
+      <c r="A1" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A2" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="37"/>
+      <c r="A2" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -5579,31 +5579,31 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="40.5">
-      <c r="A5" s="38" t="s">
-        <v>140</v>
+      <c r="A5" s="36" t="s">
+        <v>139</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="35.25" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>142</v>
+      <c r="A6" s="37" t="s">
+        <v>141</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="42.75" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>143</v>
+      <c r="A7" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>126</v>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="8" spans="1:2" ht="20.25" customHeight="1">
       <c r="A8" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="42"/>
     </row>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -550,10 +550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统一顺丰生鲜速配包邮,48小时内到货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>简装：128元/箱、精装：158元/箱（部分地区需补邮费，见下表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,23 +600,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统一顺丰包邮,48小时内到货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>规格：4KG/箱  净重3KG/箱  一大箱分4小盒， 12个/箱  合计48个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全国大部分地区：138元/箱（部分地区需补邮费，见下表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（福建云霄枇杷）统一顺丰包邮,48小时内到货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（海南金煌芒）统一顺丰生鲜速配包邮,48小时内到货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,7 +922,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -954,9 +954,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -988,6 +989,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1163,14 +1165,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1181,7 +1183,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1206,7 +1208,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1270,7 +1272,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1302,7 +1304,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1334,7 +1336,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1366,7 +1368,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1398,7 +1400,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1430,7 +1432,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1462,7 +1464,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1494,7 +1496,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1526,7 +1528,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1558,7 +1560,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1590,7 +1592,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1622,7 +1624,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1654,7 +1656,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1686,7 +1688,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1718,7 +1720,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1752,7 +1754,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1786,7 +1788,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1820,7 +1822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1854,7 +1856,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1888,7 +1890,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1922,7 +1924,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -1956,7 +1958,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -1990,7 +1992,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2024,7 +2026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2058,7 +2060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2092,7 +2094,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2124,7 +2126,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2156,7 +2158,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2190,7 +2192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2224,7 +2226,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2258,7 +2260,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1">
+    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2326,12 +2328,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="7">
         <v>42106</v>
@@ -2354,18 +2356,18 @@
         <v>20</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="7">
         <v>42107</v>
@@ -2388,13 +2390,13 @@
         <v>20</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2414,7 +2416,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="24"/>
     </row>
-    <row r="40" spans="1:10" ht="20.25" customHeight="1">
+    <row r="40" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2434,7 +2436,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="24"/>
     </row>
-    <row r="41" spans="1:10" ht="20.25" customHeight="1">
+    <row r="41" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2454,7 +2456,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="24"/>
     </row>
-    <row r="42" spans="1:10" ht="20.25" customHeight="1">
+    <row r="42" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2474,7 +2476,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="24"/>
     </row>
-    <row r="43" spans="1:10" ht="20.25" customHeight="1">
+    <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2494,7 +2496,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="24"/>
     </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1">
+    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2514,7 +2516,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="24"/>
     </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1">
+    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2534,7 +2536,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1">
+    <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2554,7 +2556,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1">
+    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2574,7 +2576,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1">
+    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2594,7 +2596,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1">
+    <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2614,7 +2616,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1">
+    <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -2634,7 +2636,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1">
+    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -2663,14 +2665,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2681,7 +2683,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -2690,7 +2692,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2699,7 +2701,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -2751,7 +2753,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -2771,7 +2773,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2791,7 +2793,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -2811,7 +2813,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -2831,7 +2833,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -2851,7 +2853,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2871,7 +2873,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2891,7 +2893,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2911,7 +2913,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2931,7 +2933,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2951,7 +2953,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2971,7 +2973,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2990,7 +2992,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -3010,7 +3012,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -3030,7 +3032,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -3050,7 +3052,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -3070,7 +3072,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -3090,7 +3092,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -3110,7 +3112,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -3130,7 +3132,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -3158,14 +3160,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3176,7 +3178,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -3187,7 +3189,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -3201,7 +3203,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3218,7 +3220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3250,7 +3252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3282,7 +3284,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3314,7 +3316,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3346,7 +3348,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3378,7 +3380,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3443,7 +3445,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -3475,7 +3477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3495,7 +3497,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3515,7 +3517,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3535,7 +3537,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3555,7 +3557,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3575,7 +3577,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3595,7 +3597,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3615,7 +3617,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3635,7 +3637,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3655,7 +3657,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3675,7 +3677,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3695,7 +3697,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3715,7 +3717,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3735,7 +3737,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3763,12 +3765,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3779,7 +3781,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -3790,7 +3792,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -3804,7 +3806,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3821,7 +3823,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3853,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3887,7 +3889,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3921,7 +3923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3955,7 +3957,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -3975,7 +3977,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -3995,7 +3997,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4015,7 +4017,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4035,7 +4037,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4055,7 +4057,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4075,7 +4077,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4095,7 +4097,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4115,7 +4117,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4135,7 +4137,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4154,7 +4156,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4174,7 +4176,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4194,7 +4196,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4214,7 +4216,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4234,7 +4236,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4254,7 +4256,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4274,7 +4276,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4294,7 +4296,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4321,12 +4323,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4337,24 +4339,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4386,7 +4388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -4418,7 +4420,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -4451,7 +4453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -4483,7 +4485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -4515,7 +4517,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -4547,7 +4549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4580,7 +4582,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4613,7 +4615,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4678,7 +4680,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4711,7 +4713,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4731,7 +4733,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4751,7 +4753,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4770,7 +4772,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4790,7 +4792,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4810,7 +4812,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4830,7 +4832,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4850,7 +4852,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4870,7 +4872,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4890,7 +4892,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4910,7 +4912,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4937,32 +4939,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="40"/>
+    </row>
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="40"/>
-    </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>131</v>
-      </c>
       <c r="B2" s="40"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>114</v>
       </c>
@@ -4970,7 +4972,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>116</v>
       </c>
@@ -4978,7 +4980,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>117</v>
       </c>
@@ -4986,7 +4988,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>118</v>
       </c>
@@ -4994,7 +4996,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1">
+    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
         <v>119</v>
       </c>
@@ -5002,7 +5004,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34" t="s">
         <v>120</v>
       </c>
@@ -5010,7 +5012,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>121</v>
       </c>
@@ -5018,7 +5020,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
         <v>122</v>
       </c>
@@ -5038,12 +5040,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -5054,7 +5056,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -5063,7 +5065,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -5072,7 +5074,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5104,15 +5106,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>133</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
@@ -5135,10 +5137,10 @@
         <v>28</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -5158,7 +5160,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -5178,7 +5180,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -5198,7 +5200,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -5218,7 +5220,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -5238,7 +5240,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -5258,7 +5260,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -5278,7 +5280,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5298,7 +5300,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5318,7 +5320,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5338,7 +5340,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5358,7 +5360,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -5377,7 +5379,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -5397,7 +5399,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -5417,7 +5419,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -5437,7 +5439,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -5457,7 +5459,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -5477,7 +5479,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -5497,7 +5499,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -5517,7 +5519,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -5544,32 +5546,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="40"/>
+    </row>
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="40"/>
-    </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>145</v>
-      </c>
       <c r="B2" s="40"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>114</v>
       </c>
@@ -5577,41 +5579,41 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5">
+    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1">
+    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="42"/>
     </row>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="152">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,10 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.4.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已付款</t>
   </si>
   <si>
@@ -613,14 +609,43 @@
   </si>
   <si>
     <t>（海南金煌芒）统一顺丰生鲜速配包邮,48小时内到货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃省酒泉市肃州区百合园24栋4单元501 电话13893781916
+收件人陈海英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信：英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天国际大厦7楼欣和企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白崇峰，王慧，刘伟杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福于华军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,7 +947,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -954,10 +979,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -989,7 +1013,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1165,14 +1188,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1183,7 +1206,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1194,7 +1217,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1208,7 +1231,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1272,7 +1295,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1304,7 +1327,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1336,7 +1359,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1368,7 +1391,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1400,7 +1423,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1432,7 +1455,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1464,7 +1487,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1496,7 +1519,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1528,7 +1551,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1560,7 +1583,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1592,7 +1615,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1624,7 +1647,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1656,7 +1679,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1688,7 +1711,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1720,7 +1743,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1754,7 +1777,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1788,7 +1811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1822,7 +1845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1856,7 +1879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1890,7 +1913,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1924,7 +1947,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -1958,7 +1981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -1992,7 +2015,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2026,7 +2049,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2060,7 +2083,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2094,7 +2117,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2126,7 +2149,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2158,7 +2181,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2192,7 +2215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2226,7 +2249,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2260,7 +2283,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2294,7 +2317,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2328,12 +2351,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A37" s="5">
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="7">
         <v>42106</v>
@@ -2356,18 +2379,18 @@
         <v>20</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A38" s="5">
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="7">
         <v>42107</v>
@@ -2390,13 +2413,13 @@
         <v>20</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20.25" customHeight="1">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2416,7 +2439,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="24"/>
     </row>
-    <row r="40" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="20.25" customHeight="1">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2436,7 +2459,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="24"/>
     </row>
-    <row r="41" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="20.25" customHeight="1">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2456,7 +2479,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="24"/>
     </row>
-    <row r="42" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2476,7 +2499,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="24"/>
     </row>
-    <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2496,7 +2519,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="24"/>
     </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2516,7 +2539,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="24"/>
     </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2536,7 +2559,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="20.25" customHeight="1">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2556,7 +2579,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="20.25" customHeight="1">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2576,7 +2599,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="20.25" customHeight="1">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2596,7 +2619,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="20.25" customHeight="1">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2616,7 +2639,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -2636,7 +2659,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -2665,14 +2688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2683,7 +2706,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -2692,7 +2715,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2701,7 +2724,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2733,7 +2756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -2753,7 +2776,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -2773,7 +2796,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2793,7 +2816,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -2813,7 +2836,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -2833,7 +2856,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -2853,7 +2876,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2873,7 +2896,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2893,7 +2916,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2913,7 +2936,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2933,7 +2956,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2953,7 +2976,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2973,7 +2996,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2992,7 +3015,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -3012,7 +3035,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -3032,7 +3055,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -3052,7 +3075,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -3072,7 +3095,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -3092,7 +3115,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -3112,7 +3135,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -3132,7 +3155,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -3160,14 +3183,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3178,7 +3201,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -3189,7 +3212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -3203,7 +3226,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3220,7 +3243,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3252,7 +3275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3284,7 +3307,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3316,7 +3339,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3348,7 +3371,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3380,7 +3403,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3413,7 +3436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3445,7 +3468,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -3477,7 +3500,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3497,7 +3520,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3517,7 +3540,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3537,7 +3560,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3557,7 +3580,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3577,7 +3600,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3597,7 +3620,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3617,7 +3640,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3637,7 +3660,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3657,7 +3680,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3677,7 +3700,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3697,7 +3720,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3717,7 +3740,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3737,7 +3760,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3765,12 +3788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3781,7 +3806,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -3792,7 +3817,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -3806,7 +3831,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3823,7 +3848,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3855,7 +3880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3889,7 +3914,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3923,7 +3948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3957,27 +3982,41 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="30.75" customHeight="1">
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10"/>
+      <c r="B8" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="13">
+        <v>42108</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>140</v>
+      </c>
       <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="G8" s="10">
+        <v>24</v>
+      </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -3997,7 +4036,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4017,7 +4056,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4037,7 +4076,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4057,7 +4096,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4077,7 +4116,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4097,7 +4136,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4117,7 +4156,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4137,7 +4176,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4156,7 +4195,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4176,7 +4215,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4196,7 +4235,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4216,7 +4255,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4236,7 +4275,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4256,7 +4295,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4276,7 +4315,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4296,7 +4335,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4323,12 +4362,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4339,24 +4378,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4388,7 +4427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -4420,7 +4459,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -4453,7 +4492,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -4485,7 +4524,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -4517,7 +4556,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -4549,7 +4588,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4582,7 +4621,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4615,7 +4654,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4648,7 +4687,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4680,7 +4719,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4713,7 +4752,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4733,7 +4772,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4753,7 +4792,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4772,7 +4811,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4792,7 +4831,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4812,7 +4851,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4832,7 +4871,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4852,7 +4891,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4872,7 +4911,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4892,7 +4931,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4912,7 +4951,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4939,32 +4978,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="40"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="40"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>114</v>
       </c>
@@ -4972,7 +5011,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="32" t="s">
         <v>116</v>
       </c>
@@ -4980,7 +5019,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="32" t="s">
         <v>117</v>
       </c>
@@ -4988,7 +5027,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
         <v>118</v>
       </c>
@@ -4996,7 +5035,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="75" customHeight="1">
       <c r="A7" s="35" t="s">
         <v>119</v>
       </c>
@@ -5004,7 +5043,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1">
       <c r="A8" s="34" t="s">
         <v>120</v>
       </c>
@@ -5012,7 +5051,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="32" t="s">
         <v>121</v>
       </c>
@@ -5020,7 +5059,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="32" t="s">
         <v>122</v>
       </c>
@@ -5040,12 +5079,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -5056,7 +5095,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -5065,7 +5104,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -5074,7 +5113,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5106,15 +5145,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>132</v>
+      <c r="C4" s="13">
+        <v>42107</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
@@ -5137,50 +5176,76 @@
         <v>28</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10"/>
+      <c r="B5" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="13">
+        <v>42108</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>158</v>
+      </c>
       <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="G5" s="10">
+        <v>40</v>
+      </c>
       <c r="H5" s="10">
         <f t="shared" ref="H5:H24" si="1">D5*G5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="28"/>
-    </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="13">
+        <v>42108</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>148</v>
+      </c>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="G6" s="10">
+        <v>30</v>
+      </c>
       <c r="H6" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -5200,7 +5265,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -5220,7 +5285,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -5240,7 +5305,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -5260,7 +5325,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -5280,7 +5345,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5300,7 +5365,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5320,7 +5385,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5340,7 +5405,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5360,7 +5425,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -5379,7 +5444,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -5399,7 +5464,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -5419,7 +5484,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -5439,7 +5504,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -5459,7 +5524,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -5479,7 +5544,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -5499,7 +5564,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -5519,7 +5584,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -5546,32 +5611,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="40"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="40"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>114</v>
       </c>
@@ -5579,41 +5644,41 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="35.25" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1">
       <c r="A7" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1">
       <c r="A8" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="42"/>
     </row>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="154">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,10 +561,6 @@
     <t>已付款</t>
   </si>
   <si>
-    <t>魏国华试吃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>四川省泸州市天星影视艺术学院   葛莉    15884184595</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -629,23 +625,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白崇峰，王慧，刘伟杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幸福于华军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏国华试吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白崇峰2，王慧1，刘伟杰1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何龙2，谭叶红1（未付款），分享1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,7 +955,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -979,9 +987,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1013,6 +1022,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1188,14 +1198,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1206,7 +1216,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1217,7 +1227,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1231,7 +1241,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1295,7 +1305,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1327,7 +1337,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1359,7 +1369,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1391,7 +1401,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1423,7 +1433,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1455,7 +1465,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1487,7 +1497,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1519,7 +1529,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1551,7 +1561,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1583,7 +1593,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1615,7 +1625,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1647,7 +1657,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1679,7 +1689,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1711,7 +1721,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1743,7 +1753,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1777,7 +1787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1811,7 +1821,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1845,7 +1855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1879,7 +1889,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1913,7 +1923,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1947,7 +1957,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -1981,7 +1991,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2015,7 +2025,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2049,7 +2059,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2083,7 +2093,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2117,7 +2127,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2149,7 +2159,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2181,7 +2191,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2215,7 +2225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2249,7 +2259,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2283,7 +2293,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1">
+    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2317,7 +2327,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2351,12 +2361,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="7">
         <v>42106</v>
@@ -2382,15 +2392,15 @@
         <v>132</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="7">
         <v>42107</v>
@@ -2416,10 +2426,10 @@
         <v>132</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2439,7 +2449,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="24"/>
     </row>
-    <row r="40" spans="1:10" ht="20.25" customHeight="1">
+    <row r="40" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2459,7 +2469,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="24"/>
     </row>
-    <row r="41" spans="1:10" ht="20.25" customHeight="1">
+    <row r="41" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2479,7 +2489,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="24"/>
     </row>
-    <row r="42" spans="1:10" ht="20.25" customHeight="1">
+    <row r="42" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2499,7 +2509,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="24"/>
     </row>
-    <row r="43" spans="1:10" ht="20.25" customHeight="1">
+    <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2519,7 +2529,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="24"/>
     </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1">
+    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2539,7 +2549,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="24"/>
     </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1">
+    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2559,7 +2569,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1">
+    <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2579,7 +2589,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1">
+    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2599,7 +2609,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1">
+    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2619,7 +2629,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1">
+    <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2639,7 +2649,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1">
+    <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -2659,7 +2669,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1">
+    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -2688,14 +2698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2706,7 +2716,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -2715,7 +2725,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2724,7 +2734,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2756,7 +2766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -2776,7 +2786,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -2796,7 +2806,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2816,7 +2826,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -2836,7 +2846,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -2856,7 +2866,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -2876,7 +2886,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2896,7 +2906,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2916,7 +2926,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2936,7 +2946,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2956,7 +2966,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2976,7 +2986,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2996,7 +3006,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -3015,7 +3025,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -3035,7 +3045,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -3055,7 +3065,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -3075,7 +3085,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -3095,7 +3105,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -3115,7 +3125,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -3135,7 +3145,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -3155,7 +3165,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -3183,14 +3193,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3201,7 +3211,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -3212,7 +3222,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -3226,7 +3236,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3243,7 +3253,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3275,7 +3285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3307,7 +3317,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3339,7 +3349,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3371,7 +3381,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3403,7 +3413,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3436,7 +3446,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3468,7 +3478,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -3500,7 +3510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3520,7 +3530,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3540,7 +3550,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3560,7 +3570,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3580,7 +3590,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3600,7 +3610,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3620,7 +3630,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3640,7 +3650,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3660,7 +3670,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3680,7 +3690,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3700,7 +3710,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3720,7 +3730,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3740,7 +3750,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3760,7 +3770,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3788,14 +3798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H5" sqref="H5:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3806,7 +3816,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -3817,7 +3827,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -3831,7 +3841,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3848,7 +3858,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3880,7 +3890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3914,7 +3924,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3948,7 +3958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3982,12 +3992,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="30.75" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="13">
         <v>42108</v>
@@ -4010,13 +4020,13 @@
         <v>24</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -4036,7 +4046,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4056,7 +4066,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4076,7 +4086,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4096,7 +4106,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4116,7 +4126,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4136,7 +4146,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4156,7 +4166,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4176,7 +4186,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4195,7 +4205,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4215,7 +4225,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4235,7 +4245,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4255,7 +4265,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4275,7 +4285,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4295,7 +4305,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4315,7 +4325,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4335,7 +4345,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4362,12 +4372,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4378,24 +4388,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4427,7 +4437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -4459,7 +4469,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -4492,7 +4502,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -4524,7 +4534,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -4556,7 +4566,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -4588,7 +4598,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4621,7 +4631,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4654,7 +4664,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4687,7 +4697,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4719,7 +4729,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4752,7 +4762,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4772,7 +4782,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4792,7 +4802,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4811,7 +4821,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4831,7 +4841,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4851,7 +4861,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4871,7 +4881,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4891,7 +4901,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4911,7 +4921,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4931,7 +4941,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4951,7 +4961,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4978,32 +4988,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="40"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="40"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>114</v>
       </c>
@@ -5011,7 +5021,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>116</v>
       </c>
@@ -5019,7 +5029,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>117</v>
       </c>
@@ -5027,7 +5037,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>118</v>
       </c>
@@ -5035,7 +5045,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1">
+    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
         <v>119</v>
       </c>
@@ -5043,7 +5053,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34" t="s">
         <v>120</v>
       </c>
@@ -5051,7 +5061,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>121</v>
       </c>
@@ -5059,7 +5069,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
         <v>122</v>
       </c>
@@ -5079,12 +5089,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -5095,7 +5107,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -5104,7 +5116,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -5113,7 +5125,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5145,7 +5157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -5166,25 +5178,25 @@
         <v>118</v>
       </c>
       <c r="G4" s="10">
-        <v>-118</v>
+        <v>0</v>
       </c>
       <c r="H4" s="10">
         <f>D4*G4</f>
-        <v>-118</v>
+        <v>0</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="13">
         <v>42108</v>
@@ -5207,18 +5219,18 @@
         <v>40</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="13">
         <v>42108</v>
@@ -5241,31 +5253,45 @@
         <v>30</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="13">
+        <v>42109</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>118</v>
+      </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-118</v>
+      </c>
       <c r="H7" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+        <v>-118</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -5285,7 +5311,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -5305,7 +5331,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -5325,7 +5351,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -5345,7 +5371,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5365,7 +5391,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5385,7 +5411,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5405,7 +5431,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5425,7 +5451,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -5444,7 +5470,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -5464,7 +5490,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -5484,7 +5510,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -5504,7 +5530,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -5524,7 +5550,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -5544,7 +5570,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -5564,7 +5590,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -5584,7 +5610,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -5607,36 +5633,37 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="40"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="40"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>114</v>
       </c>
@@ -5644,41 +5671,41 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5">
+    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1">
+    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="42"/>
     </row>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="157">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,11 +641,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>何龙2，谭叶红1（未付款），分享1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省蓬莱市北沟镇泊子村蓬莱欣和食品有限公司 电话是15054568824 许少妍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣和蓬莱同事许少妍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何龙2，谭叶红1，分享1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3802,7 +3814,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5093,7 +5105,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5185,10 +5197,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5285,7 +5297,7 @@
         <v>-118</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J7" s="28" t="s">
         <v>150</v>
@@ -5295,21 +5307,35 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10"/>
+      <c r="B8" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="13">
+        <v>42109</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>158</v>
+      </c>
       <c r="F8" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="G8" s="10">
+        <v>40</v>
+      </c>
       <c r="H8" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="28"/>
+        <v>40</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="157">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,10 +415,6 @@
   </si>
   <si>
     <t>蓝天国际大厦李永波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -633,18 +629,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魏国华试吃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>白崇峰2，王慧1，刘伟杰1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>山东省蓬莱市北沟镇泊子村蓬莱欣和食品有限公司 电话是15054568824 许少妍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,6 +646,18 @@
   </si>
   <si>
     <t>何龙2，谭叶红1，分享1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣和王显宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王显宇2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小隋2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1697,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J16" s="27"/>
     </row>
@@ -2199,7 +2199,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="J31" s="27"/>
     </row>
@@ -2208,7 +2208,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="7">
         <v>42096</v>
@@ -2231,10 +2231,10 @@
         <v>52</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2242,7 +2242,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="7">
         <v>42096</v>
@@ -2268,7 +2268,7 @@
         <v>28</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2276,7 +2276,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="7">
         <v>42101</v>
@@ -2299,10 +2299,10 @@
         <v>20</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2310,7 +2310,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="11">
         <v>42105</v>
@@ -2333,10 +2333,10 @@
         <v>20</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="24" t="s">
         <v>108</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2344,7 +2344,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="7">
         <v>42105</v>
@@ -2370,7 +2370,7 @@
         <v>28</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2378,7 +2378,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" s="7">
         <v>42106</v>
@@ -2401,10 +2401,10 @@
         <v>20</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2412,7 +2412,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="7">
         <v>42107</v>
@@ -2435,10 +2435,10 @@
         <v>20</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3975,7 +3975,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="7">
         <v>42103</v>
@@ -3998,10 +3998,10 @@
         <v>-116</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="27" t="s">
         <v>112</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4009,7 +4009,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="13">
         <v>42108</v>
@@ -4032,10 +4032,10 @@
         <v>24</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="28" t="s">
         <v>145</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5015,78 +5015,78 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>114</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5105,7 +5105,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5169,38 +5169,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="13">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="7">
         <v>42107</v>
       </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
         <v>118</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <f t="shared" ref="F4:F24" si="0">D4*E4</f>
         <v>118</v>
       </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
         <f>D4*G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>156</v>
+      <c r="J4" s="27" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5208,7 +5208,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="13">
         <v>42108</v>
@@ -5231,10 +5231,10 @@
         <v>40</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5242,7 +5242,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="13">
         <v>42108</v>
@@ -5265,7 +5265,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J6" s="28"/>
     </row>
@@ -5274,7 +5274,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="C7" s="13">
         <v>42109</v>
@@ -5290,17 +5290,17 @@
         <v>118</v>
       </c>
       <c r="G7" s="10">
-        <v>-118</v>
+        <v>30</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="1"/>
-        <v>-118</v>
+        <v>30</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5308,7 +5308,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C8" s="13">
         <v>42109</v>
@@ -5331,19 +5331,25 @@
         <v>40</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="13">
+        <v>42109</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
@@ -5355,7 +5361,9 @@
         <v>0</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="28"/>
+      <c r="J9" s="28" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
@@ -5679,59 +5687,59 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>114</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="42"/>
     </row>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="159">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,11 +653,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王显宇2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小隋2</t>
+    <t>欣和侯汶杞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王显宇2盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯汶杞2盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小隋2盒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5104,9 +5112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5300,7 +5306,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5362,16 +5368,22 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="13">
+        <v>42109</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10">
         <f t="shared" si="0"/>
@@ -5383,7 +5395,9 @@
         <v>0</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="28"/>
+      <c r="J10" s="28" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -661,19 +661,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>侯汶杞2盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小隋2盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯汶杞2盒，周五下单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,7 +739,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,6 +782,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -821,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -915,6 +921,13 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -975,7 +988,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1007,10 +1020,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1042,7 +1054,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1218,14 +1229,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1236,7 +1247,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1247,7 +1258,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1261,7 +1272,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1325,7 +1336,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1357,7 +1368,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1389,7 +1400,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1421,7 +1432,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1453,7 +1464,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1485,7 +1496,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1517,7 +1528,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1549,7 +1560,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1581,7 +1592,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1613,7 +1624,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1645,7 +1656,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1677,7 +1688,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1709,7 +1720,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1741,7 +1752,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1773,7 +1784,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1807,7 +1818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1841,7 +1852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1875,7 +1886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1909,7 +1920,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1943,7 +1954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1977,7 +1988,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -2011,7 +2022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2045,7 +2056,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2079,7 +2090,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2113,7 +2124,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2147,7 +2158,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2179,7 +2190,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2211,7 +2222,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2245,7 +2256,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2279,7 +2290,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2313,7 +2324,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2347,7 +2358,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2381,7 +2392,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -2415,7 +2426,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2449,7 +2460,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="20.25" customHeight="1">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2469,7 +2480,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="24"/>
     </row>
-    <row r="40" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="20.25" customHeight="1">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2489,7 +2500,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="24"/>
     </row>
-    <row r="41" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="20.25" customHeight="1">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2509,7 +2520,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="24"/>
     </row>
-    <row r="42" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2529,7 +2540,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="24"/>
     </row>
-    <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2549,7 +2560,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="24"/>
     </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2569,7 +2580,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="24"/>
     </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2589,7 +2600,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="20.25" customHeight="1">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2609,7 +2620,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="20.25" customHeight="1">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2629,7 +2640,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="20.25" customHeight="1">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2649,7 +2660,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="20.25" customHeight="1">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2669,7 +2680,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -2689,7 +2700,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -2718,14 +2729,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2736,7 +2747,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -2745,7 +2756,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2754,7 +2765,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2786,7 +2797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -2806,7 +2817,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -2826,7 +2837,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2846,7 +2857,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -2866,7 +2877,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -2886,7 +2897,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -2906,7 +2917,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2926,7 +2937,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2946,7 +2957,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2966,7 +2977,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2986,7 +2997,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -3006,7 +3017,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -3026,7 +3037,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -3045,7 +3056,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -3065,7 +3076,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -3085,7 +3096,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -3105,7 +3116,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -3125,7 +3136,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -3145,7 +3156,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -3165,7 +3176,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -3185,7 +3196,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -3213,14 +3224,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3231,7 +3242,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -3242,7 +3253,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -3256,7 +3267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3273,7 +3284,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3305,7 +3316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3337,7 +3348,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3369,7 +3380,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3401,7 +3412,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3433,7 +3444,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3466,7 +3477,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3498,7 +3509,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -3530,7 +3541,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3550,7 +3561,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3570,7 +3581,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3590,7 +3601,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3610,7 +3621,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3630,7 +3641,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3650,7 +3661,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3670,7 +3681,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3690,7 +3701,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3710,7 +3721,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3730,7 +3741,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3750,7 +3761,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3770,7 +3781,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3790,7 +3801,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3818,14 +3829,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3836,7 +3847,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -3847,7 +3858,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -3861,7 +3872,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3878,7 +3889,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3910,7 +3921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3944,7 +3955,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3978,7 +3989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4012,7 +4023,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="30.75" customHeight="1">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -4040,13 +4051,13 @@
         <v>24</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="J8" s="28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -4066,7 +4077,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4086,7 +4097,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4106,7 +4117,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4126,7 +4137,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4146,7 +4157,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4166,7 +4177,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4186,7 +4197,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4206,7 +4217,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4225,7 +4236,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4245,7 +4256,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4265,7 +4276,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4285,7 +4296,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4305,7 +4316,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4325,7 +4336,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4345,7 +4356,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4365,7 +4376,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4392,12 +4403,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4408,24 +4419,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4457,7 +4468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -4489,7 +4500,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -4522,7 +4533,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -4554,7 +4565,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -4586,7 +4597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -4618,7 +4629,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4651,7 +4662,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4684,7 +4695,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4717,7 +4728,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4749,7 +4760,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4782,7 +4793,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4802,7 +4813,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4822,7 +4833,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4841,7 +4852,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4861,7 +4872,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4881,7 +4892,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4901,7 +4912,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4921,7 +4932,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4941,7 +4952,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4961,7 +4972,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4981,7 +4992,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5008,32 +5019,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="39" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="40"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="40"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>113</v>
       </c>
@@ -5041,7 +5052,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="32" t="s">
         <v>115</v>
       </c>
@@ -5049,7 +5060,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="32" t="s">
         <v>116</v>
       </c>
@@ -5057,7 +5068,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
         <v>117</v>
       </c>
@@ -5065,7 +5076,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="75" customHeight="1">
       <c r="A7" s="35" t="s">
         <v>118</v>
       </c>
@@ -5073,7 +5084,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1">
       <c r="A8" s="34" t="s">
         <v>119</v>
       </c>
@@ -5081,7 +5092,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="32" t="s">
         <v>120</v>
       </c>
@@ -5089,7 +5100,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="32" t="s">
         <v>121</v>
       </c>
@@ -5109,12 +5120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -5125,7 +5138,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -5134,7 +5147,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -5143,7 +5156,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5175,7 +5188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -5209,7 +5222,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -5243,7 +5256,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -5275,7 +5288,7 @@
       </c>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -5306,10 +5319,10 @@
         <v>19</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -5320,21 +5333,21 @@
         <v>42109</v>
       </c>
       <c r="D8" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="10">
         <v>158</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="G8" s="10">
         <v>40</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>151</v>
@@ -5343,7 +5356,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -5371,35 +5384,35 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
+    <row r="10" spans="1:10" s="47" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="43">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="44">
         <v>42109</v>
       </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="43">
+        <v>1</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -5419,7 +5432,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5439,7 +5452,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5459,7 +5472,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5479,7 +5492,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5499,7 +5512,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -5518,7 +5531,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -5538,7 +5551,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -5558,7 +5571,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -5578,7 +5591,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -5598,7 +5611,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -5618,7 +5631,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -5638,7 +5651,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -5658,7 +5671,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -5686,32 +5699,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="39" t="s">
         <v>141</v>
       </c>
       <c r="B1" s="40"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>140</v>
       </c>
       <c r="B2" s="40"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>113</v>
       </c>
@@ -5719,7 +5732,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="32" t="s">
         <v>136</v>
       </c>
@@ -5727,7 +5740,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="36" t="s">
         <v>135</v>
       </c>
@@ -5735,7 +5748,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="35.25" customHeight="1">
       <c r="A6" s="37" t="s">
         <v>137</v>
       </c>
@@ -5743,7 +5756,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1">
       <c r="A7" s="38" t="s">
         <v>138</v>
       </c>
@@ -5751,7 +5764,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1">
       <c r="A8" s="41" t="s">
         <v>139</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="161">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,12 +668,20 @@
     <t>侯汶杞2盒，周五下单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>欣和何龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何龙1盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,6 +917,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -921,13 +936,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -988,7 +996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,9 +1028,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1054,6 +1063,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1229,14 +1239,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1247,7 +1257,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1258,7 +1268,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1272,7 +1282,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1336,7 +1346,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1368,7 +1378,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1400,7 +1410,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1432,7 +1442,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1464,7 +1474,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1496,7 +1506,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1528,7 +1538,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1560,7 +1570,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1592,7 +1602,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1624,7 +1634,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1656,7 +1666,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1688,7 +1698,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1720,7 +1730,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1752,7 +1762,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1784,7 +1794,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1818,7 +1828,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1852,7 +1862,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1886,7 +1896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1920,7 +1930,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1954,7 +1964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1988,7 +1998,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -2022,7 +2032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2056,7 +2066,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2090,7 +2100,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2124,7 +2134,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2158,7 +2168,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2190,7 +2200,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2222,7 +2232,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2256,7 +2266,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2290,7 +2300,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2324,7 +2334,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1">
+    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2358,7 +2368,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2392,7 +2402,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -2426,7 +2436,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2460,7 +2470,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1">
+    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2480,7 +2490,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="24"/>
     </row>
-    <row r="40" spans="1:10" ht="20.25" customHeight="1">
+    <row r="40" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2500,7 +2510,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="24"/>
     </row>
-    <row r="41" spans="1:10" ht="20.25" customHeight="1">
+    <row r="41" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2520,7 +2530,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="24"/>
     </row>
-    <row r="42" spans="1:10" ht="20.25" customHeight="1">
+    <row r="42" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2540,7 +2550,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="24"/>
     </row>
-    <row r="43" spans="1:10" ht="20.25" customHeight="1">
+    <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2560,7 +2570,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="24"/>
     </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1">
+    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2580,7 +2590,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="24"/>
     </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1">
+    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2600,7 +2610,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1">
+    <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2620,7 +2630,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1">
+    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2640,7 +2650,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1">
+    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2660,7 +2670,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1">
+    <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2680,7 +2690,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1">
+    <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -2700,7 +2710,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1">
+    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -2729,14 +2739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2747,7 +2757,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -2756,7 +2766,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2765,7 +2775,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2797,7 +2807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -2817,7 +2827,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -2837,7 +2847,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2857,7 +2867,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -2877,7 +2887,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -2897,7 +2907,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -2917,7 +2927,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2937,7 +2947,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2957,7 +2967,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2977,7 +2987,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2997,7 +3007,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -3017,7 +3027,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -3037,7 +3047,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -3056,7 +3066,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -3076,7 +3086,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -3096,7 +3106,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -3116,7 +3126,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -3136,7 +3146,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -3156,7 +3166,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -3176,7 +3186,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -3196,7 +3206,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -3224,14 +3234,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3242,7 +3252,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -3253,7 +3263,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -3267,7 +3277,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3284,7 +3294,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3316,7 +3326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3348,7 +3358,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3380,7 +3390,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3412,7 +3422,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3444,7 +3454,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3477,7 +3487,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3509,7 +3519,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -3541,7 +3551,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3561,7 +3571,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3581,7 +3591,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3601,7 +3611,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3621,7 +3631,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3641,7 +3651,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3661,7 +3671,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3681,7 +3691,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3701,7 +3711,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3721,7 +3731,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3741,7 +3751,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3761,7 +3771,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3781,7 +3791,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3801,7 +3811,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3829,14 +3839,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3847,7 +3857,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -3858,7 +3868,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -3872,7 +3882,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3889,7 +3899,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3921,7 +3931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3955,7 +3965,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3989,7 +3999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4023,41 +4033,41 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A8" s="12">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>42108</v>
       </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
         <v>140</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>24</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -4077,7 +4087,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4097,7 +4107,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4117,7 +4127,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4137,7 +4147,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4157,7 +4167,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4177,7 +4187,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4197,7 +4207,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4217,7 +4227,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4236,7 +4246,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4256,7 +4266,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4276,7 +4286,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4296,7 +4306,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4316,7 +4326,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4336,7 +4346,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4356,7 +4366,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4376,7 +4386,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4403,12 +4413,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4419,24 +4429,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4468,7 +4478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -4500,7 +4510,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -4533,7 +4543,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -4565,7 +4575,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -4597,7 +4607,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -4629,7 +4639,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4662,7 +4672,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4695,7 +4705,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4728,7 +4738,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4760,7 +4770,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4793,7 +4803,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4813,7 +4823,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4833,7 +4843,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4852,7 +4862,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4872,7 +4882,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4892,7 +4902,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4912,7 +4922,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4932,7 +4942,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4952,7 +4962,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4972,7 +4982,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4992,7 +5002,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5019,32 +5029,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="40"/>
-    </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="45"/>
+    </row>
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="40"/>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B2" s="45"/>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>113</v>
       </c>
@@ -5052,7 +5062,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>115</v>
       </c>
@@ -5060,7 +5070,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>116</v>
       </c>
@@ -5068,7 +5078,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>117</v>
       </c>
@@ -5076,7 +5086,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1">
+    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
         <v>118</v>
       </c>
@@ -5084,7 +5094,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34" t="s">
         <v>119</v>
       </c>
@@ -5092,7 +5102,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>120</v>
       </c>
@@ -5100,7 +5110,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
         <v>121</v>
       </c>
@@ -5120,14 +5130,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -5138,7 +5148,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -5147,7 +5157,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -5156,7 +5166,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5188,7 +5198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -5222,7 +5232,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -5256,7 +5266,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -5288,7 +5298,7 @@
       </c>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -5322,7 +5332,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -5356,7 +5366,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -5384,39 +5394,41 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="47" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="43">
+    <row r="10" spans="1:10" s="43" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="39">
         <v>7</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="40">
         <v>42109</v>
       </c>
-      <c r="D10" s="43">
-        <v>1</v>
-      </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46" t="s">
+      <c r="D10" s="39">
+        <v>1</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="10"/>
@@ -5430,9 +5442,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+      <c r="J11" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -5452,7 +5466,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -5472,7 +5486,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -5492,7 +5506,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -5512,7 +5526,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -5531,7 +5545,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -5551,7 +5565,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -5571,7 +5585,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -5591,7 +5605,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -5611,7 +5625,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -5631,7 +5645,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -5651,7 +5665,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -5671,7 +5685,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -5699,32 +5713,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="40"/>
-    </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="45"/>
+    </row>
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="40"/>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+      <c r="B2" s="45"/>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>113</v>
       </c>
@@ -5732,7 +5746,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>136</v>
       </c>
@@ -5740,7 +5754,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5">
+    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>135</v>
       </c>
@@ -5748,7 +5762,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1">
+    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
         <v>137</v>
       </c>
@@ -5756,7 +5770,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="38" t="s">
         <v>138</v>
       </c>
@@ -5764,11 +5778,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="163">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,10 +451,6 @@
   </si>
   <si>
     <t>莱阳市天山小区，一号楼五单元三楼东户  董璨 15098670797</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -629,10 +625,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白崇峰2，王慧1，刘伟杰1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>山东省蓬莱市北沟镇泊子村蓬莱欣和食品有限公司 电话是15054568824 许少妍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,6 +666,22 @@
   </si>
   <si>
     <t>何龙1盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱阳市地税局城厢分局   徐杰收  18653572338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：孙蕊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白崇峰2（未付款），王慧1，刘伟杰1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1242,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2334,38 +2342,38 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
         <v>32</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="7">
         <v>42105</v>
       </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
         <v>158</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="8">
         <f t="shared" si="6"/>
         <v>158</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="8">
         <v>20</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="8">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="27" t="s">
         <v>107</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2373,7 +2381,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="7">
         <v>42105</v>
@@ -2399,7 +2407,7 @@
         <v>28</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2407,7 +2415,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="7">
         <v>42106</v>
@@ -2430,10 +2438,10 @@
         <v>20</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2441,7 +2449,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="7">
         <v>42107</v>
@@ -2464,31 +2472,45 @@
         <v>20</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="11">
+        <v>42110</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>158</v>
+      </c>
       <c r="F39" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="G39" s="10">
+        <v>20</v>
+      </c>
       <c r="H39" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
@@ -4004,7 +4026,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="7">
         <v>42103</v>
@@ -4027,10 +4049,10 @@
         <v>-116</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="27" t="s">
         <v>111</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4038,7 +4060,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="7">
         <v>42108</v>
@@ -4064,7 +4086,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5044,78 +5066,78 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5134,7 +5156,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5203,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="7">
         <v>42107</v>
@@ -5229,41 +5251,41 @@
         <v>28</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="7">
         <v>42108</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
         <v>158</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>40</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <f t="shared" ref="H5:H24" si="1">D5*G5</f>
         <v>40</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>149</v>
+      <c r="I5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5271,7 +5293,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="13">
         <v>42108</v>
@@ -5294,7 +5316,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J6" s="28"/>
     </row>
@@ -5329,7 +5351,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5337,7 +5359,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="13">
         <v>42109</v>
@@ -5360,10 +5382,10 @@
         <v>80</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5371,7 +5393,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="13">
         <v>42109</v>
@@ -5391,7 +5413,7 @@
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="43" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5399,7 +5421,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="40">
         <v>42109</v>
@@ -5419,7 +5441,7 @@
       </c>
       <c r="I10" s="41"/>
       <c r="J10" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5427,7 +5449,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -5443,28 +5465,40 @@
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="11">
+        <v>42110</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>138</v>
+      </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="G12" s="2">
+        <v>20</v>
+      </c>
       <c r="H12" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="24" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
@@ -5728,59 +5762,59 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>113</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="47"/>
     </row>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="161">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,19 +338,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已收款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魏国华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未收</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -843,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -897,9 +889,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1250,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1968,7 +1957,7 @@
       <c r="I23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="29" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2181,7 +2170,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C30" s="7">
         <v>42095</v>
@@ -2204,7 +2193,7 @@
         <v>88</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J30" s="27"/>
     </row>
@@ -2213,7 +2202,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C31" s="7">
         <v>42095</v>
@@ -2245,7 +2234,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" s="7">
         <v>42096</v>
@@ -2268,10 +2257,10 @@
         <v>52</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2279,7 +2268,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33" s="7">
         <v>42096</v>
@@ -2305,7 +2294,7 @@
         <v>28</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2313,7 +2302,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C34" s="7">
         <v>42101</v>
@@ -2336,10 +2325,10 @@
         <v>20</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2347,7 +2336,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="7">
         <v>42105</v>
@@ -2373,7 +2362,7 @@
         <v>28</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2381,7 +2370,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C36" s="7">
         <v>42105</v>
@@ -2407,7 +2396,7 @@
         <v>28</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2415,7 +2404,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C37" s="7">
         <v>42106</v>
@@ -2438,10 +2427,10 @@
         <v>20</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2449,7 +2438,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="7">
         <v>42107</v>
@@ -2472,10 +2461,10 @@
         <v>20</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2483,7 +2472,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C39" s="11">
         <v>42110</v>
@@ -2506,10 +2495,10 @@
         <v>20</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3865,7 +3854,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3984,7 +3973,7 @@
         <v>28</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4026,7 +4015,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="7">
         <v>42103</v>
@@ -4049,10 +4038,10 @@
         <v>-116</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4060,7 +4049,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="7">
         <v>42108</v>
@@ -4086,7 +4075,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4438,7 +4427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4500,329 +4491,329 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>42092</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="8">
         <v>43</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>43</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>5</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>5</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="I5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>42093</v>
       </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
         <v>68</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>68</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>10</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <f t="shared" ref="H6:H25" si="0">D6*G6</f>
         <v>10</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="7">
+        <v>42092</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="8">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8">
+        <v>28</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="7">
+        <v>42093</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="8">
+        <v>37</v>
+      </c>
+      <c r="F8" s="8">
+        <v>37</v>
+      </c>
+      <c r="G8" s="8">
+        <v>7</v>
+      </c>
+      <c r="H8" s="8">
+        <v>7</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="7">
+        <v>42093</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="8">
+        <v>46</v>
+      </c>
+      <c r="F9" s="8">
+        <v>46</v>
+      </c>
+      <c r="G9" s="8">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8">
+        <v>8</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="C10" s="7">
+        <v>42092</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>58</v>
+      </c>
+      <c r="F10" s="8">
+        <v>58</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="7">
+        <v>42092</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>35</v>
+      </c>
+      <c r="F11" s="8">
+        <v>35</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="7">
+        <v>42092</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>33</v>
+      </c>
+      <c r="F12" s="8">
+        <v>33</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="13">
-        <v>42092</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="10">
-        <v>28</v>
-      </c>
-      <c r="F7" s="10">
-        <v>28</v>
-      </c>
-      <c r="G7" s="10">
-        <v>5</v>
-      </c>
-      <c r="H7" s="10">
-        <v>5</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="C13" s="7">
         <v>42093</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="10">
-        <v>37</v>
-      </c>
-      <c r="F8" s="10">
-        <v>37</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>38</v>
+      </c>
+      <c r="F13" s="8">
+        <v>38</v>
+      </c>
+      <c r="G13" s="8">
         <v>7</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H13" s="8">
         <v>7</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
-        <v>4</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="I13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="7">
         <v>42093</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="10">
-        <v>46</v>
-      </c>
-      <c r="F9" s="10">
-        <v>46</v>
-      </c>
-      <c r="G9" s="10">
-        <v>8</v>
-      </c>
-      <c r="H9" s="10">
-        <v>8</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="13">
-        <v>42092</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>58</v>
-      </c>
-      <c r="F10" s="10">
-        <v>58</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="10" t="s">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>35</v>
+      </c>
+      <c r="F14" s="8">
+        <v>35</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="13">
-        <v>42092</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>35</v>
-      </c>
-      <c r="F11" s="10">
-        <v>35</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="13">
-        <v>42092</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>33</v>
-      </c>
-      <c r="F12" s="10">
-        <v>33</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="11">
-        <v>42093</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>38</v>
-      </c>
-      <c r="F13" s="10">
-        <v>38</v>
-      </c>
-      <c r="G13" s="10">
-        <v>7</v>
-      </c>
-      <c r="H13" s="10">
-        <v>7</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="24" t="s">
+      <c r="J14" s="27" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="11">
-        <v>42093</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>35</v>
-      </c>
-      <c r="F14" s="10">
-        <v>35</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5047,6 +5038,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5065,79 +5057,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="45"/>
+      <c r="A1" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="45"/>
+      <c r="A2" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B4" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="B5" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="32" t="s">
+    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="32" t="s">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5153,10 +5145,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5172,7 +5164,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="19">
         <v>118</v>
@@ -5180,165 +5172,142 @@
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="19">
+        <v>138</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D3" s="17">
         <v>158</v>
       </c>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J4" s="26" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="7">
-        <v>42107</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>118</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F24" si="0">D4*E4</f>
-        <v>118</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <f>D4*G4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42107</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>118</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" ref="F5:F25" si="0">D5*E5</f>
+        <v>118</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <f>D5*G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="7">
         <v>42108</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
         <v>158</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G6" s="8">
         <v>40</v>
       </c>
-      <c r="H5" s="8">
-        <f t="shared" ref="H5:H24" si="1">D5*G5</f>
+      <c r="H6" s="8">
+        <f t="shared" ref="H6:H25" si="1">D6*G6</f>
         <v>40</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="13">
-        <v>42108</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
-        <v>148</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="G6" s="10">
-        <v>30</v>
-      </c>
-      <c r="H6" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="28"/>
+      <c r="I6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="C7" s="13">
-        <v>42109</v>
+        <v>42108</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
       </c>
       <c r="E7" s="10">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="G7" s="10">
         <v>30</v>
@@ -5348,181 +5317,193 @@
         <v>30</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>155</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="C8" s="13">
         <v>42109</v>
       </c>
       <c r="D8" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="0"/>
-        <v>316</v>
+        <v>118</v>
       </c>
       <c r="G8" s="10">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C9" s="13">
         <v>42109</v>
       </c>
       <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>158</v>
+      </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>316</v>
+      </c>
+      <c r="G9" s="10">
+        <v>40</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="J9" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="13">
+        <v>42109</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="38">
+        <v>7</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="39">
+        <v>42109</v>
+      </c>
+      <c r="D11" s="38">
+        <v>1</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="43" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39">
-        <v>7</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="40">
-        <v>42109</v>
-      </c>
-      <c r="D10" s="39">
-        <v>1</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42" t="s">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="28" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="11">
-        <v>42110</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>138</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="G12" s="2">
-        <v>20</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="24" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="11">
+        <v>42110</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>138</v>
+      </c>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="G13" s="2">
+        <v>20</v>
+      </c>
       <c r="H13" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="24" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5542,7 +5523,7 @@
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5562,10 +5543,11 @@
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
@@ -5581,11 +5563,10 @@
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
@@ -5601,7 +5582,7 @@
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5621,7 +5602,7 @@
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5641,7 +5622,7 @@
     </row>
     <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5661,7 +5642,7 @@
     </row>
     <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5681,7 +5662,7 @@
     </row>
     <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5701,7 +5682,7 @@
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -5721,7 +5702,7 @@
     </row>
     <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5738,6 +5719,26 @@
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5761,62 +5762,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="45"/>
+      <c r="A1" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="45"/>
+      <c r="A2" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>113</v>
+      <c r="A3" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37" t="s">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="163">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,6 +674,14 @@
   </si>
   <si>
     <t>白崇峰2（未付款），王慧1，刘伟杰1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省阳江市杏花邨一巷6号之1，普装的13149042118冯凯林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1239,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2505,20 +2513,32 @@
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
+      <c r="B40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="11">
+        <v>42110</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>128</v>
+      </c>
       <c r="F40" s="10">
         <f t="shared" ref="F40:F45" si="8">D40*E40</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="G40" s="10">
+        <v>20</v>
+      </c>
       <c r="H40" s="10">
         <f t="shared" ref="H40:H45" si="9">D40*G40</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="J40" s="24"/>
     </row>
     <row r="41" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4427,7 +4447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="166">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -682,6 +682,18 @@
   </si>
   <si>
     <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省唐山市南堡开发区  唐山三友氯碱有限责任公司党群工作部  孟祥翠，电话134 7347 5269（芒果一箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：瑶瑶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,7 +1260,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2545,21 +2557,35 @@
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="11">
+        <v>42110</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>168</v>
+      </c>
       <c r="F41" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="G41" s="10">
+        <v>30</v>
+      </c>
       <c r="H41" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="169">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -649,10 +649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>侯汶杞2盒，周五下单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>欣和何龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,6 +690,22 @@
   </si>
   <si>
     <t>代理：瑶瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯汶杞2盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +779,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,12 +822,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -855,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -934,13 +940,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -2492,7 +2491,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C39" s="11">
         <v>42110</v>
@@ -2515,10 +2514,10 @@
         <v>20</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J39" s="24" t="s">
         <v>158</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2526,7 +2525,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C40" s="11">
         <v>42110</v>
@@ -2549,7 +2548,7 @@
         <v>20</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J40" s="24"/>
     </row>
@@ -2558,7 +2557,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="11">
         <v>42110</v>
@@ -2581,10 +2580,10 @@
         <v>30</v>
       </c>
       <c r="I41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J41" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5103,16 +5102,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
@@ -5194,7 +5193,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5332,7 +5331,7 @@
         <v>141</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5448,47 +5447,59 @@
       <c r="D10" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10">
+        <v>79</v>
+      </c>
       <c r="F10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="G10" s="10">
+        <v>20</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="J10" s="28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="38">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="7">
         <v>42109</v>
       </c>
-      <c r="D11" s="38">
-        <v>1</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41" t="s">
-        <v>154</v>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>79</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="G11" s="8">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5496,7 +5507,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -5510,9 +5521,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="J12" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5520,7 +5533,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="11">
         <v>42110</v>
@@ -5542,9 +5555,11 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="J13" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5808,16 +5823,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
@@ -5860,10 +5875,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="172">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,6 +706,18 @@
   </si>
   <si>
     <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建省福州市罗源县金骏华府701室，陈晓梅，手机，15960016993</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：福建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2590,21 +2602,35 @@
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="11">
+        <v>42110</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>138</v>
+      </c>
       <c r="F42" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="10"/>
+        <v>138</v>
+      </c>
+      <c r="G42" s="10">
+        <v>20</v>
+      </c>
       <c r="H42" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="175">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -718,6 +718,18 @@
   </si>
   <si>
     <t>代理：福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融科林语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城小区客户下单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,7 +1283,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2636,21 +2648,35 @@
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="11">
+        <v>42110</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>168</v>
+      </c>
       <c r="F43" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="G43" s="10">
+        <v>30</v>
+      </c>
       <c r="H43" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J43" s="24" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="175">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,10 +439,6 @@
   </si>
   <si>
     <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱阳市天山小区，一号楼五单元三楼东户  董璨 15098670797</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -661,10 +657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未收款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代理：孙蕊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -705,39 +697,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>福建省福州市罗源县金骏华府701室，陈晓梅，手机，15960016993</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融科林语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城小区客户下单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理人：孙蕊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>福建省福州市罗源县金骏华府701室，陈晓梅，手机，15960016993</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：福建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融科林语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金城小区客户下单</t>
+    <t>莱阳市天山小区，一号楼五单元三楼东户  董璨 15098670797</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,7 +1036,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1068,10 +1068,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1103,7 +1102,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1279,14 +1277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1297,7 +1295,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1308,7 +1306,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1322,7 +1320,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1386,7 +1384,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1418,7 +1416,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1450,7 +1448,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1482,7 +1480,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1514,7 +1512,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1546,7 +1544,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1578,7 +1576,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1610,7 +1608,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1642,7 +1640,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1674,7 +1672,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1706,7 +1704,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1738,7 +1736,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1770,7 +1768,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1802,7 +1800,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1834,7 +1832,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1868,7 +1866,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1902,7 +1900,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1936,7 +1934,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1970,7 +1968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2004,7 +2002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2038,7 +2036,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -2072,7 +2070,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2106,7 +2104,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2140,7 +2138,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2174,7 +2172,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2208,7 +2206,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2240,7 +2238,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2272,7 +2270,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2306,7 +2304,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2340,7 +2338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2374,12 +2372,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A35" s="5">
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="C35" s="7">
         <v>42105</v>
@@ -2405,15 +2403,15 @@
         <v>28</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A36" s="5">
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="7">
         <v>42105</v>
@@ -2439,15 +2437,15 @@
         <v>28</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A37" s="5">
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C37" s="7">
         <v>42106</v>
@@ -2470,18 +2468,18 @@
         <v>20</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A38" s="5">
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="7">
         <v>42107</v>
@@ -2504,18 +2502,18 @@
         <v>20</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20.25" customHeight="1">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39" s="11">
         <v>42110</v>
@@ -2538,18 +2536,18 @@
         <v>20</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="20.25" customHeight="1">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C40" s="11">
         <v>42110</v>
@@ -2572,16 +2570,16 @@
         <v>20</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J40" s="24"/>
     </row>
-    <row r="41" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="20.25" customHeight="1">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C41" s="11">
         <v>42110</v>
@@ -2604,18 +2602,18 @@
         <v>30</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C42" s="11">
         <v>42110</v>
@@ -2638,18 +2636,18 @@
         <v>20</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C43" s="11">
         <v>42110</v>
@@ -2672,33 +2670,47 @@
         <v>30</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="11">
+        <v>42110</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>158</v>
+      </c>
       <c r="F44" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="G44" s="10">
+        <v>20</v>
+      </c>
       <c r="H44" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="24"/>
-    </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2718,7 +2730,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="20.25" customHeight="1">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2738,7 +2750,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="20.25" customHeight="1">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2758,7 +2770,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="20.25" customHeight="1">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2778,7 +2790,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="20.25" customHeight="1">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2798,7 +2810,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -2818,7 +2830,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -2847,14 +2859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2865,7 +2877,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -2874,7 +2886,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2883,7 +2895,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2915,7 +2927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -2935,7 +2947,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -2955,7 +2967,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2975,7 +2987,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -2995,7 +3007,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -3015,7 +3027,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -3035,7 +3047,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -3055,7 +3067,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -3075,7 +3087,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -3095,7 +3107,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3115,7 +3127,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -3135,7 +3147,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -3155,7 +3167,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -3174,7 +3186,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -3194,7 +3206,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -3214,7 +3226,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -3234,7 +3246,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -3254,7 +3266,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -3274,7 +3286,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -3294,7 +3306,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -3314,7 +3326,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -3342,14 +3354,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3360,7 +3372,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -3371,7 +3383,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -3385,7 +3397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3402,7 +3414,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3434,7 +3446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3466,7 +3478,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3498,7 +3510,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3530,7 +3542,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3562,7 +3574,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3595,7 +3607,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3627,7 +3639,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -3659,7 +3671,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3679,7 +3691,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3699,7 +3711,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3719,7 +3731,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3739,7 +3751,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3759,7 +3771,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3779,7 +3791,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3799,7 +3811,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3819,7 +3831,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3839,7 +3851,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3859,7 +3871,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3879,7 +3891,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3899,7 +3911,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3919,7 +3931,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3947,14 +3959,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3965,7 +3977,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -3976,7 +3988,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -3990,7 +4002,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4007,7 +4019,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4039,7 +4051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4073,7 +4085,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4107,12 +4119,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="7">
         <v>42103</v>
@@ -4135,18 +4147,18 @@
         <v>-116</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="7">
         <v>42108</v>
@@ -4172,10 +4184,10 @@
         <v>28</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -4195,7 +4207,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4215,7 +4227,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4235,7 +4247,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4255,7 +4267,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4275,7 +4287,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4295,7 +4307,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4315,7 +4327,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4335,7 +4347,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4354,7 +4366,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4374,7 +4386,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4394,7 +4406,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4414,7 +4426,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4434,7 +4446,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4454,7 +4466,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4474,7 +4486,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4494,7 +4506,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4521,14 +4533,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4539,24 +4551,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4588,7 +4600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4620,7 +4632,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4653,7 +4665,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4685,7 +4697,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4717,7 +4729,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -4749,7 +4761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -4782,7 +4794,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -4815,7 +4827,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -4848,7 +4860,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -4880,7 +4892,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -4913,7 +4925,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4933,7 +4945,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4953,7 +4965,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4972,7 +4984,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4992,7 +5004,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5012,7 +5024,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5032,7 +5044,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5052,7 +5064,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5072,7 +5084,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5092,7 +5104,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5112,7 +5124,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5140,93 +5152,93 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="39"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="39"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="30" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="31" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="31" t="s">
+      <c r="B4" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B5" s="32" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B6" s="32" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="s">
+    <row r="7" spans="1:2" ht="75" customHeight="1">
+      <c r="A7" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B7" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A8" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B8" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="33" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B9" s="32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="31" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B10" s="32" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5241,14 +5253,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H13" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -5259,7 +5271,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
@@ -5268,7 +5280,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
@@ -5277,7 +5289,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -5286,7 +5298,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5318,12 +5330,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="7">
         <v>42107</v>
@@ -5349,15 +5361,15 @@
         <v>28</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="7">
         <v>42108</v>
@@ -5380,18 +5392,18 @@
         <v>40</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="13">
         <v>42108</v>
@@ -5414,11 +5426,11 @@
         <v>30</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -5449,15 +5461,15 @@
         <v>19</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="13">
         <v>42109</v>
@@ -5480,18 +5492,18 @@
         <v>80</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="13">
         <v>42109</v>
@@ -5514,18 +5526,18 @@
         <v>20</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="7">
         <v>42109</v>
@@ -5548,18 +5560,18 @@
         <v>20</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -5574,18 +5586,18 @@
         <v>0</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="11">
         <v>42110</v>
@@ -5608,33 +5620,47 @@
         <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="11">
+        <v>42110</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>138</v>
+      </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="G14" s="2">
+        <v>20</v>
+      </c>
       <c r="H14" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5654,7 +5680,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5674,7 +5700,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5693,7 +5719,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5713,7 +5739,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5733,7 +5759,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5753,7 +5779,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5773,7 +5799,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5793,7 +5819,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5813,7 +5839,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5833,7 +5859,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5861,74 +5887,74 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="39"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="39"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="40.5">
+      <c r="A5" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="35.25" customHeight="1">
+      <c r="A6" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="B6" s="32" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1">
+      <c r="A7" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B7" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="37" t="s">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A8" s="40" t="s">
         <v>135</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
-        <v>136</v>
       </c>
       <c r="B8" s="41"/>
     </row>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="174">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,19 +593,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>微信：英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天国际大厦7楼欣和企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸福于华军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信：英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝天国际大厦7楼欣和企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸福于华军</t>
+    <t>山东省蓬莱市北沟镇泊子村蓬莱欣和食品有限公司 电话是15054568824 许少妍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -613,7 +617,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>山东省蓬莱市北沟镇泊子村蓬莱欣和食品有限公司 电话是15054568824 许少妍</t>
+    <t>欣和蓬莱同事许少妍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何龙2，谭叶红1，分享1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣和王显宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣和侯汶杞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王显宇2盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小隋2盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣和何龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何龙1盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱阳市地税局城厢分局   徐杰收  18653572338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：孙蕊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省阳江市杏花邨一巷6号之1，普装的13149042118冯凯林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省唐山市南堡开发区  唐山三友氯碱有限责任公司党群工作部  孟祥翠，电话134 7347 5269（芒果一箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：瑶瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯汶杞2盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -621,51 +689,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欣和蓬莱同事许少妍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何龙2，谭叶红1，分享1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣和王显宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣和侯汶杞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王显宇2盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小隋2盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣和何龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何龙1盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱阳市地税局城厢分局   徐杰收  18653572338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：孙蕊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白崇峰2（未付款），王慧1，刘伟杰1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省阳江市杏花邨一巷6号之1，普装的13149042118冯凯林</t>
+    <t>福建省福州市罗源县金骏华府701室，陈晓梅，手机，15960016993</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -673,7 +697,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>河北省唐山市南堡开发区  唐山三友氯碱有限责任公司党群工作部  孟祥翠，电话134 7347 5269（芒果一箱）</t>
+    <t>代理：福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融科林语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -681,15 +709,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代理：瑶瑶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯汶杞2盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
+    <t>金城小区客户下单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理人：孙蕊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -697,47 +721,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>福建省福州市罗源县金骏华府701室，陈晓梅，手机，15960016993</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：福建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融科林语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金城小区客户下单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理人：孙蕊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>莱阳市天山小区，一号楼五单元三楼东户  董璨 15098670797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白崇峰2，王慧1，刘伟杰1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,7 +1032,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1068,9 +1064,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1102,6 +1099,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1277,14 +1275,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39:H44"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1295,7 +1293,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1306,7 +1304,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1320,7 +1318,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1384,7 +1382,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1416,7 +1414,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1448,7 +1446,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1480,7 +1478,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1512,7 +1510,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1544,7 +1542,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1576,7 +1574,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1608,7 +1606,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1640,7 +1638,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1672,7 +1670,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1704,7 +1702,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1736,7 +1734,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1768,7 +1766,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1800,7 +1798,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1832,7 +1830,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1866,7 +1864,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1900,7 +1898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1934,7 +1932,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1968,7 +1966,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2002,7 +2000,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2036,7 +2034,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -2070,7 +2068,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2104,7 +2102,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2138,7 +2136,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2172,7 +2170,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2206,7 +2204,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2238,7 +2236,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2270,7 +2268,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2304,7 +2302,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2338,7 +2336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2372,7 +2370,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -2406,7 +2404,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2440,7 +2438,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -2474,7 +2472,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2508,12 +2506,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1">
+    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" s="11">
         <v>42110</v>
@@ -2539,15 +2537,15 @@
         <v>28</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20.25" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C40" s="11">
         <v>42110</v>
@@ -2570,16 +2568,16 @@
         <v>20</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J40" s="24"/>
     </row>
-    <row r="41" spans="1:10" ht="20.25" customHeight="1">
+    <row r="41" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C41" s="11">
         <v>42110</v>
@@ -2602,18 +2600,18 @@
         <v>30</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="20.25" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C42" s="11">
         <v>42110</v>
@@ -2636,18 +2634,18 @@
         <v>20</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="20.25" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C43" s="11">
         <v>42110</v>
@@ -2670,18 +2668,18 @@
         <v>30</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C44" s="11">
         <v>42110</v>
@@ -2704,13 +2702,13 @@
         <v>20</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2730,7 +2728,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1">
+    <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2750,7 +2748,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1">
+    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2770,7 +2768,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1">
+    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2790,7 +2788,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1">
+    <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2810,7 +2808,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1">
+    <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -2830,7 +2828,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1">
+    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -2859,14 +2857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2877,7 +2875,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -2886,7 +2884,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2895,7 +2893,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2927,7 +2925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -2947,7 +2945,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -2967,7 +2965,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2987,7 +2985,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -3007,7 +3005,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -3027,7 +3025,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -3047,7 +3045,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -3067,7 +3065,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -3087,7 +3085,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -3107,7 +3105,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3127,7 +3125,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -3147,7 +3145,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -3167,7 +3165,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -3186,7 +3184,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -3206,7 +3204,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -3226,7 +3224,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -3246,7 +3244,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -3266,7 +3264,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -3286,7 +3284,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -3306,7 +3304,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -3326,7 +3324,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -3354,14 +3352,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3372,7 +3370,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -3383,7 +3381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -3397,7 +3395,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3414,7 +3412,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3446,7 +3444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3478,7 +3476,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3510,7 +3508,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3542,7 +3540,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3574,7 +3572,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3607,7 +3605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3639,7 +3637,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -3671,7 +3669,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3691,7 +3689,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3711,7 +3709,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3731,7 +3729,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3751,7 +3749,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3771,7 +3769,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3791,7 +3789,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3811,7 +3809,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3831,7 +3829,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3851,7 +3849,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3871,7 +3869,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3891,7 +3889,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3911,7 +3909,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3931,7 +3929,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3959,14 +3957,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3977,7 +3975,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -3988,7 +3986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -4002,7 +4000,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4019,7 +4017,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4051,7 +4049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4085,7 +4083,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4119,7 +4117,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4153,7 +4151,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4184,10 +4182,10 @@
         <v>28</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -4207,7 +4205,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4227,7 +4225,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4247,7 +4245,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4267,7 +4265,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4287,7 +4285,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4307,7 +4305,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4327,7 +4325,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4347,7 +4345,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4366,7 +4364,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4386,7 +4384,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4406,7 +4404,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4426,7 +4424,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4446,7 +4444,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4466,7 +4464,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4486,7 +4484,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4506,7 +4504,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4533,14 +4531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4551,24 +4549,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4600,7 +4598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4632,7 +4630,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4665,7 +4663,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4697,7 +4695,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4729,7 +4727,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -4761,7 +4759,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -4794,7 +4792,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -4827,7 +4825,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -4860,7 +4858,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -4892,7 +4890,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -4925,7 +4923,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4945,7 +4943,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4965,7 +4963,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4984,7 +4982,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5004,7 +5002,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5024,7 +5022,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5044,7 +5042,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5064,7 +5062,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5084,7 +5082,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5104,7 +5102,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5124,7 +5122,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5152,32 +5150,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
         <v>138</v>
       </c>
       <c r="B1" s="39"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="39"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -5185,7 +5183,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>111</v>
       </c>
@@ -5193,7 +5191,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>112</v>
       </c>
@@ -5201,7 +5199,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>113</v>
       </c>
@@ -5209,7 +5207,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1">
+    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34" t="s">
         <v>114</v>
       </c>
@@ -5217,7 +5215,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
         <v>115</v>
       </c>
@@ -5225,7 +5223,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
         <v>116</v>
       </c>
@@ -5233,7 +5231,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
         <v>117</v>
       </c>
@@ -5253,14 +5251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -5271,7 +5269,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
@@ -5280,7 +5278,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
@@ -5289,7 +5287,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -5298,7 +5296,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5330,7 +5328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5361,15 +5359,15 @@
         <v>28</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="7">
         <v>42108</v>
@@ -5392,18 +5390,18 @@
         <v>40</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="13">
         <v>42108</v>
@@ -5426,11 +5424,11 @@
         <v>30</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -5461,15 +5459,15 @@
         <v>19</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="13">
         <v>42109</v>
@@ -5492,18 +5490,18 @@
         <v>80</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="13">
         <v>42109</v>
@@ -5526,18 +5524,18 @@
         <v>20</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="7">
         <v>42109</v>
@@ -5560,18 +5558,18 @@
         <v>20</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -5586,18 +5584,18 @@
         <v>0</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="11">
         <v>42110</v>
@@ -5623,15 +5621,15 @@
         <v>28</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="11">
         <v>42110</v>
@@ -5654,13 +5652,13 @@
         <v>20</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5680,7 +5678,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5700,7 +5698,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5719,7 +5717,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5739,7 +5737,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5759,7 +5757,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5779,7 +5777,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5799,7 +5797,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5819,7 +5817,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5839,7 +5837,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5859,7 +5857,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5887,32 +5885,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="39"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="39"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -5920,7 +5918,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>132</v>
       </c>
@@ -5928,7 +5926,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5">
+    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>131</v>
       </c>
@@ -5936,7 +5934,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1">
+    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
         <v>133</v>
       </c>
@@ -5944,7 +5942,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>134</v>
       </c>
@@ -5952,7 +5950,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40" t="s">
         <v>135</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="176">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -726,6 +726,14 @@
   </si>
   <si>
     <t>白崇峰2，王慧1，刘伟杰1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省佛山市顺德区伦教南苑路12号中国工商银行尚湖湾支行 罗晓筠 18038818255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2712,20 +2720,32 @@
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="11">
+        <v>42111</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>128</v>
+      </c>
       <c r="F45" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="G45" s="10">
+        <v>20</v>
+      </c>
       <c r="H45" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J45" s="24"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5254,7 +5274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="178">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,11 +605,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>山东省蓬莱市北沟镇泊子村蓬莱欣和食品有限公司 电话是15054568824 许少妍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>山东省蓬莱市北沟镇泊子村蓬莱欣和食品有限公司 电话是15054568824 许少妍</t>
+    <t>欣和蓬莱同事许少妍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何龙2，谭叶红1，分享1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣和王显宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣和侯汶杞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王显宇2盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小隋2盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣和何龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何龙1盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱阳市地税局城厢分局   徐杰收  18653572338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：孙蕊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省阳江市杏花邨一巷6号之1，普装的13149042118冯凯林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省唐山市南堡开发区  唐山三友氯碱有限责任公司党群工作部  孟祥翠，电话134 7347 5269（芒果一箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：瑶瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯汶杞2盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -617,47 +685,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欣和蓬莱同事许少妍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何龙2，谭叶红1，分享1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣和王显宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣和侯汶杞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王显宇2盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小隋2盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣和何龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何龙1盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱阳市地税局城厢分局   徐杰收  18653572338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：孙蕊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省阳江市杏花邨一巷6号之1，普装的13149042118冯凯林</t>
+    <t>福建省福州市罗源县金骏华府701室，陈晓梅，手机，15960016993</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -665,7 +693,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>河北省唐山市南堡开发区  唐山三友氯碱有限责任公司党群工作部  孟祥翠，电话134 7347 5269（芒果一箱）</t>
+    <t>代理：福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融科林语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -673,11 +705,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代理：瑶瑶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯汶杞2盒</t>
+    <t>金城小区客户下单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理人：孙蕊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱阳市天山小区，一号楼五单元三楼东户  董璨 15098670797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白崇峰2，王慧1，刘伟杰1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省佛山市顺德区伦教南苑路12号中国工商银行尚湖湾支行 罗晓筠 18038818255</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -685,63 +733,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>莱阳董璨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>福建省福州市罗源县金骏华府701室，陈晓梅，手机，15960016993</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：福建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融科林语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金城小区客户下单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理人：孙蕊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱阳市天山小区，一号楼五单元三楼东户  董璨 15098670797</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白崇峰2，王慧1，刘伟杰1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省佛山市顺德区伦教南苑路12号中国工商银行尚湖湾支行 罗晓筠 18038818255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
+    <t>代理人：孙蕊 申请取消订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,7 +815,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,6 +858,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -889,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -980,6 +994,13 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1040,7 +1061,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1072,10 +1093,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1107,7 +1127,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1283,14 +1302,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1301,7 +1320,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1312,7 +1331,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1326,7 +1345,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1390,7 +1409,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1422,7 +1441,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1454,7 +1473,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1486,7 +1505,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1518,7 +1537,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1550,7 +1569,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1582,7 +1601,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1614,7 +1633,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1646,7 +1665,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1678,7 +1697,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1710,7 +1729,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1742,7 +1761,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1774,7 +1793,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1806,7 +1825,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1838,7 +1857,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1872,7 +1891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1906,7 +1925,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1940,7 +1959,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1974,7 +1993,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2008,7 +2027,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2042,7 +2061,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -2076,7 +2095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2110,7 +2129,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2144,7 +2163,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2178,7 +2197,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2212,7 +2231,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2244,7 +2263,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2276,7 +2295,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2310,7 +2329,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2344,7 +2363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2378,7 +2397,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -2412,7 +2431,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2446,7 +2465,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -2480,7 +2499,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2514,12 +2533,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="20.25" customHeight="1">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" s="11">
         <v>42110</v>
@@ -2545,15 +2564,15 @@
         <v>28</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="20.25" customHeight="1">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="11">
         <v>42110</v>
@@ -2576,16 +2595,16 @@
         <v>20</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J40" s="24"/>
     </row>
-    <row r="41" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="20.25" customHeight="1">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41" s="11">
         <v>42110</v>
@@ -2608,18 +2627,18 @@
         <v>30</v>
       </c>
       <c r="I41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J41" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="J41" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" s="11">
         <v>42110</v>
@@ -2642,18 +2661,18 @@
         <v>20</v>
       </c>
       <c r="I42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J42" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="J42" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C43" s="11">
         <v>42110</v>
@@ -2676,18 +2695,18 @@
         <v>30</v>
       </c>
       <c r="I43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J43" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="J43" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C44" s="11">
         <v>42110</v>
@@ -2710,18 +2729,18 @@
         <v>20</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C45" s="11">
         <v>42111</v>
@@ -2744,11 +2763,11 @@
         <v>20</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="20.25" customHeight="1">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2768,7 +2787,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="20.25" customHeight="1">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2788,7 +2807,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="20.25" customHeight="1">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2808,7 +2827,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="20.25" customHeight="1">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2828,7 +2847,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -2848,7 +2867,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -2877,14 +2896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2895,7 +2914,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -2904,7 +2923,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2913,7 +2932,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2945,7 +2964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -2965,7 +2984,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -2985,7 +3004,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -3005,7 +3024,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -3025,7 +3044,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -3045,7 +3064,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -3065,7 +3084,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -3085,7 +3104,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -3105,7 +3124,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -3125,7 +3144,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3145,7 +3164,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -3165,7 +3184,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -3185,7 +3204,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -3204,7 +3223,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -3224,7 +3243,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -3244,7 +3263,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -3264,7 +3283,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -3284,7 +3303,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -3304,7 +3323,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -3324,7 +3343,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -3344,7 +3363,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -3372,14 +3391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3390,7 +3409,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -3401,7 +3420,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -3415,7 +3434,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3432,7 +3451,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3464,7 +3483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3496,7 +3515,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3528,7 +3547,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3560,7 +3579,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3592,7 +3611,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3625,7 +3644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3657,7 +3676,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -3689,7 +3708,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3709,7 +3728,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3729,7 +3748,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3749,7 +3768,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3769,7 +3788,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3789,7 +3808,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3809,7 +3828,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3829,7 +3848,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3849,7 +3868,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3869,7 +3888,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3889,7 +3908,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3909,7 +3928,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3929,7 +3948,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3949,7 +3968,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3977,14 +3996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3995,7 +4014,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -4006,7 +4025,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -4020,7 +4039,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4037,7 +4056,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4069,7 +4088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4103,7 +4122,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4137,7 +4156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4171,7 +4190,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4205,7 +4224,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -4225,7 +4244,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4245,7 +4264,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4265,7 +4284,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4285,7 +4304,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4305,7 +4324,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4325,7 +4344,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4345,7 +4364,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4365,7 +4384,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4384,7 +4403,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4404,7 +4423,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4424,7 +4443,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4444,7 +4463,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4464,7 +4483,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4484,7 +4503,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4504,7 +4523,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4524,7 +4543,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4551,14 +4570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4569,24 +4588,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4618,7 +4637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4650,7 +4669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4683,7 +4702,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4715,7 +4734,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4747,7 +4766,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -4779,7 +4798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -4812,7 +4831,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -4845,7 +4864,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -4878,7 +4897,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -4910,7 +4929,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -4943,7 +4962,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4963,7 +4982,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4983,7 +5002,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5002,7 +5021,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5022,7 +5041,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5042,7 +5061,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5062,7 +5081,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5082,7 +5101,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5102,7 +5121,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5122,7 +5141,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5142,7 +5161,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5170,32 +5189,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>138</v>
       </c>
       <c r="B1" s="39"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="38" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="39"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -5203,7 +5222,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
         <v>111</v>
       </c>
@@ -5211,7 +5230,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
         <v>112</v>
       </c>
@@ -5219,7 +5238,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
         <v>113</v>
       </c>
@@ -5227,7 +5246,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="75" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>114</v>
       </c>
@@ -5235,7 +5254,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>115</v>
       </c>
@@ -5243,7 +5262,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
         <v>116</v>
       </c>
@@ -5251,7 +5270,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
         <v>117</v>
       </c>
@@ -5271,14 +5290,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -5289,7 +5308,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
@@ -5298,7 +5317,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
@@ -5307,7 +5326,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -5316,7 +5335,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5348,7 +5367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5379,10 +5398,10 @@
         <v>28</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -5413,81 +5432,81 @@
         <v>28</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>42108</v>
       </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>148</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="G7" s="10">
-        <v>30</v>
-      </c>
-      <c r="H7" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>138</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="G7" s="8">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" s="46" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="42">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="43">
         <v>42109</v>
       </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
-        <v>118</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="G8" s="10">
-        <v>30</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="D8" s="42">
+        <v>1</v>
+      </c>
+      <c r="E8" s="44">
+        <v>79</v>
+      </c>
+      <c r="F8" s="44">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="G8" s="44">
+        <v>-39</v>
+      </c>
+      <c r="H8" s="44">
+        <f t="shared" si="1"/>
+        <v>-39</v>
+      </c>
+      <c r="I8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J8" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="13">
         <v>42109</v>
@@ -5510,52 +5529,52 @@
         <v>80</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
+    </row>
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="7">
         <v>42109</v>
       </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>79</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="G10" s="10">
-        <v>20</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>44</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G10" s="8">
+        <v>-15</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="7">
         <v>42109</v>
@@ -5578,18 +5597,18 @@
         <v>20</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -5604,18 +5623,18 @@
         <v>0</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="11">
         <v>42110</v>
@@ -5641,64 +5660,78 @@
         <v>28</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="46" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A14" s="42">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="43">
         <v>42110</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="42">
+        <v>1</v>
+      </c>
+      <c r="E14" s="44">
         <v>138</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="44">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="44">
         <v>20</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="44">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J14" s="24" t="s">
+      <c r="I14" s="44" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J14" s="45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="11">
+        <v>42110</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>138</v>
+      </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="G15" s="2">
+        <v>20</v>
+      </c>
       <c r="H15" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5718,7 +5751,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5737,7 +5770,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5757,7 +5790,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5777,7 +5810,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5797,7 +5830,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5817,7 +5850,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5837,7 +5870,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5857,7 +5890,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5877,7 +5910,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5905,32 +5938,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="39"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="38" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="39"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -5938,7 +5971,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
         <v>132</v>
       </c>
@@ -5946,7 +5979,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="35" t="s">
         <v>131</v>
       </c>
@@ -5954,7 +5987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="35.25" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>133</v>
       </c>
@@ -5962,7 +5995,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1">
       <c r="A7" s="37" t="s">
         <v>134</v>
       </c>
@@ -5970,7 +6003,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>135</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="175">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,51 +609,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>欣和蓬莱同事许少妍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何龙2，谭叶红1，分享1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣和王显宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣和侯汶杞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王显宇2盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小隋2盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣和何龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何龙1盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱阳市地税局城厢分局   徐杰收  18653572338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：孙蕊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省阳江市杏花邨一巷6号之1，普装的13149042118冯凯林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省唐山市南堡开发区  唐山三友氯碱有限责任公司党群工作部  孟祥翠，电话134 7347 5269（芒果一箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：瑶瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯汶杞2盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建省福州市罗源县金骏华府701室，陈晓梅，手机，15960016993</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融科林语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城小区客户下单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理人：孙蕊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欣和蓬莱同事许少妍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何龙2，谭叶红1，分享1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣和王显宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣和侯汶杞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王显宇2盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小隋2盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欣和何龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何龙1盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱阳市地税局城厢分局   徐杰收  18653572338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：孙蕊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省阳江市杏花邨一巷6号之1，普装的13149042118冯凯林</t>
+    <t>莱阳市天山小区，一号楼五单元三楼东户  董璨 15098670797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白崇峰2，王慧1，刘伟杰1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省佛山市顺德区伦教南苑路12号中国工商银行尚湖湾支行 罗晓筠 18038818255</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -661,87 +725,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>河北省唐山市南堡开发区  唐山三友氯碱有限责任公司党群工作部  孟祥翠，电话134 7347 5269（芒果一箱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：瑶瑶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯汶杞2盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
+    <t>莱阳董璨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福建省福州市罗源县金骏华府701室，陈晓梅，手机，15960016993</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：福建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融科林语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金城小区客户下单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理人：孙蕊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱阳市天山小区，一号楼五单元三楼东户  董璨 15098670797</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白崇峰2，王慧1，刘伟杰1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省佛山市顺德区伦教南苑路12号中国工商银行尚湖湾支行 罗晓筠 18038818255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱阳董璨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理人：孙蕊 申请取消订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,6 +970,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -994,13 +989,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1305,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -2538,7 +2526,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" s="11">
         <v>42110</v>
@@ -2564,7 +2552,7 @@
         <v>28</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="20.25" customHeight="1">
@@ -2572,7 +2560,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C40" s="11">
         <v>42110</v>
@@ -2595,7 +2583,7 @@
         <v>20</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J40" s="24"/>
     </row>
@@ -2604,7 +2592,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" s="11">
         <v>42110</v>
@@ -2627,10 +2615,10 @@
         <v>30</v>
       </c>
       <c r="I41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J41" s="24" t="s">
         <v>158</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
@@ -2638,7 +2626,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C42" s="11">
         <v>42110</v>
@@ -2661,10 +2649,10 @@
         <v>20</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
@@ -2672,7 +2660,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C43" s="11">
         <v>42110</v>
@@ -2695,10 +2683,10 @@
         <v>30</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
@@ -2706,7 +2694,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C44" s="11">
         <v>42110</v>
@@ -2729,10 +2717,10 @@
         <v>20</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
@@ -2740,7 +2728,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C45" s="11">
         <v>42111</v>
@@ -2763,7 +2751,7 @@
         <v>20</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J45" s="24"/>
     </row>
@@ -5203,16 +5191,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="30" t="s">
@@ -5291,10 +5279,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5384,7 +5372,7 @@
         <v>118</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:F25" si="0">D5*E5</f>
+        <f t="shared" ref="F5:F24" si="0">D5*E5</f>
         <v>118</v>
       </c>
       <c r="G5" s="8">
@@ -5398,7 +5386,7 @@
         <v>28</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
@@ -5425,14 +5413,14 @@
         <v>40</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:H25" si="1">D6*G6</f>
+        <f t="shared" ref="H6:H24" si="1">D6*G6</f>
         <v>40</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
@@ -5467,72 +5455,72 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="46" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="42">
+    <row r="8" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="38">
         <v>4</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="39">
         <v>42109</v>
       </c>
-      <c r="D8" s="42">
-        <v>1</v>
-      </c>
-      <c r="E8" s="44">
+      <c r="D8" s="38">
+        <v>1</v>
+      </c>
+      <c r="E8" s="40">
         <v>79</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="40">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="40">
         <v>-39</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="40">
         <f t="shared" si="1"/>
         <v>-39</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A9" s="12">
+      <c r="J8" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>42109</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>158</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>316</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>40</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="27" t="s">
         <v>144</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
@@ -5540,7 +5528,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="7">
         <v>42109</v>
@@ -5556,17 +5544,17 @@
         <v>44</v>
       </c>
       <c r="G10" s="8">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
@@ -5574,7 +5562,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="7">
         <v>42109</v>
@@ -5597,10 +5585,10 @@
         <v>20</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
@@ -5608,7 +5596,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -5623,10 +5611,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
@@ -5634,7 +5622,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="11">
         <v>42110</v>
@@ -5660,84 +5648,69 @@
         <v>28</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="46" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A14" s="42">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A14" s="12">
         <v>10</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="43">
+      <c r="B14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="11">
         <v>42110</v>
       </c>
-      <c r="D14" s="42">
-        <v>1</v>
-      </c>
-      <c r="E14" s="44">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
         <v>138</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="2">
         <v>20</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I14" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="J14" s="45" t="s">
-        <v>177</v>
+      <c r="I14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="11">
-        <v>42110</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>138</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="G15" s="2">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="10">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A16" s="1">
+      <c r="A16" s="12">
         <v>12</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
@@ -5757,6 +5730,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
@@ -5771,7 +5745,7 @@
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A18" s="1">
+      <c r="A18" s="12">
         <v>14</v>
       </c>
       <c r="B18" s="1"/>
@@ -5811,7 +5785,7 @@
       <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A20" s="1">
+      <c r="A20" s="12">
         <v>16</v>
       </c>
       <c r="B20" s="1"/>
@@ -5851,7 +5825,7 @@
       <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A22" s="1">
+      <c r="A22" s="12">
         <v>18</v>
       </c>
       <c r="B22" s="1"/>
@@ -5891,7 +5865,7 @@
       <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A24" s="1">
+      <c r="A24" s="12">
         <v>20</v>
       </c>
       <c r="B24" s="1"/>
@@ -5909,26 +5883,6 @@
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A25" s="1">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5942,7 +5896,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5952,16 +5906,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="30" t="s">
@@ -6004,10 +5958,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -705,27 +705,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>白崇峰2，王慧1，刘伟杰1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省佛山市顺德区伦教南苑路12号中国工商银行尚湖湾支行 罗晓筠 18038818255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱阳董璨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>莱阳市天山小区，一号楼五单元三楼东户  董璨 15098670797</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白崇峰2，王慧1，刘伟杰1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省佛山市顺德区伦教南苑路12号中国工商银行尚湖湾支行 罗晓筠 18038818255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱阳董璨</t>
+    <t>蓝天国际大厦7楼欣和企业 杨廷元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1291,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2521,171 +2521,171 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A39" s="1">
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A39" s="5">
         <v>36</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="7">
         <v>42110</v>
       </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8">
         <v>158</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="8">
         <f t="shared" si="6"/>
         <v>158</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="8">
         <v>20</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="8">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A40" s="1">
+    <row r="40" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A40" s="5">
         <v>37</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="7">
         <v>42110</v>
       </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
         <v>128</v>
       </c>
-      <c r="F40" s="10">
-        <f t="shared" ref="F40:F45" si="8">D40*E40</f>
+      <c r="F40" s="8">
+        <f t="shared" ref="F40:F44" si="8">D40*E40</f>
         <v>128</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="8">
         <v>20</v>
       </c>
-      <c r="H40" s="10">
-        <f t="shared" ref="H40:H45" si="9">D40*G40</f>
+      <c r="H40" s="8">
+        <f t="shared" ref="H40:H44" si="9">D40*G40</f>
         <v>20</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="J40" s="24"/>
-    </row>
-    <row r="41" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A41" s="1">
+      <c r="J40" s="27"/>
+    </row>
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A41" s="5">
         <v>38</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="7">
         <v>42110</v>
       </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8">
         <v>168</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="8">
         <f t="shared" si="8"/>
         <v>168</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="8">
         <v>30</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="8">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A42" s="1">
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A42" s="5">
         <v>39</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="7">
         <v>42110</v>
       </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8">
         <v>138</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="8">
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="8">
         <v>20</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="8">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A43" s="1">
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A43" s="5">
         <v>40</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="7">
         <v>42110</v>
       </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8">
         <v>168</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="8">
         <f t="shared" si="8"/>
         <v>168</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="8">
         <v>30</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="8">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="J43" s="24" t="s">
+      <c r="J43" s="27" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2697,17 +2697,17 @@
         <v>169</v>
       </c>
       <c r="C44" s="11">
-        <v>42110</v>
+        <v>42111</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F44" s="10">
         <f t="shared" si="8"/>
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="G44" s="10">
         <v>20</v>
@@ -2717,42 +2717,28 @@
         <v>20</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J44" s="24" t="s">
-        <v>167</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="11">
-        <v>42111</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2">
-        <v>128</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="10">
-        <f t="shared" si="8"/>
-        <v>128</v>
-      </c>
-      <c r="G45" s="10">
-        <v>20</v>
-      </c>
+        <f t="shared" ref="F45:F50" si="10">D45*E45</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="10"/>
       <c r="H45" s="10">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>172</v>
-      </c>
+        <f t="shared" ref="H45:H50" si="11">D45*G45</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="2"/>
       <c r="J45" s="24"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1">
@@ -2764,12 +2750,12 @@
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="10">
-        <f t="shared" ref="F46:F51" si="10">D46*E46</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10">
-        <f t="shared" ref="H46:H51" si="11">D46*G46</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
@@ -2854,26 +2840,6 @@
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="24"/>
-    </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A51" s="1">
-        <v>48</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:J3"/>
@@ -3383,7 +3349,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5281,8 +5247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5420,7 +5386,7 @@
         <v>28</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
@@ -5656,7 +5622,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C14" s="11">
         <v>42110</v>
@@ -5679,7 +5645,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>167</v>
@@ -5689,21 +5655,35 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="11">
+        <v>42113</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>138</v>
+      </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="G15" s="2">
+        <v>20</v>
+      </c>
       <c r="H15" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="12">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="178">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -730,6 +730,18 @@
   </si>
   <si>
     <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省邯郸市丛台区滏河北大街月星家居西门南恒富地产营销中心，邮编056000，刘羡，15100401476（芒果一箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：瑶瑶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1293,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2725,21 +2737,35 @@
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="11">
+        <v>42113</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>158</v>
+      </c>
       <c r="F45" s="10">
         <f t="shared" ref="F45:F50" si="10">D45*E45</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="G45" s="10">
+        <v>20</v>
+      </c>
       <c r="H45" s="10">
         <f t="shared" ref="H45:H50" si="11">D45*G45</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1">
       <c r="A46" s="1">
@@ -5247,8 +5273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5617,71 +5643,71 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A14" s="12">
+    <row r="14" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A14" s="38">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="39">
         <v>42110</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="38">
+        <v>1</v>
+      </c>
+      <c r="E14" s="40">
         <v>138</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="40">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="40">
         <v>20</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="40">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="41" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A15" s="1">
+    <row r="15" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A15" s="38">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="39">
         <v>42113</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="38">
+        <v>1</v>
+      </c>
+      <c r="E15" s="40">
         <v>138</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="40">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="40">
         <v>20</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="40">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="41" t="s">
         <v>167</v>
       </c>
     </row>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -741,7 +741,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代理：瑶瑶</t>
+    <t>代理：瑶瑶，满5箱，奖励50元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2754,11 +2754,11 @@
         <v>158</v>
       </c>
       <c r="G45" s="10">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="H45" s="10">
         <f t="shared" ref="H45:H50" si="11">D45*G45</f>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>176</v>
@@ -5273,7 +5273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="182">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,6 +742,22 @@
   </si>
   <si>
     <t>代理：瑶瑶，满5箱，奖励50元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭阳市揭东区炮台镇好又多超市隔壁万天电讯曾子东！18666337737</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：喜乐鲜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：揭阳曾子东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1305,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2597,7 +2613,9 @@
       <c r="I40" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="J40" s="27"/>
+      <c r="J40" s="27" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A41" s="5">
@@ -2771,21 +2789,35 @@
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="11">
+        <v>42113</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>128</v>
+      </c>
       <c r="F46" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="G46" s="10">
+        <v>20</v>
+      </c>
       <c r="H46" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
       <c r="A47" s="1">
@@ -5273,8 +5305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="184">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -758,6 +758,14 @@
   </si>
   <si>
     <t>代理：揭阳曾子东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融科林语钢琴老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1321,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5305,8 +5313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5747,19 +5755,32 @@
       <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="11">
+        <v>42113</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>158</v>
+      </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="G16" s="2">
+        <v>40</v>
+      </c>
       <c r="H16" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="188">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -768,12 +768,28 @@
     <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>广东省佛山市顺德区伦教南苑路12号中国工商银行尚湖湾支行 罗晓筠 18038818255 三箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省佛山市龙江镇文华路1号威斯登堡首层铺工商银行赖玉仪收  电话：13798641202一箱芒果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：niko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,7 +1101,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1117,9 +1133,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,6 +1168,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1326,14 +1344,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1344,7 +1362,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1355,7 +1373,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1369,7 +1387,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1433,7 +1451,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1465,7 +1483,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1497,7 +1515,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1529,7 +1547,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1561,7 +1579,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1593,7 +1611,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1625,7 +1643,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1657,7 +1675,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1689,7 +1707,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1721,7 +1739,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1753,7 +1771,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1785,7 +1803,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1817,7 +1835,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1849,7 +1867,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1881,7 +1899,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1915,7 +1933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1949,7 +1967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1983,7 +2001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -2017,7 +2035,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2051,7 +2069,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2085,7 +2103,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -2119,7 +2137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2153,7 +2171,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2187,7 +2205,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2221,7 +2239,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2255,7 +2273,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2287,7 +2305,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2319,7 +2337,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2353,7 +2371,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2387,7 +2405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2421,7 +2439,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -2455,7 +2473,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2489,7 +2507,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -2523,7 +2541,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2557,7 +2575,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -2591,7 +2609,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="40" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -2625,7 +2643,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -2659,7 +2677,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -2693,7 +2711,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -2727,7 +2745,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1">
+    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2759,7 +2777,7 @@
       </c>
       <c r="J44" s="24"/>
     </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1">
+    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2793,7 +2811,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1">
+    <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2827,47 +2845,75 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1">
+    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="11">
+        <v>42114</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>128</v>
+      </c>
       <c r="F47" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="G47" s="10">
+        <v>20</v>
+      </c>
       <c r="H47" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="24"/>
-    </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
+      <c r="B48" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="11">
+        <v>42114</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2">
+        <v>128</v>
+      </c>
       <c r="F48" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="10"/>
+        <v>384</v>
+      </c>
+      <c r="G48" s="10">
+        <v>20</v>
+      </c>
       <c r="H48" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="24"/>
-    </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1">
+        <v>60</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2887,7 +2933,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1">
+    <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -2906,6 +2952,646 @@
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="10">
+        <f t="shared" ref="F51:F58" si="12">D51*E51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10">
+        <f t="shared" ref="H51:H58" si="13">D51*G51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="24"/>
+    </row>
+    <row r="54" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="24"/>
+    </row>
+    <row r="55" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="24"/>
+    </row>
+    <row r="56" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="24"/>
+    </row>
+    <row r="57" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="24"/>
+    </row>
+    <row r="58" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="10">
+        <f t="shared" ref="F59:F67" si="14">D59*E59</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10">
+        <f t="shared" ref="H59:H67" si="15">D59*G59</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="24"/>
+    </row>
+    <row r="60" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="24"/>
+    </row>
+    <row r="61" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="24"/>
+    </row>
+    <row r="62" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="24"/>
+    </row>
+    <row r="63" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="24"/>
+    </row>
+    <row r="64" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="24"/>
+    </row>
+    <row r="65" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="24"/>
+    </row>
+    <row r="66" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="24"/>
+    </row>
+    <row r="67" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="24"/>
+    </row>
+    <row r="68" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="10">
+        <f t="shared" ref="F68:F82" si="16">D68*E68</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10">
+        <f t="shared" ref="H68:H82" si="17">D68*G68</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="24"/>
+    </row>
+    <row r="69" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="24"/>
+    </row>
+    <row r="70" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="24"/>
+    </row>
+    <row r="71" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="24"/>
+    </row>
+    <row r="72" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="24"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="24"/>
+    </row>
+    <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="24"/>
+    </row>
+    <row r="75" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="24"/>
+    </row>
+    <row r="76" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="24"/>
+    </row>
+    <row r="77" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="24"/>
+    </row>
+    <row r="78" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="24"/>
+    </row>
+    <row r="79" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="24"/>
+    </row>
+    <row r="80" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="24"/>
+    </row>
+    <row r="81" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="24"/>
+    </row>
+    <row r="82" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="2"/>
+      <c r="J82" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:J3"/>
@@ -2916,14 +3602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -2934,7 +3620,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -2943,7 +3629,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2952,7 +3638,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +3670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -3004,7 +3690,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -3024,7 +3710,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -3044,7 +3730,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -3064,7 +3750,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -3084,7 +3770,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -3104,7 +3790,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -3124,7 +3810,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -3144,7 +3830,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -3164,7 +3850,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3184,7 +3870,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -3204,7 +3890,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -3224,7 +3910,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -3243,7 +3929,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -3263,7 +3949,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -3283,7 +3969,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -3303,7 +3989,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -3323,7 +4009,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -3343,7 +4029,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -3363,7 +4049,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -3383,7 +4069,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -3411,14 +4097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3429,7 +4115,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -3440,7 +4126,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -3454,7 +4140,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -3471,7 +4157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3503,7 +4189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3535,7 +4221,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3567,7 +4253,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3599,7 +4285,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3631,7 +4317,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3664,7 +4350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3696,7 +4382,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -3728,7 +4414,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3748,7 +4434,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3768,7 +4454,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3788,7 +4474,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3808,7 +4494,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3828,7 +4514,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3848,7 +4534,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3868,7 +4554,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3888,7 +4574,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3908,7 +4594,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3928,7 +4614,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3948,7 +4634,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3968,7 +4654,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3988,7 +4674,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4016,14 +4702,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4034,7 +4720,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -4045,7 +4731,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -4059,7 +4745,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4076,7 +4762,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4108,7 +4794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4142,7 +4828,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4176,7 +4862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4210,7 +4896,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4244,7 +4930,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -4264,7 +4950,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -4284,7 +4970,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -4304,7 +4990,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4324,7 +5010,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4344,7 +5030,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4364,7 +5050,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4384,7 +5070,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4404,7 +5090,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4423,7 +5109,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4443,7 +5129,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4463,7 +5149,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4483,7 +5169,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4503,7 +5189,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4523,7 +5209,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4543,7 +5229,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4563,7 +5249,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4590,14 +5276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4608,24 +5294,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4657,7 +5343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4689,7 +5375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4722,7 +5408,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4754,7 +5440,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4786,7 +5472,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -4818,7 +5504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -4851,7 +5537,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -4884,7 +5570,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -4917,7 +5603,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -4949,7 +5635,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -4982,7 +5668,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5002,7 +5688,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5022,7 +5708,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5041,7 +5727,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5061,7 +5747,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5081,7 +5767,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5101,7 +5787,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5121,7 +5807,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5141,7 +5827,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5161,7 +5847,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5181,7 +5867,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5209,32 +5895,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
         <v>138</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -5242,7 +5928,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>111</v>
       </c>
@@ -5250,7 +5936,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>112</v>
       </c>
@@ -5258,7 +5944,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>113</v>
       </c>
@@ -5266,7 +5952,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1">
+    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34" t="s">
         <v>114</v>
       </c>
@@ -5274,7 +5960,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
         <v>115</v>
       </c>
@@ -5282,7 +5968,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
         <v>116</v>
       </c>
@@ -5290,7 +5976,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
         <v>117</v>
       </c>
@@ -5310,14 +5996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+      <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -5328,7 +6014,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
@@ -5337,7 +6023,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
@@ -5346,7 +6032,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -5355,7 +6041,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5387,7 +6073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5421,7 +6107,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -5455,7 +6141,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -5487,7 +6173,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="38">
         <v>4</v>
       </c>
@@ -5521,7 +6207,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -5555,7 +6241,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -5589,7 +6275,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -5623,7 +6309,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -5649,7 +6335,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5683,7 +6369,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="38">
         <v>10</v>
       </c>
@@ -5717,7 +6403,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="38">
         <v>11</v>
       </c>
@@ -5751,7 +6437,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -5783,7 +6469,7 @@
       </c>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5803,7 +6489,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -5823,7 +6509,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5843,7 +6529,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -5863,7 +6549,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5883,7 +6569,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -5903,7 +6589,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5923,7 +6609,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -5951,32 +6637,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -5984,7 +6670,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>132</v>
       </c>
@@ -5992,7 +6678,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5">
+    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>131</v>
       </c>
@@ -6000,7 +6686,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1">
+    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
         <v>133</v>
       </c>
@@ -6008,7 +6694,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>134</v>
       </c>
@@ -6016,7 +6702,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45" t="s">
         <v>135</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="189">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,11 +777,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代理：niko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省佛山市顺德区勒流龙眼长安街7号 杨继源 15602892228 加单1箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1348,7 +1352,7 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2873,10 +2877,10 @@
         <v>20</v>
       </c>
       <c r="I47" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J47" s="24" t="s">
         <v>186</v>
-      </c>
-      <c r="J47" s="24" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2907,31 +2911,45 @@
         <v>60</v>
       </c>
       <c r="I48" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J48" s="24" t="s">
         <v>186</v>
-      </c>
-      <c r="J48" s="24" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
+      <c r="B49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="11">
+        <v>42114</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>128</v>
+      </c>
       <c r="F49" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="G49" s="10">
+        <v>20</v>
+      </c>
       <c r="H49" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="192">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -786,6 +786,18 @@
   </si>
   <si>
     <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省石家庄市桥西区汇宁街三宏公寓南45C，高鹏收，18503206686(芒果一箱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：瑶瑶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1352,7 +1364,7 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2955,21 +2967,35 @@
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="11">
+        <v>42114</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>158</v>
+      </c>
       <c r="F50" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="G50" s="10">
+        <v>20</v>
+      </c>
       <c r="H50" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="195">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -800,12 +800,24 @@
     <t>代理：瑶瑶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>金胜小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融科林语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,7 +1129,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1149,10 +1161,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1184,7 +1195,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1360,14 +1370,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47:H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1378,7 +1388,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1389,7 +1399,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1403,7 +1413,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1467,7 +1477,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1499,7 +1509,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1531,7 +1541,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1563,7 +1573,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1595,7 +1605,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1627,7 +1637,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1659,7 +1669,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1691,7 +1701,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1723,7 +1733,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1755,7 +1765,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1787,7 +1797,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1819,7 +1829,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1851,7 +1861,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1883,7 +1893,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1915,7 +1925,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1949,7 +1959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1983,7 +1993,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -2017,7 +2027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -2051,7 +2061,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2085,7 +2095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2119,7 +2129,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -2153,7 +2163,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2187,7 +2197,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2221,7 +2231,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2255,7 +2265,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2289,7 +2299,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2321,7 +2331,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2353,7 +2363,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2387,7 +2397,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2421,7 +2431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2455,7 +2465,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -2489,7 +2499,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2523,7 +2533,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -2557,7 +2567,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2591,7 +2601,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -2625,7 +2635,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -2659,7 +2669,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -2693,7 +2703,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -2727,7 +2737,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -2761,7 +2771,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2793,7 +2803,7 @@
       </c>
       <c r="J44" s="24"/>
     </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2827,7 +2837,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="20.25" customHeight="1">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2861,7 +2871,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="20.25" customHeight="1">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2895,7 +2905,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="20.25" customHeight="1">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2929,7 +2939,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="20.25" customHeight="1">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2963,7 +2973,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -2997,27 +3007,41 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="11">
+        <v>42114</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>128</v>
+      </c>
       <c r="F51" s="10">
         <f t="shared" ref="F51:F58" si="12">D51*E51</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="G51" s="10">
+        <v>20</v>
+      </c>
       <c r="H51" s="10">
         <f t="shared" ref="H51:H58" si="13">D51*G51</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="24"/>
-    </row>
-    <row r="52" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -3037,7 +3061,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -3057,7 +3081,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="24"/>
     </row>
-    <row r="54" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="20.25" customHeight="1">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -3077,7 +3101,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="24"/>
     </row>
-    <row r="55" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="20.25" customHeight="1">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -3097,7 +3121,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="24"/>
     </row>
-    <row r="56" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="20.25" customHeight="1">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -3117,7 +3141,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="24"/>
     </row>
-    <row r="57" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="20.25" customHeight="1">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -3137,7 +3161,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="24"/>
     </row>
-    <row r="58" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="20.25" customHeight="1">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -3157,7 +3181,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="24"/>
     </row>
-    <row r="59" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="20.25" customHeight="1">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -3177,7 +3201,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="24"/>
     </row>
-    <row r="60" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="20.25" customHeight="1">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -3197,7 +3221,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="24"/>
     </row>
-    <row r="61" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="20.25" customHeight="1">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -3217,7 +3241,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="24"/>
     </row>
-    <row r="62" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="20.25" customHeight="1">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -3237,7 +3261,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="24"/>
     </row>
-    <row r="63" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" ht="20.25" customHeight="1">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -3257,7 +3281,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="24"/>
     </row>
-    <row r="64" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" ht="20.25" customHeight="1">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -3277,7 +3301,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="24"/>
     </row>
-    <row r="65" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" ht="20.25" customHeight="1">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -3297,7 +3321,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="24"/>
     </row>
-    <row r="66" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" ht="20.25" customHeight="1">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -3317,7 +3341,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="24"/>
     </row>
-    <row r="67" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" ht="20.25" customHeight="1">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -3337,7 +3361,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="24"/>
     </row>
-    <row r="68" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="20.25" customHeight="1">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -3357,7 +3381,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="24"/>
     </row>
-    <row r="69" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" ht="20.25" customHeight="1">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -3377,7 +3401,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="24"/>
     </row>
-    <row r="70" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="20.25" customHeight="1">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -3397,7 +3421,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="24"/>
     </row>
-    <row r="71" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" ht="20.25" customHeight="1">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -3417,7 +3441,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" ht="20.25" customHeight="1">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -3437,7 +3461,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="24"/>
     </row>
-    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="20.25" customHeight="1">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -3457,7 +3481,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="24"/>
     </row>
-    <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="20.25" customHeight="1">
       <c r="A74" s="1">
         <v>71</v>
       </c>
@@ -3477,7 +3501,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="24"/>
     </row>
-    <row r="75" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="20.25" customHeight="1">
       <c r="A75" s="1">
         <v>72</v>
       </c>
@@ -3497,7 +3521,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="24"/>
     </row>
-    <row r="76" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" ht="20.25" customHeight="1">
       <c r="A76" s="1">
         <v>73</v>
       </c>
@@ -3517,7 +3541,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="24"/>
     </row>
-    <row r="77" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="20.25" customHeight="1">
       <c r="A77" s="1">
         <v>74</v>
       </c>
@@ -3537,7 +3561,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="24"/>
     </row>
-    <row r="78" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="20.25" customHeight="1">
       <c r="A78" s="1">
         <v>75</v>
       </c>
@@ -3557,7 +3581,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="24"/>
     </row>
-    <row r="79" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="20.25" customHeight="1">
       <c r="A79" s="1">
         <v>76</v>
       </c>
@@ -3577,7 +3601,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="24"/>
     </row>
-    <row r="80" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" ht="20.25" customHeight="1">
       <c r="A80" s="1">
         <v>77</v>
       </c>
@@ -3597,7 +3621,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="24"/>
     </row>
-    <row r="81" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" ht="20.25" customHeight="1">
       <c r="A81" s="1">
         <v>78</v>
       </c>
@@ -3617,7 +3641,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="24"/>
     </row>
-    <row r="82" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" ht="20.25" customHeight="1">
       <c r="A82" s="1">
         <v>79</v>
       </c>
@@ -3646,14 +3670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3664,7 +3688,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -3673,7 +3697,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -3682,7 +3706,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3714,7 +3738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -3734,7 +3758,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -3754,7 +3778,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -3774,7 +3798,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -3794,7 +3818,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -3814,7 +3838,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -3834,7 +3858,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -3854,7 +3878,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -3874,7 +3898,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -3894,7 +3918,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3914,7 +3938,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -3934,7 +3958,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -3954,7 +3978,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -3973,7 +3997,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -3993,7 +4017,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -4013,7 +4037,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -4033,7 +4057,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -4053,7 +4077,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -4073,7 +4097,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -4093,7 +4117,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -4113,7 +4137,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -4141,14 +4165,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4159,7 +4183,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -4170,7 +4194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -4184,7 +4208,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4201,7 +4225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4233,7 +4257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4265,7 +4289,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4297,7 +4321,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4329,7 +4353,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4361,7 +4385,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -4394,7 +4418,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -4426,7 +4450,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -4458,7 +4482,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4478,7 +4502,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4498,7 +4522,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4518,7 +4542,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4538,7 +4562,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4558,7 +4582,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4578,7 +4602,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4598,7 +4622,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4618,7 +4642,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4638,7 +4662,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4658,7 +4682,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4678,7 +4702,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4698,7 +4722,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4718,7 +4742,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4746,14 +4770,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4764,7 +4788,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -4775,7 +4799,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -4789,7 +4813,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4806,7 +4830,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4838,7 +4862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4872,7 +4896,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4906,7 +4930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4940,7 +4964,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4974,7 +4998,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -4994,7 +5018,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -5014,7 +5038,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -5034,7 +5058,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -5054,7 +5078,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5074,7 +5098,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5094,7 +5118,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5114,7 +5138,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5134,7 +5158,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5153,7 +5177,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5173,7 +5197,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5193,7 +5217,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5213,7 +5237,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5233,7 +5257,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5253,7 +5277,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5273,7 +5297,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5293,7 +5317,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5320,14 +5344,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -5338,24 +5362,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5387,7 +5411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5419,7 +5443,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -5452,7 +5476,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -5484,7 +5508,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -5516,7 +5540,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -5548,7 +5572,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -5581,7 +5605,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -5614,7 +5638,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -5647,7 +5671,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -5679,7 +5703,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -5712,7 +5736,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5732,7 +5756,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5752,7 +5776,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5771,7 +5795,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5791,7 +5815,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5811,7 +5835,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5831,7 +5855,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5851,7 +5875,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5871,7 +5895,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5891,7 +5915,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5911,7 +5935,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5939,32 +5963,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>138</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -5972,7 +5996,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
         <v>111</v>
       </c>
@@ -5980,7 +6004,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
         <v>112</v>
       </c>
@@ -5988,7 +6012,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
         <v>113</v>
       </c>
@@ -5996,7 +6020,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="75" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>114</v>
       </c>
@@ -6004,7 +6028,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>115</v>
       </c>
@@ -6012,7 +6036,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
         <v>116</v>
       </c>
@@ -6020,7 +6044,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
         <v>117</v>
       </c>
@@ -6040,14 +6064,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -6058,7 +6082,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
@@ -6067,7 +6091,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
@@ -6076,7 +6100,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -6085,7 +6109,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6117,7 +6141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6151,7 +6175,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -6185,7 +6209,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -6217,7 +6241,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="38">
         <v>4</v>
       </c>
@@ -6251,7 +6275,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -6285,7 +6309,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -6319,7 +6343,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -6353,135 +6377,135 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>42110</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
         <v>138</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="8">
         <v>20</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="8">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="38">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="7">
         <v>42110</v>
       </c>
-      <c r="D14" s="38">
-        <v>1</v>
-      </c>
-      <c r="E14" s="40">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
         <v>138</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="8">
         <v>20</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="8">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="27" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="38">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="7">
         <v>42113</v>
       </c>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
-      <c r="E15" s="40">
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
         <v>138</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="8">
         <v>20</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="8">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="27" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -6513,27 +6537,41 @@
       </c>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="11">
+        <v>42114</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>158</v>
+      </c>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="G17" s="2">
+        <v>40</v>
+      </c>
       <c r="H17" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -6553,7 +6591,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -6573,7 +6611,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -6593,7 +6631,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -6613,7 +6651,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -6633,7 +6671,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -6653,7 +6691,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -6681,32 +6719,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="43" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -6714,7 +6752,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
         <v>132</v>
       </c>
@@ -6722,7 +6760,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="35" t="s">
         <v>131</v>
       </c>
@@ -6730,7 +6768,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="35.25" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>133</v>
       </c>
@@ -6738,7 +6776,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1">
       <c r="A7" s="37" t="s">
         <v>134</v>
       </c>
@@ -6746,7 +6784,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1">
       <c r="A8" s="45" t="s">
         <v>135</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47:H51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="197">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,12 +812,20 @@
     <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>山东省烟台市莱山区观海路38号 13964508216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1129,7 +1137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1161,9 +1169,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1195,6 +1204,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1370,14 +1380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1388,7 +1398,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1399,7 +1409,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1413,7 +1423,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +1455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1477,7 +1487,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1509,7 +1519,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1541,7 +1551,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1573,7 +1583,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1605,7 +1615,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1637,7 +1647,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1669,7 +1679,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1701,7 +1711,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1733,7 +1743,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1765,7 +1775,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1797,7 +1807,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1829,7 +1839,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1861,7 +1871,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1893,7 +1903,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1925,7 +1935,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1959,7 +1969,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1993,7 +2003,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -2027,7 +2037,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -2061,7 +2071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2095,7 +2105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2129,7 +2139,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -2163,7 +2173,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2197,7 +2207,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2231,7 +2241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2265,7 +2275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2299,7 +2309,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2331,7 +2341,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2363,7 +2373,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2397,7 +2407,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2431,7 +2441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2465,7 +2475,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -2499,7 +2509,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2533,7 +2543,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -2567,7 +2577,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2601,7 +2611,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -2635,7 +2645,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="40" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -2669,7 +2679,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -2703,7 +2713,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -2737,7 +2747,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -2771,7 +2781,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1">
+    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2803,7 +2813,7 @@
       </c>
       <c r="J44" s="24"/>
     </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1">
+    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2837,7 +2847,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1">
+    <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2871,7 +2881,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1">
+    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2905,7 +2915,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1">
+    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2939,7 +2949,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1">
+    <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2973,7 +2983,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1">
+    <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -3007,7 +3017,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1">
+    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -3041,27 +3051,39 @@
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="20.25" customHeight="1">
+    <row r="52" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
+      <c r="B52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="11">
+        <v>42115</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>168</v>
+      </c>
       <c r="F52" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="G52" s="10">
+        <v>30</v>
+      </c>
       <c r="H52" s="10">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:10" ht="20.25" customHeight="1">
+    <row r="53" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -3081,7 +3103,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="24"/>
     </row>
-    <row r="54" spans="1:10" ht="20.25" customHeight="1">
+    <row r="54" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -3101,7 +3123,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="24"/>
     </row>
-    <row r="55" spans="1:10" ht="20.25" customHeight="1">
+    <row r="55" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -3121,7 +3143,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="24"/>
     </row>
-    <row r="56" spans="1:10" ht="20.25" customHeight="1">
+    <row r="56" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -3141,7 +3163,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="24"/>
     </row>
-    <row r="57" spans="1:10" ht="20.25" customHeight="1">
+    <row r="57" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -3161,7 +3183,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="24"/>
     </row>
-    <row r="58" spans="1:10" ht="20.25" customHeight="1">
+    <row r="58" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -3181,7 +3203,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="24"/>
     </row>
-    <row r="59" spans="1:10" ht="20.25" customHeight="1">
+    <row r="59" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -3201,7 +3223,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="24"/>
     </row>
-    <row r="60" spans="1:10" ht="20.25" customHeight="1">
+    <row r="60" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -3221,7 +3243,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="24"/>
     </row>
-    <row r="61" spans="1:10" ht="20.25" customHeight="1">
+    <row r="61" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -3241,7 +3263,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="24"/>
     </row>
-    <row r="62" spans="1:10" ht="20.25" customHeight="1">
+    <row r="62" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -3261,7 +3283,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="24"/>
     </row>
-    <row r="63" spans="1:10" ht="20.25" customHeight="1">
+    <row r="63" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -3281,7 +3303,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="24"/>
     </row>
-    <row r="64" spans="1:10" ht="20.25" customHeight="1">
+    <row r="64" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -3301,7 +3323,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="24"/>
     </row>
-    <row r="65" spans="1:10" ht="20.25" customHeight="1">
+    <row r="65" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -3321,7 +3343,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="24"/>
     </row>
-    <row r="66" spans="1:10" ht="20.25" customHeight="1">
+    <row r="66" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -3341,7 +3363,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="24"/>
     </row>
-    <row r="67" spans="1:10" ht="20.25" customHeight="1">
+    <row r="67" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -3361,7 +3383,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="24"/>
     </row>
-    <row r="68" spans="1:10" ht="20.25" customHeight="1">
+    <row r="68" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -3381,7 +3403,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="24"/>
     </row>
-    <row r="69" spans="1:10" ht="20.25" customHeight="1">
+    <row r="69" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -3401,7 +3423,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="24"/>
     </row>
-    <row r="70" spans="1:10" ht="20.25" customHeight="1">
+    <row r="70" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -3421,7 +3443,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="24"/>
     </row>
-    <row r="71" spans="1:10" ht="20.25" customHeight="1">
+    <row r="71" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -3441,7 +3463,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10" ht="20.25" customHeight="1">
+    <row r="72" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -3461,7 +3483,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="24"/>
     </row>
-    <row r="73" spans="1:10" ht="20.25" customHeight="1">
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -3481,7 +3503,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="24"/>
     </row>
-    <row r="74" spans="1:10" ht="20.25" customHeight="1">
+    <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>71</v>
       </c>
@@ -3501,7 +3523,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="24"/>
     </row>
-    <row r="75" spans="1:10" ht="20.25" customHeight="1">
+    <row r="75" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>72</v>
       </c>
@@ -3521,7 +3543,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="24"/>
     </row>
-    <row r="76" spans="1:10" ht="20.25" customHeight="1">
+    <row r="76" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>73</v>
       </c>
@@ -3541,7 +3563,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="24"/>
     </row>
-    <row r="77" spans="1:10" ht="20.25" customHeight="1">
+    <row r="77" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>74</v>
       </c>
@@ -3561,7 +3583,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="24"/>
     </row>
-    <row r="78" spans="1:10" ht="20.25" customHeight="1">
+    <row r="78" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>75</v>
       </c>
@@ -3581,7 +3603,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="24"/>
     </row>
-    <row r="79" spans="1:10" ht="20.25" customHeight="1">
+    <row r="79" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>76</v>
       </c>
@@ -3601,7 +3623,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="24"/>
     </row>
-    <row r="80" spans="1:10" ht="20.25" customHeight="1">
+    <row r="80" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>77</v>
       </c>
@@ -3621,7 +3643,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="24"/>
     </row>
-    <row r="81" spans="1:10" ht="20.25" customHeight="1">
+    <row r="81" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>78</v>
       </c>
@@ -3641,7 +3663,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="24"/>
     </row>
-    <row r="82" spans="1:10" ht="20.25" customHeight="1">
+    <row r="82" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>79</v>
       </c>
@@ -3670,14 +3692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3688,7 +3710,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -3697,7 +3719,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -3706,7 +3728,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3738,7 +3760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -3758,7 +3780,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -3778,7 +3800,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -3798,7 +3820,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -3818,7 +3840,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -3838,7 +3860,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -3858,7 +3880,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -3878,7 +3900,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -3898,7 +3920,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -3918,7 +3940,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3938,7 +3960,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -3958,7 +3980,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -3978,7 +4000,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -3997,7 +4019,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -4017,7 +4039,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -4037,7 +4059,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -4057,7 +4079,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -4077,7 +4099,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -4097,7 +4119,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -4117,7 +4139,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -4137,7 +4159,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -4165,14 +4187,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4183,7 +4205,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -4194,7 +4216,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -4208,7 +4230,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4225,7 +4247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4257,7 +4279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4289,7 +4311,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4321,7 +4343,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4353,7 +4375,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4385,7 +4407,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -4418,7 +4440,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -4450,7 +4472,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -4482,7 +4504,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4502,7 +4524,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4522,7 +4544,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4542,7 +4564,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4562,7 +4584,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4582,7 +4604,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4602,7 +4624,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4622,7 +4644,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4642,7 +4664,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4662,7 +4684,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4682,7 +4704,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4702,7 +4724,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4722,7 +4744,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4742,7 +4764,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4770,14 +4792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4788,7 +4810,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -4799,7 +4821,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -4813,7 +4835,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4830,7 +4852,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4862,7 +4884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4896,7 +4918,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4930,7 +4952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4964,7 +4986,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4998,7 +5020,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -5018,7 +5040,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -5038,7 +5060,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -5058,7 +5080,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -5078,7 +5100,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5098,7 +5120,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5118,7 +5140,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5138,7 +5160,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5158,7 +5180,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5177,7 +5199,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5197,7 +5219,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5217,7 +5239,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5237,7 +5259,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5257,7 +5279,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5277,7 +5299,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5297,7 +5319,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5317,7 +5339,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5344,14 +5366,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -5362,24 +5384,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5411,7 +5433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5443,7 +5465,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -5476,7 +5498,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -5508,7 +5530,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -5540,7 +5562,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -5572,7 +5594,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -5605,7 +5627,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -5638,7 +5660,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -5671,7 +5693,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -5703,7 +5725,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -5736,7 +5758,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5756,7 +5778,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5776,7 +5798,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5795,7 +5817,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5815,7 +5837,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5835,7 +5857,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5855,7 +5877,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5875,7 +5897,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5895,7 +5917,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5915,7 +5937,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5935,7 +5957,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5963,32 +5985,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
         <v>138</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -5996,7 +6018,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>111</v>
       </c>
@@ -6004,7 +6026,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>112</v>
       </c>
@@ -6012,7 +6034,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>113</v>
       </c>
@@ -6020,7 +6042,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1">
+    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34" t="s">
         <v>114</v>
       </c>
@@ -6028,7 +6050,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
         <v>115</v>
       </c>
@@ -6036,7 +6058,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
         <v>116</v>
       </c>
@@ -6044,7 +6066,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
         <v>117</v>
       </c>
@@ -6064,14 +6086,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -6082,7 +6104,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
@@ -6091,7 +6113,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
@@ -6100,7 +6122,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -6109,7 +6131,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6141,7 +6163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6175,7 +6197,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -6209,7 +6231,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -6241,7 +6263,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="38">
         <v>4</v>
       </c>
@@ -6275,7 +6297,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -6309,7 +6331,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -6343,7 +6365,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -6377,7 +6399,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -6403,7 +6425,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -6437,7 +6459,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -6471,7 +6493,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -6505,7 +6527,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -6537,7 +6559,7 @@
       </c>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -6571,7 +6593,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -6591,7 +6613,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -6611,7 +6633,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -6631,7 +6653,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -6651,7 +6673,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -6671,7 +6693,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -6691,7 +6713,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -6719,32 +6741,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -6752,7 +6774,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>132</v>
       </c>
@@ -6760,7 +6782,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5">
+    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>131</v>
       </c>
@@ -6768,7 +6790,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1">
+    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
         <v>133</v>
       </c>
@@ -6776,7 +6798,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>134</v>
       </c>
@@ -6784,7 +6806,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45" t="s">
         <v>135</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="200">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -818,6 +818,18 @@
   </si>
   <si>
     <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市西城区什刹海后海北沿13号  辛俊高 收 13521175956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1384,7 +1396,7 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3087,9 +3099,15 @@
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="11">
+        <v>42115</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="10">
         <f t="shared" si="12"/>
@@ -3100,8 +3118,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="24"/>
+      <c r="I53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="201">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,11 +721,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>蓝天国际大厦7楼欣和企业 杨廷元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省邯郸市丛台区滏河北大街月星家居西门南恒富地产营销中心，邮编056000，刘羡，15100401476（芒果一箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：瑶瑶，满5箱，奖励50元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭阳市揭东区炮台镇好又多超市隔壁万天电讯曾子东！18666337737</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：喜乐鲜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：揭阳曾子东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融科林语钢琴老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓝天国际大厦7楼欣和企业 杨廷元</t>
+    <t>广东省佛山市顺德区伦教南苑路12号中国工商银行尚湖湾支行 罗晓筠 18038818255 三箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省佛山市龙江镇文华路1号威斯登堡首层铺工商银行赖玉仪收  电话：13798641202一箱芒果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：niko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省佛山市顺德区勒流龙眼长安街7号 杨继源 15602892228 加单1箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省石家庄市桥西区汇宁街三宏公寓南45C，高鹏收，18503206686(芒果一箱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：瑶瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金胜小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融科林语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -733,7 +805,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>河北省邯郸市丛台区滏河北大街月星家居西门南恒富地产营销中心，邮编056000，刘羡，15100401476（芒果一箱）</t>
+    <t>山东省烟台市莱山区观海路38号 13964508216</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -741,103 +813,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代理：瑶瑶，满5箱，奖励50元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>揭阳市揭东区炮台镇好又多超市隔壁万天电讯曾子东！18666337737</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>北京市西城区什刹海后海北沿13号  辛俊高 收 13521175956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省威海市荣成市大疃镇北岭长村，王本山收，电话13082674163,座机06317773905</t>
   </si>
   <si>
     <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代理：喜乐鲜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：揭阳曾子东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融科林语钢琴老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省佛山市顺德区伦教南苑路12号中国工商银行尚湖湾支行 罗晓筠 18038818255 三箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省佛山市龙江镇文华路1号威斯登堡首层铺工商银行赖玉仪收  电话：13798641202一箱芒果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：niko</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省佛山市顺德区勒流龙眼长安街7号 杨继源 15602892228 加单1箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北省石家庄市桥西区汇宁街三宏公寓南45C，高鹏收，18503206686(芒果一箱)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：瑶瑶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金胜小区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融科林语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东省烟台市莱山区观海路38号 13964508216</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市西城区什刹海后海北沿13号  辛俊高 收 13521175956</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：北京</t>
+    <t>代理：北京 未下单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信：霞子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1149,7 +1152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1181,10 +1184,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1216,7 +1218,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1392,14 +1393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1410,7 +1411,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1499,7 +1500,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1531,7 +1532,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1563,7 +1564,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1595,7 +1596,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1627,7 +1628,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1659,7 +1660,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1691,7 +1692,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1723,7 +1724,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1755,7 +1756,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1787,7 +1788,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1819,7 +1820,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1851,7 +1852,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1883,7 +1884,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1915,7 +1916,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1947,7 +1948,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2353,7 +2354,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2385,7 +2386,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -2688,10 +2689,10 @@
         <v>155</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2825,12 +2826,12 @@
       </c>
       <c r="J44" s="24"/>
     </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C45" s="11">
         <v>42113</v>
@@ -2853,18 +2854,18 @@
         <v>-20</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="20.25" customHeight="1">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C46" s="11">
         <v>42113</v>
@@ -2887,18 +2888,18 @@
         <v>20</v>
       </c>
       <c r="I46" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J46" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="J46" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:10" ht="20.25" customHeight="1">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C47" s="11">
         <v>42114</v>
@@ -2921,18 +2922,18 @@
         <v>20</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="20.25" customHeight="1">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C48" s="11">
         <v>42114</v>
@@ -2955,18 +2956,18 @@
         <v>60</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="20.25" customHeight="1">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C49" s="11">
         <v>42114</v>
@@ -2989,18 +2990,18 @@
         <v>20</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C50" s="11">
         <v>42114</v>
@@ -3023,18 +3024,18 @@
         <v>20</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C51" s="11">
         <v>42114</v>
@@ -3060,15 +3061,15 @@
         <v>40</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C52" s="11">
         <v>42115</v>
@@ -3091,16 +3092,16 @@
         <v>30</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C53" s="11">
         <v>42115</v>
@@ -3119,13 +3120,13 @@
         <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J53" s="24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="20.25" customHeight="1">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -3145,7 +3146,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="24"/>
     </row>
-    <row r="55" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="20.25" customHeight="1">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -3165,7 +3166,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="24"/>
     </row>
-    <row r="56" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="20.25" customHeight="1">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -3185,7 +3186,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="24"/>
     </row>
-    <row r="57" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="20.25" customHeight="1">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -3205,7 +3206,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="24"/>
     </row>
-    <row r="58" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="20.25" customHeight="1">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -3225,7 +3226,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="24"/>
     </row>
-    <row r="59" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="20.25" customHeight="1">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -3245,7 +3246,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="24"/>
     </row>
-    <row r="60" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="20.25" customHeight="1">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -3265,7 +3266,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="24"/>
     </row>
-    <row r="61" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="20.25" customHeight="1">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -3285,7 +3286,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="24"/>
     </row>
-    <row r="62" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="20.25" customHeight="1">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -3305,7 +3306,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="24"/>
     </row>
-    <row r="63" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" ht="20.25" customHeight="1">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -3325,7 +3326,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="24"/>
     </row>
-    <row r="64" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" ht="20.25" customHeight="1">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -3345,7 +3346,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="24"/>
     </row>
-    <row r="65" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" ht="20.25" customHeight="1">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -3365,7 +3366,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="24"/>
     </row>
-    <row r="66" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" ht="20.25" customHeight="1">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -3385,7 +3386,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="24"/>
     </row>
-    <row r="67" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" ht="20.25" customHeight="1">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -3405,7 +3406,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="24"/>
     </row>
-    <row r="68" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="20.25" customHeight="1">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -3425,7 +3426,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="24"/>
     </row>
-    <row r="69" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" ht="20.25" customHeight="1">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -3445,7 +3446,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="24"/>
     </row>
-    <row r="70" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="20.25" customHeight="1">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -3465,7 +3466,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="24"/>
     </row>
-    <row r="71" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" ht="20.25" customHeight="1">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -3485,7 +3486,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" ht="20.25" customHeight="1">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -3505,7 +3506,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="24"/>
     </row>
-    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="20.25" customHeight="1">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -3525,7 +3526,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="24"/>
     </row>
-    <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="20.25" customHeight="1">
       <c r="A74" s="1">
         <v>71</v>
       </c>
@@ -3545,7 +3546,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="24"/>
     </row>
-    <row r="75" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="20.25" customHeight="1">
       <c r="A75" s="1">
         <v>72</v>
       </c>
@@ -3565,7 +3566,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="24"/>
     </row>
-    <row r="76" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" ht="20.25" customHeight="1">
       <c r="A76" s="1">
         <v>73</v>
       </c>
@@ -3585,7 +3586,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="24"/>
     </row>
-    <row r="77" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="20.25" customHeight="1">
       <c r="A77" s="1">
         <v>74</v>
       </c>
@@ -3605,7 +3606,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="24"/>
     </row>
-    <row r="78" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="20.25" customHeight="1">
       <c r="A78" s="1">
         <v>75</v>
       </c>
@@ -3625,7 +3626,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="24"/>
     </row>
-    <row r="79" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="20.25" customHeight="1">
       <c r="A79" s="1">
         <v>76</v>
       </c>
@@ -3645,7 +3646,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="24"/>
     </row>
-    <row r="80" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" ht="20.25" customHeight="1">
       <c r="A80" s="1">
         <v>77</v>
       </c>
@@ -3665,7 +3666,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="24"/>
     </row>
-    <row r="81" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" ht="20.25" customHeight="1">
       <c r="A81" s="1">
         <v>78</v>
       </c>
@@ -3685,7 +3686,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="24"/>
     </row>
-    <row r="82" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" ht="20.25" customHeight="1">
       <c r="A82" s="1">
         <v>79</v>
       </c>
@@ -3714,14 +3715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3732,7 +3733,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -3741,7 +3742,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -3750,7 +3751,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -3802,7 +3803,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -3822,7 +3823,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -3842,7 +3843,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -3862,7 +3863,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -3882,7 +3883,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -3902,7 +3903,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -3922,7 +3923,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -3942,7 +3943,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -3962,7 +3963,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3982,7 +3983,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -4002,7 +4003,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -4022,7 +4023,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -4041,7 +4042,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -4061,7 +4062,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -4081,7 +4082,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -4101,7 +4102,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -4121,7 +4122,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -4141,7 +4142,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -4161,7 +4162,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -4181,7 +4182,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -4209,14 +4210,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4227,7 +4228,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4333,7 +4334,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4365,7 +4366,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4397,7 +4398,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4429,7 +4430,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -4494,7 +4495,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4546,7 +4547,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4566,7 +4567,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4586,7 +4587,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4606,7 +4607,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4626,7 +4627,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4646,7 +4647,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4666,7 +4667,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4686,7 +4687,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4706,7 +4707,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4726,7 +4727,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4746,7 +4747,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4766,7 +4767,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4786,7 +4787,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4814,14 +4815,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4832,7 +4833,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -5042,7 +5043,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -5062,7 +5063,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -5082,7 +5083,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -5102,7 +5103,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -5122,7 +5123,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5142,7 +5143,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5162,7 +5163,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5182,7 +5183,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5202,7 +5203,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5221,7 +5222,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5241,7 +5242,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5261,7 +5262,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5281,7 +5282,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5301,7 +5302,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5321,7 +5322,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5341,7 +5342,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5361,7 +5362,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5388,14 +5389,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -5406,24 +5407,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5487,7 +5488,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -5520,7 +5521,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -5584,7 +5585,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -5649,7 +5650,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -5682,7 +5683,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -5747,7 +5748,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -5780,7 +5781,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5800,7 +5801,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5820,7 +5821,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5839,7 +5840,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5859,7 +5860,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5879,7 +5880,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5899,7 +5900,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5919,7 +5920,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5939,7 +5940,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5959,7 +5960,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5979,7 +5980,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -6007,32 +6008,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>138</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -6040,7 +6041,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
         <v>111</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
         <v>112</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
         <v>113</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="75" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>114</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>115</v>
       </c>
@@ -6080,7 +6081,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
         <v>116</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
         <v>117</v>
       </c>
@@ -6108,14 +6109,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="M21" sqref="A14:M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -6126,7 +6127,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
@@ -6135,7 +6136,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
@@ -6144,7 +6145,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -6153,7 +6154,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -6285,7 +6286,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="38">
         <v>4</v>
       </c>
@@ -6319,7 +6320,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -6353,7 +6354,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -6421,7 +6422,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -6447,7 +6448,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -6509,18 +6510,18 @@
         <v>20</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="J14" s="27" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="5">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="7">
         <v>42113</v>
@@ -6543,18 +6544,18 @@
         <v>20</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="12">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="11">
         <v>42113</v>
@@ -6577,16 +6578,16 @@
         <v>40</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C17" s="11">
         <v>42114</v>
@@ -6609,33 +6610,47 @@
         <v>40</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="12">
         <v>14</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="11">
+        <v>42115</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>158</v>
+      </c>
       <c r="F18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="G18" s="2">
+        <v>40</v>
+      </c>
       <c r="H18" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -6655,7 +6670,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -6675,7 +6690,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -6695,7 +6710,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -6715,7 +6730,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -6735,7 +6750,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -6763,32 +6778,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="43" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -6796,7 +6811,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
         <v>132</v>
       </c>
@@ -6804,7 +6819,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="35" t="s">
         <v>131</v>
       </c>
@@ -6812,7 +6827,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="35.25" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>133</v>
       </c>
@@ -6820,7 +6835,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1">
       <c r="A7" s="37" t="s">
         <v>134</v>
       </c>
@@ -6828,7 +6843,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1">
       <c r="A8" s="45" t="s">
         <v>135</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="204">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -757,23 +757,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>广东省佛山市顺德区伦教南苑路12号中国工商银行尚湖湾支行 罗晓筠 18038818255 三箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省佛山市龙江镇文华路1号威斯登堡首层铺工商银行赖玉仪收  电话：13798641202一箱芒果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：niko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省佛山市顺德区勒流龙眼长安街7号 杨继源 15602892228 加单1箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省石家庄市桥西区汇宁街三宏公寓南45C，高鹏收，18503206686(芒果一箱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：瑶瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金胜小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融科林语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广东省佛山市顺德区伦教南苑路12号中国工商银行尚湖湾支行 罗晓筠 18038818255 三箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省佛山市龙江镇文华路1号威斯登堡首层铺工商银行赖玉仪收  电话：13798641202一箱芒果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：niko</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省佛山市顺德区勒流龙眼长安街7号 杨继源 15602892228 加单1箱</t>
+    <t>山东省烟台市莱山区观海路38号 13964508216</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -781,31 +809,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>河北省石家庄市桥西区汇宁街三宏公寓南45C，高鹏收，18503206686(芒果一箱)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>北京市西城区什刹海后海北沿13号  辛俊高 收 13521175956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省威海市荣成市大疃镇北岭长村，王本山收，电话13082674163,座机06317773905</t>
   </si>
   <si>
     <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代理：瑶瑶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金胜小区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融科林语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东省烟台市莱山区观海路38号 13964508216</t>
+    <t>代理：北京 未下单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信：霞子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天国际大厦7楼欣和企业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -813,26 +840,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京市西城区什刹海后海北沿13号  辛俊高 收 13521175956</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东省威海市荣成市大疃镇北岭长村，王本山收，电话13082674163,座机06317773905</t>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：北京 未下单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信：霞子</t>
+    <t>广州市荔湾区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理人：孙蕊 王勇翔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1396,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
@@ -2899,7 +2911,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C47" s="11">
         <v>42114</v>
@@ -2922,10 +2934,10 @@
         <v>20</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="20.25" customHeight="1">
@@ -2933,7 +2945,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C48" s="11">
         <v>42114</v>
@@ -2956,10 +2968,10 @@
         <v>60</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="20.25" customHeight="1">
@@ -2967,7 +2979,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C49" s="11">
         <v>42114</v>
@@ -2990,10 +3002,10 @@
         <v>20</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="20.25" customHeight="1">
@@ -3001,7 +3013,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C50" s="11">
         <v>42114</v>
@@ -3024,10 +3036,10 @@
         <v>20</v>
       </c>
       <c r="I50" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J50" s="24" t="s">
         <v>188</v>
-      </c>
-      <c r="J50" s="24" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
@@ -3035,7 +3047,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C51" s="11">
         <v>42114</v>
@@ -3061,7 +3073,7 @@
         <v>40</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
@@ -3069,7 +3081,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C52" s="11">
         <v>42115</v>
@@ -3092,7 +3104,7 @@
         <v>30</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J52" s="24"/>
     </row>
@@ -3101,7 +3113,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C53" s="11">
         <v>42115</v>
@@ -3120,10 +3132,10 @@
         <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1">
@@ -6112,8 +6124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M21" sqref="A14:M21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6550,44 +6562,44 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A16" s="12">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="7">
         <v>42113</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
         <v>158</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="8">
         <v>40</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="8">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J16" s="24"/>
+      <c r="I16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="11">
         <v>42114</v>
@@ -6610,10 +6622,10 @@
         <v>40</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.25" customHeight="1">
@@ -6621,7 +6633,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="11">
         <v>42115</v>
@@ -6644,50 +6656,76 @@
         <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="11">
+        <v>42116</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>138</v>
+      </c>
       <c r="F19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="G19" s="2">
+        <v>20</v>
+      </c>
       <c r="H19" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="12">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="11">
+        <v>42116</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>138</v>
+      </c>
       <c r="F20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="G20" s="2">
+        <v>20</v>
+      </c>
       <c r="H20" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" ht="20.25" customHeight="1">
@@ -6695,7 +6733,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="10">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="206">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -847,12 +847,20 @@
     <t>代理人：孙蕊 王勇翔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>俞景华城热处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1164,7 +1172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1196,9 +1204,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1230,6 +1239,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1405,14 +1415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1423,7 +1433,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1434,7 +1444,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1448,7 +1458,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1512,7 +1522,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1544,7 +1554,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1576,7 +1586,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1608,7 +1618,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1640,7 +1650,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1672,7 +1682,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1704,7 +1714,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1736,7 +1746,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1768,7 +1778,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1800,7 +1810,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1832,7 +1842,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1864,7 +1874,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1896,7 +1906,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1928,7 +1938,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1960,7 +1970,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1994,7 +2004,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -2028,7 +2038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -2062,7 +2072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -2096,7 +2106,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2130,7 +2140,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2164,7 +2174,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -2198,7 +2208,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2232,7 +2242,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2266,7 +2276,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2300,7 +2310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2334,7 +2344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2366,7 +2376,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2398,7 +2408,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2432,7 +2442,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2466,7 +2476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2500,7 +2510,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -2534,7 +2544,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2568,7 +2578,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -2602,7 +2612,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2636,7 +2646,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -2670,7 +2680,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="40" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -2704,7 +2714,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -2738,7 +2748,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -2772,7 +2782,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -2806,7 +2816,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1">
+    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2838,7 +2848,7 @@
       </c>
       <c r="J44" s="24"/>
     </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1">
+    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2872,7 +2882,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1">
+    <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2906,7 +2916,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1">
+    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2940,7 +2950,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1">
+    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2974,7 +2984,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1">
+    <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -3008,7 +3018,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1">
+    <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -3042,7 +3052,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1">
+    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -3076,7 +3086,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="20.25" customHeight="1">
+    <row r="52" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -3108,7 +3118,7 @@
       </c>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:10" ht="20.25" customHeight="1">
+    <row r="53" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -3138,7 +3148,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="20.25" customHeight="1">
+    <row r="54" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -3158,7 +3168,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="24"/>
     </row>
-    <row r="55" spans="1:10" ht="20.25" customHeight="1">
+    <row r="55" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -3178,7 +3188,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="24"/>
     </row>
-    <row r="56" spans="1:10" ht="20.25" customHeight="1">
+    <row r="56" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -3198,7 +3208,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="24"/>
     </row>
-    <row r="57" spans="1:10" ht="20.25" customHeight="1">
+    <row r="57" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -3218,7 +3228,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="24"/>
     </row>
-    <row r="58" spans="1:10" ht="20.25" customHeight="1">
+    <row r="58" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -3238,7 +3248,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="24"/>
     </row>
-    <row r="59" spans="1:10" ht="20.25" customHeight="1">
+    <row r="59" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -3258,7 +3268,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="24"/>
     </row>
-    <row r="60" spans="1:10" ht="20.25" customHeight="1">
+    <row r="60" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -3278,7 +3288,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="24"/>
     </row>
-    <row r="61" spans="1:10" ht="20.25" customHeight="1">
+    <row r="61" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -3298,7 +3308,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="24"/>
     </row>
-    <row r="62" spans="1:10" ht="20.25" customHeight="1">
+    <row r="62" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -3318,7 +3328,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="24"/>
     </row>
-    <row r="63" spans="1:10" ht="20.25" customHeight="1">
+    <row r="63" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -3338,7 +3348,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="24"/>
     </row>
-    <row r="64" spans="1:10" ht="20.25" customHeight="1">
+    <row r="64" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -3358,7 +3368,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="24"/>
     </row>
-    <row r="65" spans="1:10" ht="20.25" customHeight="1">
+    <row r="65" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -3378,7 +3388,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="24"/>
     </row>
-    <row r="66" spans="1:10" ht="20.25" customHeight="1">
+    <row r="66" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -3398,7 +3408,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="24"/>
     </row>
-    <row r="67" spans="1:10" ht="20.25" customHeight="1">
+    <row r="67" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -3418,7 +3428,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="24"/>
     </row>
-    <row r="68" spans="1:10" ht="20.25" customHeight="1">
+    <row r="68" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -3438,7 +3448,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="24"/>
     </row>
-    <row r="69" spans="1:10" ht="20.25" customHeight="1">
+    <row r="69" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -3458,7 +3468,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="24"/>
     </row>
-    <row r="70" spans="1:10" ht="20.25" customHeight="1">
+    <row r="70" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -3478,7 +3488,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="24"/>
     </row>
-    <row r="71" spans="1:10" ht="20.25" customHeight="1">
+    <row r="71" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -3498,7 +3508,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10" ht="20.25" customHeight="1">
+    <row r="72" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -3518,7 +3528,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="24"/>
     </row>
-    <row r="73" spans="1:10" ht="20.25" customHeight="1">
+    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -3538,7 +3548,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="24"/>
     </row>
-    <row r="74" spans="1:10" ht="20.25" customHeight="1">
+    <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>71</v>
       </c>
@@ -3558,7 +3568,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="24"/>
     </row>
-    <row r="75" spans="1:10" ht="20.25" customHeight="1">
+    <row r="75" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>72</v>
       </c>
@@ -3578,7 +3588,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="24"/>
     </row>
-    <row r="76" spans="1:10" ht="20.25" customHeight="1">
+    <row r="76" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>73</v>
       </c>
@@ -3598,7 +3608,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="24"/>
     </row>
-    <row r="77" spans="1:10" ht="20.25" customHeight="1">
+    <row r="77" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>74</v>
       </c>
@@ -3618,7 +3628,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="24"/>
     </row>
-    <row r="78" spans="1:10" ht="20.25" customHeight="1">
+    <row r="78" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>75</v>
       </c>
@@ -3638,7 +3648,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="24"/>
     </row>
-    <row r="79" spans="1:10" ht="20.25" customHeight="1">
+    <row r="79" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>76</v>
       </c>
@@ -3658,7 +3668,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="24"/>
     </row>
-    <row r="80" spans="1:10" ht="20.25" customHeight="1">
+    <row r="80" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>77</v>
       </c>
@@ -3678,7 +3688,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="24"/>
     </row>
-    <row r="81" spans="1:10" ht="20.25" customHeight="1">
+    <row r="81" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>78</v>
       </c>
@@ -3698,7 +3708,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="24"/>
     </row>
-    <row r="82" spans="1:10" ht="20.25" customHeight="1">
+    <row r="82" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>79</v>
       </c>
@@ -3727,14 +3737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3745,7 +3755,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -3754,7 +3764,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -3763,7 +3773,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3795,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -3815,7 +3825,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -3835,7 +3845,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -3855,7 +3865,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -3875,7 +3885,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -3895,7 +3905,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -3915,7 +3925,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -3935,7 +3945,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -3955,7 +3965,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -3975,7 +3985,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3995,7 +4005,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -4015,7 +4025,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -4035,7 +4045,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -4054,7 +4064,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -4074,7 +4084,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -4094,7 +4104,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -4114,7 +4124,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -4134,7 +4144,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -4154,7 +4164,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -4174,7 +4184,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -4194,7 +4204,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -4222,14 +4232,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4240,7 +4250,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -4251,7 +4261,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -4265,7 +4275,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4282,7 +4292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4346,7 +4356,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4378,7 +4388,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4410,7 +4420,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4442,7 +4452,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -4475,7 +4485,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -4507,7 +4517,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -4539,7 +4549,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4559,7 +4569,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4579,7 +4589,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4599,7 +4609,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4619,7 +4629,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4639,7 +4649,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4659,7 +4669,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4679,7 +4689,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4699,7 +4709,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4719,7 +4729,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4739,7 +4749,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4759,7 +4769,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4779,7 +4789,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4799,7 +4809,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4827,14 +4837,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4845,7 +4855,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -4856,7 +4866,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -4870,7 +4880,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4887,7 +4897,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4919,7 +4929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4953,7 +4963,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4987,7 +4997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -5021,7 +5031,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -5055,7 +5065,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -5075,7 +5085,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -5095,7 +5105,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -5115,7 +5125,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -5135,7 +5145,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5155,7 +5165,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5175,7 +5185,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5195,7 +5205,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5215,7 +5225,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5234,7 +5244,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5254,7 +5264,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5274,7 +5284,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5294,7 +5304,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5314,7 +5324,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5334,7 +5344,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5354,7 +5364,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5374,7 +5384,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5401,14 +5411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -5419,24 +5429,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5468,7 +5478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5500,7 +5510,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -5533,7 +5543,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -5565,7 +5575,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -5597,7 +5607,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -5629,7 +5639,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -5662,7 +5672,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -5695,7 +5705,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -5728,7 +5738,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -5760,7 +5770,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -5793,7 +5803,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5813,7 +5823,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5833,7 +5843,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5852,7 +5862,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5872,7 +5882,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5892,7 +5902,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5912,7 +5922,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5932,7 +5942,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5952,7 +5962,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5972,7 +5982,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5992,7 +6002,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -6020,32 +6030,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
         <v>138</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -6053,7 +6063,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>111</v>
       </c>
@@ -6061,7 +6071,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>112</v>
       </c>
@@ -6069,7 +6079,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>113</v>
       </c>
@@ -6077,7 +6087,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1">
+    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34" t="s">
         <v>114</v>
       </c>
@@ -6085,7 +6095,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
         <v>115</v>
       </c>
@@ -6093,7 +6103,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
         <v>116</v>
       </c>
@@ -6101,7 +6111,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
         <v>117</v>
       </c>
@@ -6121,14 +6131,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -6139,7 +6149,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
@@ -6148,7 +6158,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
@@ -6157,7 +6167,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -6166,7 +6176,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6198,7 +6208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6232,7 +6242,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -6266,7 +6276,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -6298,7 +6308,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="38">
         <v>4</v>
       </c>
@@ -6332,7 +6342,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -6366,7 +6376,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -6400,7 +6410,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -6434,7 +6444,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -6460,7 +6470,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -6494,7 +6504,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -6528,7 +6538,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -6562,7 +6572,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -6594,7 +6604,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -6628,7 +6638,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -6662,7 +6672,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -6696,7 +6706,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -6728,27 +6738,39 @@
       </c>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="11">
+        <v>42116</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>158</v>
+      </c>
       <c r="F21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="G21" s="2">
+        <v>40</v>
+      </c>
       <c r="H21" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -6768,7 +6790,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -6788,7 +6810,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -6816,32 +6838,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -6849,7 +6871,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>132</v>
       </c>
@@ -6857,7 +6879,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5">
+    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>131</v>
       </c>
@@ -6865,7 +6887,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1">
+    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
         <v>133</v>
       </c>
@@ -6873,7 +6895,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>134</v>
       </c>
@@ -6881,7 +6903,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45" t="s">
         <v>135</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="210">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -813,46 +813,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>山东省威海市荣成市大疃镇北岭长村，王本山收，电话13082674163,座机06317773905</t>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信：霞子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天国际大厦7楼欣和企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市荔湾区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理人：孙蕊 王勇翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞景华城热处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>山东省威海市荣成市大疃镇北岭长村，王本山收，电话13082674163,座机06317773905</t>
+    <t>地址:北京市怀柔区大中富乐五号楼王京明15011033197</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代理：北京 未下单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信：霞子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝天国际大厦7楼欣和企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市荔湾区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理人：孙蕊 王勇翔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俞景华城热处理</t>
+    <t>代理：北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天国际大厦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王慧，刘朋，融科笑笑，王世文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1418,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3131,42 +3147,60 @@
       <c r="D53" s="1">
         <v>1</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>158</v>
+      </c>
       <c r="F53" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="G53" s="10">
+        <v>20</v>
+      </c>
       <c r="H53" s="10">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="B54" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="11">
+        <v>42117</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>158</v>
+      </c>
       <c r="F54" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="G54" s="10">
+        <v>20</v>
+      </c>
       <c r="H54" s="10">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="55" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
@@ -6134,8 +6168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6643,7 +6677,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="11">
         <v>42115</v>
@@ -6666,10 +6700,10 @@
         <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18" s="24" t="s">
         <v>197</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6677,7 +6711,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C19" s="11">
         <v>42116</v>
@@ -6700,10 +6734,10 @@
         <v>20</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J19" s="24" t="s">
         <v>201</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6711,7 +6745,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" s="11">
         <v>42116</v>
@@ -6734,7 +6768,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J20" s="24"/>
     </row>
@@ -6743,7 +6777,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C21" s="11">
         <v>42116</v>
@@ -6766,7 +6800,7 @@
         <v>40</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J21" s="24"/>
     </row>
@@ -6774,21 +6808,35 @@
       <c r="A22" s="12">
         <v>18</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="11">
+        <v>42117</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>158</v>
+      </c>
       <c r="F22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="G22" s="2">
+        <v>40</v>
+      </c>
       <c r="H22" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="212">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -869,6 +869,14 @@
   </si>
   <si>
     <t>王慧，刘朋，融科笑笑，王世文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南市高新区齐鲁软件园B座三楼，山东益信通科贸有限公司，孙慧娟，13205408718</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1435,7 +1443,7 @@
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+      <selection activeCell="H53" sqref="H53:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4875,7 +4883,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5103,20 +5111,32 @@
       <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="10"/>
+      <c r="B9" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="13">
+        <v>42117</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>140</v>
+      </c>
       <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="G9" s="10">
+        <v>24</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5441,6 +5461,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="214">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -879,12 +879,20 @@
     <t>已付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>河北省邯郸市丛台区永新里22 -3-8   周俊丽收189 3272 8991（芒果一箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省廊坊市广阳区广阳道20号中太大厦六楼，奎媛，18032611292（芒果一箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,7 +1204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1228,10 +1236,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1263,7 +1270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1439,14 +1445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53:H54"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -1457,7 +1463,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1546,7 +1552,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1578,7 +1584,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1610,7 +1616,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1642,7 +1648,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1674,7 +1680,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1706,7 +1712,7 @@
       </c>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1738,7 +1744,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1770,7 +1776,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1802,7 +1808,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1834,7 +1840,7 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1866,7 +1872,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1898,7 +1904,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1930,7 +1936,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1962,7 +1968,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1994,7 +2000,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -2232,7 +2238,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2334,7 +2340,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2400,7 +2406,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2432,7 +2438,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -2500,7 +2506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2670,7 +2676,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -2840,7 +2846,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2872,7 +2878,7 @@
       </c>
       <c r="J44" s="24"/>
     </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2906,7 +2912,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="20.25" customHeight="1">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="20.25" customHeight="1">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="20.25" customHeight="1">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -3008,7 +3014,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="20.25" customHeight="1">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -3042,7 +3048,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -3142,7 +3148,7 @@
       </c>
       <c r="J52" s="24"/>
     </row>
-    <row r="53" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="20.25" customHeight="1">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -3210,47 +3216,75 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="20.25" customHeight="1">
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="B55" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="11">
+        <v>42118</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>158</v>
+      </c>
       <c r="F55" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="G55" s="10">
+        <v>20</v>
+      </c>
       <c r="H55" s="10">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="24"/>
-    </row>
-    <row r="56" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="20.25" customHeight="1">
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="11">
+        <v>42118</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>158</v>
+      </c>
       <c r="F56" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="G56" s="10">
+        <v>20</v>
+      </c>
       <c r="H56" s="10">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="24"/>
-    </row>
-    <row r="57" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="20.25" customHeight="1">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -3270,7 +3304,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="24"/>
     </row>
-    <row r="58" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="20.25" customHeight="1">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -3290,7 +3324,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="24"/>
     </row>
-    <row r="59" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="20.25" customHeight="1">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -3310,7 +3344,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="24"/>
     </row>
-    <row r="60" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="20.25" customHeight="1">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -3330,7 +3364,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="24"/>
     </row>
-    <row r="61" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="20.25" customHeight="1">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -3350,7 +3384,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="24"/>
     </row>
-    <row r="62" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="20.25" customHeight="1">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -3370,7 +3404,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="24"/>
     </row>
-    <row r="63" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" ht="20.25" customHeight="1">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -3390,7 +3424,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="24"/>
     </row>
-    <row r="64" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" ht="20.25" customHeight="1">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -3410,7 +3444,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="24"/>
     </row>
-    <row r="65" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" ht="20.25" customHeight="1">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -3430,7 +3464,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="24"/>
     </row>
-    <row r="66" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" ht="20.25" customHeight="1">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -3450,7 +3484,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="24"/>
     </row>
-    <row r="67" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" ht="20.25" customHeight="1">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -3470,7 +3504,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="24"/>
     </row>
-    <row r="68" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="20.25" customHeight="1">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -3490,7 +3524,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="24"/>
     </row>
-    <row r="69" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" ht="20.25" customHeight="1">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -3510,7 +3544,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="24"/>
     </row>
-    <row r="70" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="20.25" customHeight="1">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -3530,7 +3564,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="24"/>
     </row>
-    <row r="71" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" ht="20.25" customHeight="1">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -3550,7 +3584,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" ht="20.25" customHeight="1">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -3570,7 +3604,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="24"/>
     </row>
-    <row r="73" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="20.25" customHeight="1">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -3590,7 +3624,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="24"/>
     </row>
-    <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="20.25" customHeight="1">
       <c r="A74" s="1">
         <v>71</v>
       </c>
@@ -3610,7 +3644,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="24"/>
     </row>
-    <row r="75" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="20.25" customHeight="1">
       <c r="A75" s="1">
         <v>72</v>
       </c>
@@ -3630,7 +3664,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="24"/>
     </row>
-    <row r="76" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" ht="20.25" customHeight="1">
       <c r="A76" s="1">
         <v>73</v>
       </c>
@@ -3650,7 +3684,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="24"/>
     </row>
-    <row r="77" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="20.25" customHeight="1">
       <c r="A77" s="1">
         <v>74</v>
       </c>
@@ -3670,7 +3704,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="24"/>
     </row>
-    <row r="78" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" ht="20.25" customHeight="1">
       <c r="A78" s="1">
         <v>75</v>
       </c>
@@ -3690,7 +3724,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="24"/>
     </row>
-    <row r="79" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="20.25" customHeight="1">
       <c r="A79" s="1">
         <v>76</v>
       </c>
@@ -3710,7 +3744,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="24"/>
     </row>
-    <row r="80" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" ht="20.25" customHeight="1">
       <c r="A80" s="1">
         <v>77</v>
       </c>
@@ -3730,7 +3764,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="24"/>
     </row>
-    <row r="81" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" ht="20.25" customHeight="1">
       <c r="A81" s="1">
         <v>78</v>
       </c>
@@ -3750,7 +3784,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="24"/>
     </row>
-    <row r="82" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" ht="20.25" customHeight="1">
       <c r="A82" s="1">
         <v>79</v>
       </c>
@@ -3779,14 +3813,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -3797,7 +3831,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
@@ -3806,7 +3840,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="17" t="s">
         <v>21</v>
       </c>
@@ -3815,7 +3849,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3847,7 +3881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -3867,7 +3901,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -3887,7 +3921,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -3907,7 +3941,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -3927,7 +3961,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -3947,7 +3981,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -3967,7 +4001,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -3987,7 +4021,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -4007,7 +4041,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4027,7 +4061,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -4047,7 +4081,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -4067,7 +4101,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -4087,7 +4121,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -4106,7 +4140,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -4126,7 +4160,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -4146,7 +4180,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -4166,7 +4200,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -4186,7 +4220,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -4206,7 +4240,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -4226,7 +4260,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -4246,7 +4280,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -4274,14 +4308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4292,7 +4326,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
@@ -4303,7 +4337,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -4317,7 +4351,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4334,7 +4368,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4366,7 +4400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4398,7 +4432,7 @@
       </c>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4430,7 +4464,7 @@
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4462,7 +4496,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4494,7 +4528,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -4527,7 +4561,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -4559,7 +4593,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -4591,7 +4625,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -4611,7 +4645,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4631,7 +4665,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4651,7 +4685,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4671,7 +4705,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4691,7 +4725,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4711,7 +4745,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4731,7 +4765,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4751,7 +4785,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4771,7 +4805,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4791,7 +4825,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4811,7 +4845,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4831,7 +4865,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4851,7 +4885,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4879,14 +4913,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -4897,7 +4931,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
@@ -4908,7 +4942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -4922,7 +4956,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4939,7 +4973,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4971,7 +5005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5005,7 +5039,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -5039,7 +5073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -5073,7 +5107,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="30.75" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -5107,7 +5141,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -5139,7 +5173,7 @@
       </c>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -5159,7 +5193,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -5179,7 +5213,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -5199,7 +5233,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5219,7 +5253,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5239,7 +5273,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5259,7 +5293,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5279,7 +5313,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5298,7 +5332,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5318,7 +5352,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5338,7 +5372,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5358,7 +5392,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5378,7 +5412,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5398,7 +5432,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5418,7 +5452,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5438,7 +5472,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5466,14 +5500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -5484,24 +5518,24 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5533,7 +5567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5565,7 +5599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -5598,7 +5632,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -5630,7 +5664,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -5662,7 +5696,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -5694,7 +5728,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -5727,7 +5761,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -5760,7 +5794,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -5793,7 +5827,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -5825,7 +5859,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -5858,7 +5892,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5878,7 +5912,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5898,7 +5932,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5917,7 +5951,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5937,7 +5971,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5957,7 +5991,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5977,7 +6011,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5997,7 +6031,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -6017,7 +6051,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -6037,7 +6071,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -6057,7 +6091,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="20.25" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -6085,32 +6119,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>138</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="43" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -6118,7 +6152,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
         <v>111</v>
       </c>
@@ -6126,7 +6160,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
         <v>112</v>
       </c>
@@ -6134,7 +6168,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
         <v>113</v>
       </c>
@@ -6142,7 +6176,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="75" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>114</v>
       </c>
@@ -6150,7 +6184,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>115</v>
       </c>
@@ -6158,7 +6192,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
         <v>116</v>
       </c>
@@ -6166,7 +6200,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
         <v>117</v>
       </c>
@@ -6186,14 +6220,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="54.125" customWidth="1"/>
@@ -6204,7 +6238,7 @@
     <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
@@ -6213,7 +6247,7 @@
       </c>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
@@ -6222,7 +6256,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
@@ -6231,7 +6265,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6263,7 +6297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -6297,7 +6331,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -6331,7 +6365,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -6363,7 +6397,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="38">
         <v>4</v>
       </c>
@@ -6397,7 +6431,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -6431,7 +6465,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -6465,7 +6499,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -6499,7 +6533,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -6525,7 +6559,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -6559,7 +6593,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -6593,7 +6627,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -6627,7 +6661,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -6659,7 +6693,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -6693,7 +6727,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -6727,7 +6761,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="20.25" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -6761,7 +6795,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="20.25" customHeight="1">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -6793,7 +6827,7 @@
       </c>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -6825,7 +6859,7 @@
       </c>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -6859,7 +6893,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="20.25" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -6879,7 +6913,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="20.25" customHeight="1">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -6907,32 +6941,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="43" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>109</v>
       </c>
@@ -6940,7 +6974,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
         <v>132</v>
       </c>
@@ -6948,7 +6982,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="35" t="s">
         <v>131</v>
       </c>
@@ -6956,7 +6990,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="35.25" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>133</v>
       </c>
@@ -6964,7 +6998,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="42.75" customHeight="1">
       <c r="A7" s="37" t="s">
         <v>134</v>
       </c>
@@ -6972,7 +7006,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="20.25" customHeight="1">
       <c r="A8" s="45" t="s">
         <v>135</v>
       </c>

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="你好芒" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="213">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,11 +797,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>山东省烟台市莱山区观海路38号 13964508216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市西城区什刹海后海北沿13号  辛俊高 收 13521175956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省威海市荣成市大疃镇北岭长村，王本山收，电话13082674163,座机06317773905</t>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信：霞子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天国际大厦7楼欣和企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市荔湾区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理人：孙蕊 王勇翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞景华城热处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址:北京市怀柔区大中富乐五号楼王京明15011033197</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天国际大厦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>山东省烟台市莱山区观海路38号 13964508216</t>
+    <t>王慧，刘朋，融科笑笑，王世文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南市高新区齐鲁软件园B座三楼，山东益信通科贸有限公司，孙慧娟，13205408718</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -809,82 +872,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京市西城区什刹海后海北沿13号  辛俊高 收 13521175956</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东省威海市荣成市大疃镇北岭长村，王本山收，电话13082674163,座机06317773905</t>
+    <t>河北省邯郸市丛台区永新里22 -3-8   周俊丽收189 3272 8991（芒果一箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省廊坊市广阳区广阳道20号中太大厦六楼，奎媛，18032611292（芒果一箱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信：霞子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝天国际大厦7楼欣和企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市荔湾区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理人：孙蕊 王勇翔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俞景华城热处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址:北京市怀柔区大中富乐五号楼王京明15011033197</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理：北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝天国际大厦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王慧，刘朋，融科笑笑，王世文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>济南市高新区齐鲁软件园B座三楼，山东益信通科贸有限公司，孙慧娟，13205408718</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北省邯郸市丛台区永新里22 -3-8   周俊丽收189 3272 8991（芒果一箱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北省廊坊市广阳区广阳道20号中太大厦六楼，奎媛，18032611292（芒果一箱）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1448,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2846,463 +2842,477 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A44" s="1">
+    <row r="44" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A44" s="5">
         <v>41</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="7">
         <v>42111</v>
       </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8">
         <v>128</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="8">
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="G44" s="10">
-        <v>20</v>
-      </c>
-      <c r="H44" s="10">
+      <c r="G44" s="8">
+        <v>20</v>
+      </c>
+      <c r="H44" s="8">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J44" s="24"/>
-    </row>
-    <row r="45" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A45" s="1">
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A45" s="5">
         <v>42</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="7">
         <v>42113</v>
       </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8">
         <v>158</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="8">
         <f t="shared" ref="F45:F50" si="10">D45*E45</f>
         <v>158</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="8">
         <v>-20</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="8">
         <f t="shared" ref="H45:H50" si="11">D45*G45</f>
         <v>-20</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J45" s="27" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A46" s="1">
+    <row r="46" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A46" s="5">
         <v>43</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="7">
         <v>42113</v>
       </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8">
         <v>128</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="8">
         <f t="shared" si="10"/>
         <v>128</v>
       </c>
-      <c r="G46" s="10">
-        <v>20</v>
-      </c>
-      <c r="H46" s="10">
+      <c r="G46" s="8">
+        <v>20</v>
+      </c>
+      <c r="H46" s="8">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="J46" s="24" t="s">
+      <c r="J46" s="27" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A47" s="1">
+    <row r="47" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A47" s="5">
         <v>44</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="7">
         <v>42114</v>
       </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8">
         <v>128</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="8">
         <f t="shared" si="10"/>
         <v>128</v>
       </c>
-      <c r="G47" s="10">
-        <v>20</v>
-      </c>
-      <c r="H47" s="10">
+      <c r="G47" s="8">
+        <v>20</v>
+      </c>
+      <c r="H47" s="8">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J47" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A48" s="1">
+    <row r="48" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A48" s="5">
         <v>45</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="7">
         <v>42114</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="5">
         <v>3</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="8">
         <v>128</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="8">
         <f t="shared" si="10"/>
         <v>384</v>
       </c>
-      <c r="G48" s="10">
-        <v>20</v>
-      </c>
-      <c r="H48" s="10">
+      <c r="G48" s="8">
+        <v>20</v>
+      </c>
+      <c r="H48" s="8">
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J48" s="24" t="s">
+      <c r="J48" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A49" s="1">
+    <row r="49" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A49" s="5">
         <v>46</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="7">
         <v>42114</v>
       </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8">
         <v>128</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="8">
         <f t="shared" si="10"/>
         <v>128</v>
       </c>
-      <c r="G49" s="10">
-        <v>20</v>
-      </c>
-      <c r="H49" s="10">
+      <c r="G49" s="8">
+        <v>20</v>
+      </c>
+      <c r="H49" s="8">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="24" t="s">
+      <c r="J49" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A50" s="1">
+    <row r="50" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A50" s="5">
         <v>47</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="7">
         <v>42114</v>
       </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8">
         <v>158</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="8">
         <f t="shared" si="10"/>
         <v>158</v>
       </c>
-      <c r="G50" s="10">
-        <v>20</v>
-      </c>
-      <c r="H50" s="10">
+      <c r="G50" s="8">
+        <v>20</v>
+      </c>
+      <c r="H50" s="8">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="27" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A51" s="1">
+    <row r="51" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A51" s="5">
         <v>48</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="7">
         <v>42114</v>
       </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8">
         <v>128</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="8">
         <f t="shared" ref="F51:F58" si="12">D51*E51</f>
         <v>128</v>
       </c>
-      <c r="G51" s="10">
-        <v>20</v>
-      </c>
-      <c r="H51" s="10">
+      <c r="G51" s="8">
+        <v>20</v>
+      </c>
+      <c r="H51" s="8">
         <f t="shared" ref="H51:H58" si="13">D51*G51</f>
         <v>20</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="J51" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A52" s="1">
+    <row r="52" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A52" s="5">
         <v>49</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="11">
+      <c r="B52" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="7">
         <v>42115</v>
       </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="8">
         <v>168</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="8">
         <f t="shared" si="12"/>
         <v>168</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="8">
         <v>30</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="8">
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J52" s="27"/>
+    </row>
+    <row r="53" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A53" s="5">
+        <v>50</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="J52" s="24"/>
-    </row>
-    <row r="53" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A53" s="1">
-        <v>50</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="11">
+      <c r="C53" s="7">
         <v>42115</v>
       </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
+      <c r="E53" s="8">
         <v>158</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="8">
         <f t="shared" si="12"/>
         <v>158</v>
       </c>
-      <c r="G53" s="10">
-        <v>20</v>
-      </c>
-      <c r="H53" s="10">
+      <c r="G53" s="8">
+        <v>20</v>
+      </c>
+      <c r="H53" s="8">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J53" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A54" s="1">
+      <c r="I53" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A54" s="5">
         <v>51</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="11">
+      <c r="B54" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="7">
         <v>42117</v>
       </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="8">
         <v>158</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="8">
         <f t="shared" si="12"/>
         <v>158</v>
       </c>
-      <c r="G54" s="10">
-        <v>20</v>
-      </c>
-      <c r="H54" s="10">
+      <c r="G54" s="8">
+        <v>20</v>
+      </c>
+      <c r="H54" s="8">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J54" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A55" s="1">
+      <c r="I54" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A55" s="5">
         <v>52</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C55" s="11">
+      <c r="B55" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="7">
         <v>42118</v>
       </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8">
         <v>158</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="8">
         <f t="shared" si="12"/>
         <v>158</v>
       </c>
-      <c r="G55" s="10">
-        <v>20</v>
-      </c>
-      <c r="H55" s="10">
+      <c r="G55" s="8">
+        <v>20</v>
+      </c>
+      <c r="H55" s="8">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="24" t="s">
+      <c r="J55" s="27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A56" s="1">
+    <row r="56" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A56" s="5">
         <v>53</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C56" s="11">
+      <c r="B56" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="7">
         <v>42118</v>
       </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2">
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8">
         <v>158</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="8">
         <f t="shared" si="12"/>
         <v>158</v>
       </c>
-      <c r="G56" s="10">
-        <v>20</v>
-      </c>
-      <c r="H56" s="10">
+      <c r="G56" s="8">
+        <v>20</v>
+      </c>
+      <c r="H56" s="8">
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="24" t="s">
+      <c r="J56" s="27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A57" s="1">
+    <row r="57" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A57" s="5">
         <v>54</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="10">
+      <c r="B57" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="7">
+        <v>42118</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="8">
+        <v>128</v>
+      </c>
+      <c r="F57" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10">
+        <v>128</v>
+      </c>
+      <c r="G57" s="8">
+        <v>20</v>
+      </c>
+      <c r="H57" s="8">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="58" spans="1:10" ht="20.25" customHeight="1">
       <c r="A58" s="1">
@@ -5146,7 +5156,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" s="13">
         <v>42117</v>
@@ -5169,7 +5179,7 @@
         <v>24</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J9" s="28"/>
     </row>
@@ -6223,8 +6233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6693,178 +6703,178 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A17" s="1">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <v>42114</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
         <v>158</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="8">
         <v>40</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J17" s="24" t="s">
+      <c r="I17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="27" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A18" s="12">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="7">
+        <v>42115</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>158</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="G18" s="8">
+        <v>40</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="11">
-        <v>42115</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="J18" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="7">
+        <v>42116</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>138</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="G19" s="8">
+        <v>20</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="7">
+        <v>42116</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>138</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="G20" s="8">
+        <v>20</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="7">
+        <v>42116</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
         <v>158</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F21" s="8">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G21" s="8">
         <v>40</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H21" s="8">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="11">
-        <v>42116</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>138</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="G19" s="2">
-        <v>20</v>
-      </c>
-      <c r="H19" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A20" s="12">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="11">
-        <v>42116</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>138</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="G20" s="2">
-        <v>20</v>
-      </c>
-      <c r="H20" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="11">
-        <v>42116</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>158</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="0"/>
-        <v>158</v>
-      </c>
-      <c r="G21" s="2">
-        <v>40</v>
-      </c>
-      <c r="H21" s="10">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J21" s="24"/>
+      <c r="I21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" ht="20.25" customHeight="1">
       <c r="A22" s="12">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C22" s="11">
         <v>42117</v>
@@ -6887,10 +6897,10 @@
         <v>40</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1">

--- a/Documents/农鲜购订单.xlsx
+++ b/Documents/农鲜购订单.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="你好芒" sheetId="1" r:id="rId1"/>
-    <sheet name="二蛋妈阿胶糕" sheetId="2" r:id="rId2"/>
-    <sheet name="一块密" sheetId="3" r:id="rId3"/>
-    <sheet name="晓起皇菊" sheetId="4" r:id="rId4"/>
-    <sheet name="红斗车订单" sheetId="5" r:id="rId5"/>
-    <sheet name="你好芒代理价格表" sheetId="6" r:id="rId6"/>
+    <sheet name="你好芒" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="你好芒代理价格表" sheetId="6" state="hidden" r:id="rId2"/>
+    <sheet name="二蛋妈阿胶糕" sheetId="2" r:id="rId3"/>
+    <sheet name="一块密" sheetId="3" r:id="rId4"/>
+    <sheet name="晓起皇菊" sheetId="4" r:id="rId5"/>
+    <sheet name="红斗车订单" sheetId="5" r:id="rId6"/>
     <sheet name="枇杷" sheetId="8" r:id="rId7"/>
     <sheet name="枇杷代理价格表" sheetId="9" r:id="rId8"/>
+    <sheet name="荔枝" sheetId="10" r:id="rId9"/>
+    <sheet name="荔枝代理价格表" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">你好芒!$A$3:$J$3</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="236">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -860,10 +862,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王慧，刘朋，融科笑笑，王世文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>济南市高新区齐鲁软件园B座三楼，山东益信通科贸有限公司，孙慧娟，13205408718</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -881,6 +879,106 @@
   </si>
   <si>
     <t>已付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王慧，刘朋，子涵，王世文（未付款）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理：喜乐鲜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰全程冷链,24~48小时内到货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白糖罂
+5斤装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妃子笑
+5斤装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白糖罂+妃子笑
+混搭5斤装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂味
+5斤装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国顺丰包邮价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议零售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>148元+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158元+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>178元+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省包邮价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128元+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138元+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：以下偏远地区运费比较贵，（甘肃、青海、内蒙古、宁夏）零售及代理价需要补10元一箱的费用，（新疆、西藏、黑龙江、吉林）需要补20元一箱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔枝妹妹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -954,7 +1052,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1003,8 +1101,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1038,11 +1148,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1139,6 +1289,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,7 +1615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -3217,7 +3388,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C55" s="7">
         <v>42118</v>
@@ -3251,7 +3422,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C56" s="7">
         <v>42118</v>
@@ -3308,7 +3479,7 @@
         <v>20</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J57" s="27" t="s">
         <v>178</v>
@@ -3822,7 +3993,252 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A1" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="35"/>
+      <c r="B4" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
+      <c r="A5" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A6" s="37"/>
+      <c r="B6" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A7" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="44"/>
+    </row>
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="44"/>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A3" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75" customHeight="1">
+      <c r="A7" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A8" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -4317,12 +4733,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4603,35 +5019,35 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A11" s="5">
+    <row r="11" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A11" s="38">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="39">
         <v>42090</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="38">
+        <v>1</v>
+      </c>
+      <c r="E11" s="40">
         <v>50</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="40">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="40">
         <v>-35</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="40">
         <f t="shared" si="1"/>
         <v>-35</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="27" t="s">
+      <c r="I11" s="40"/>
+      <c r="J11" s="41" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4922,12 +5338,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5151,37 +5567,37 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A9" s="12">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="7">
         <v>42117</v>
       </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
         <v>140</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>24</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="J9" s="28"/>
+      <c r="I9" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="12">
@@ -5509,7 +5925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -6128,113 +6544,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="44"/>
-    </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="44"/>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A3" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="75" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A8" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6835,7 +7150,9 @@
       <c r="I20" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="J20" s="27"/>
+      <c r="J20" s="27" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="5">
@@ -6869,38 +7186,38 @@
       </c>
       <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A22" s="12">
+    <row r="22" spans="1:10" s="42" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A22" s="38">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="39">
         <v>42117</v>
       </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="38">
+        <v>1</v>
+      </c>
+      <c r="E22" s="40">
         <v>158</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="40">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="40">
         <v>40</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="40">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="J22" s="24" t="s">
-        <v>207</v>
+      <c r="J22" s="41" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.25" customHeight="1">
@@ -7032,4 +7349,498 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="54.125" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="8" width="7.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="35.75" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="C1" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
+        <f t="shared" ref="F5:F25" si="0">D5*E5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10">
+        <f>D5*G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
+        <f t="shared" ref="H6:H25" si="1">D6*G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+    